--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48418625895179</v>
+        <v>21.48418625895181</v>
       </c>
       <c r="C2">
-        <v>16.04731146632792</v>
+        <v>16.04731146632764</v>
       </c>
       <c r="D2">
-        <v>2.387850102092398</v>
+        <v>2.387850102092531</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.87631243123112</v>
+        <v>28.87631243123118</v>
       </c>
       <c r="G2">
-        <v>21.63469332940682</v>
+        <v>21.63469332940691</v>
       </c>
       <c r="H2">
-        <v>17.68287085431656</v>
+        <v>17.6828708543166</v>
       </c>
       <c r="I2">
-        <v>6.831587283182324</v>
+        <v>6.831587283182296</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.16033001589756</v>
+        <v>10.16033001589757</v>
       </c>
       <c r="L2">
-        <v>15.71770959560518</v>
+        <v>15.71770959560516</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.01651053919977</v>
+        <v>20.01651053919975</v>
       </c>
       <c r="C3">
-        <v>14.97842364456797</v>
+        <v>14.97842364456805</v>
       </c>
       <c r="D3">
-        <v>2.400153871851716</v>
+        <v>2.40015387185159</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.6141107741439</v>
+        <v>27.61411077414386</v>
       </c>
       <c r="G3">
-        <v>20.84982591461189</v>
+        <v>20.84982591461183</v>
       </c>
       <c r="H3">
-        <v>17.39954273679019</v>
+        <v>17.39954273679015</v>
       </c>
       <c r="I3">
-        <v>6.861128346618662</v>
+        <v>6.861128346618655</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.677727495913757</v>
+        <v>9.677727495913794</v>
       </c>
       <c r="L3">
-        <v>14.65911750984241</v>
+        <v>14.6591175098424</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06611428573304</v>
+        <v>19.06611428573299</v>
       </c>
       <c r="C4">
-        <v>14.28801184502438</v>
+        <v>14.2880118450245</v>
       </c>
       <c r="D4">
-        <v>2.408022183502785</v>
+        <v>2.408022183502717</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.84804294163358</v>
+        <v>26.8480429416336</v>
       </c>
       <c r="G4">
         <v>20.38232639380854</v>
       </c>
       <c r="H4">
-        <v>17.24747060231667</v>
+        <v>17.24747060231674</v>
       </c>
       <c r="I4">
-        <v>6.88467957657402</v>
+        <v>6.884679576573967</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.378265787553575</v>
+        <v>9.378265787553522</v>
       </c>
       <c r="L4">
-        <v>13.975369744439</v>
+        <v>13.97536974443899</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.6663039580305</v>
+        <v>18.66630395803049</v>
       </c>
       <c r="C5">
-        <v>13.99800209887433</v>
+        <v>13.99800209887437</v>
       </c>
       <c r="D5">
-        <v>2.411303352378992</v>
+        <v>2.411303352379111</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.53842665422167</v>
+        <v>26.53842665422166</v>
       </c>
       <c r="G5">
-        <v>20.19555836057307</v>
+        <v>20.19555836057311</v>
       </c>
       <c r="H5">
-        <v>17.19079292091777</v>
+        <v>17.19079292091781</v>
       </c>
       <c r="I5">
-        <v>6.89556592232882</v>
+        <v>6.895565922328897</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.255578890610042</v>
+        <v>9.255578890610058</v>
       </c>
       <c r="L5">
-        <v>13.68815590296352</v>
+        <v>13.68815590296348</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59915602056567</v>
+        <v>18.59915602056558</v>
       </c>
       <c r="C6">
-        <v>13.94932087236852</v>
+        <v>13.94932087236845</v>
       </c>
       <c r="D6">
-        <v>2.411852602095442</v>
+        <v>2.411852602095446</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.48717996648929</v>
+        <v>26.48717996648935</v>
       </c>
       <c r="G6">
-        <v>20.16477521671107</v>
+        <v>20.16477521671115</v>
       </c>
       <c r="H6">
-        <v>17.18169485763327</v>
+        <v>17.18169485763336</v>
       </c>
       <c r="I6">
-        <v>6.897449417985949</v>
+        <v>6.897449417985954</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.235171809644074</v>
+        <v>9.235171809644108</v>
       </c>
       <c r="L6">
-        <v>13.6399435685023</v>
+        <v>13.63994356850225</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06077315424141</v>
+        <v>19.06077315424132</v>
       </c>
       <c r="C7">
-        <v>14.28413584351601</v>
+        <v>14.28413584351622</v>
       </c>
       <c r="D7">
-        <v>2.408066136484213</v>
+        <v>2.408066136484151</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.84385652164663</v>
+        <v>26.84385652164671</v>
       </c>
       <c r="G7">
-        <v>20.37979226406269</v>
+        <v>20.37979226406275</v>
       </c>
       <c r="H7">
-        <v>17.24668508622349</v>
+        <v>17.24668508622364</v>
       </c>
       <c r="I7">
-        <v>6.884821266609081</v>
+        <v>6.884821266609046</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.376613637832619</v>
+        <v>9.376613637832582</v>
       </c>
       <c r="L7">
-        <v>13.97153113381957</v>
+        <v>13.97153113381955</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98826698752188</v>
+        <v>20.98826698752197</v>
       </c>
       <c r="C8">
-        <v>15.68578392736427</v>
+        <v>15.68578392736434</v>
       </c>
       <c r="D8">
-        <v>2.392024513961226</v>
+        <v>2.392024513961035</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.43942784018483</v>
+        <v>28.43942784018475</v>
       </c>
       <c r="G8">
-        <v>21.36114736258015</v>
+        <v>21.36114736258004</v>
       </c>
       <c r="H8">
-        <v>17.58051193713363</v>
+        <v>17.58051193713348</v>
       </c>
       <c r="I8">
-        <v>6.840604894619077</v>
+        <v>6.840604894619165</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.994654450022084</v>
+        <v>9.994654450022125</v>
       </c>
       <c r="L8">
-        <v>15.35965808873786</v>
+        <v>15.35965808873787</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.38394598717721</v>
+        <v>24.38394598717722</v>
       </c>
       <c r="C9">
-        <v>18.16823544837408</v>
+        <v>18.16823544837421</v>
       </c>
       <c r="D9">
         <v>2.363303216758469</v>
@@ -696,19 +696,19 @@
         <v>23.39559907093047</v>
       </c>
       <c r="H9">
-        <v>18.41772148881575</v>
+        <v>18.41772148881573</v>
       </c>
       <c r="I9">
-        <v>6.800310392661242</v>
+        <v>6.800310392661276</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.17709879117925</v>
+        <v>11.17709879117927</v>
       </c>
       <c r="L9">
-        <v>17.81846719863887</v>
+        <v>17.8184671986389</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,10 +719,10 @@
         <v>26.65441374124817</v>
       </c>
       <c r="C10">
-        <v>19.83702280875592</v>
+        <v>19.83702280875591</v>
       </c>
       <c r="D10">
-        <v>2.344324338045682</v>
+        <v>2.344324338045668</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>33.99711015020824</v>
       </c>
       <c r="G10">
-        <v>24.95365880370576</v>
+        <v>24.95365880370577</v>
       </c>
       <c r="H10">
-        <v>19.15566294280718</v>
+        <v>19.15566294280722</v>
       </c>
       <c r="I10">
-        <v>6.804147157054828</v>
+        <v>6.804147157054817</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.02368568444452</v>
+        <v>12.0236856844445</v>
       </c>
       <c r="L10">
-        <v>19.47171403810705</v>
+        <v>19.47171403810702</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64099057072292</v>
+        <v>27.64099057072288</v>
       </c>
       <c r="C11">
-        <v>20.56438950679529</v>
+        <v>20.56438950679504</v>
       </c>
       <c r="D11">
-        <v>2.33629138521426</v>
+        <v>2.336291385214214</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.08001699991392</v>
+        <v>35.08001699991397</v>
       </c>
       <c r="G11">
-        <v>25.67620856396482</v>
+        <v>25.67620856396488</v>
       </c>
       <c r="H11">
-        <v>19.52044954169829</v>
+        <v>19.52044954169839</v>
       </c>
       <c r="I11">
-        <v>6.814389817518773</v>
+        <v>6.814389817518716</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.42705255955046</v>
+        <v>12.42705255955041</v>
       </c>
       <c r="L11">
-        <v>20.19238916382508</v>
+        <v>20.19238916382502</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.00814621546839</v>
+        <v>28.00814621546843</v>
       </c>
       <c r="C12">
-        <v>20.83543139120635</v>
+        <v>20.83543139120629</v>
       </c>
       <c r="D12">
-        <v>2.333351194599066</v>
+        <v>2.333351194599116</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.49089688396005</v>
+        <v>35.49089688396009</v>
       </c>
       <c r="G12">
-        <v>25.95186346769881</v>
+        <v>25.95186346769884</v>
       </c>
       <c r="H12">
-        <v>19.6629709630799</v>
+        <v>19.66297096307992</v>
       </c>
       <c r="I12">
-        <v>6.819602262449765</v>
+        <v>6.819602262449727</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.60383681602647</v>
+        <v>12.60383681602649</v>
       </c>
       <c r="L12">
-        <v>20.46094751449555</v>
+        <v>20.46094751449559</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.92935544780546</v>
+        <v>27.92935544780542</v>
       </c>
       <c r="C13">
-        <v>20.77725021429258</v>
+        <v>20.77725021429262</v>
       </c>
       <c r="D13">
-        <v>2.333979612891476</v>
+        <v>2.333979612891592</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.40236877735076</v>
+        <v>35.40236877735082</v>
       </c>
       <c r="G13">
-        <v>25.89240390469544</v>
+        <v>25.89240390469548</v>
       </c>
       <c r="H13">
-        <v>19.63207806735855</v>
+        <v>19.63207806735862</v>
       </c>
       <c r="I13">
-        <v>6.81841847718926</v>
+        <v>6.818418477189342</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.56587521793621</v>
+        <v>12.56587521793623</v>
       </c>
       <c r="L13">
-        <v>20.4032990515477</v>
+        <v>20.40329905154768</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6713244452089</v>
+        <v>27.67132444520894</v>
       </c>
       <c r="C14">
-        <v>20.58677532616998</v>
+        <v>20.58677532616997</v>
       </c>
       <c r="D14">
-        <v>2.336047355558417</v>
+        <v>2.336047355558362</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,22 +883,22 @@
         <v>35.1138035135767</v>
       </c>
       <c r="G14">
-        <v>25.69884540563482</v>
+        <v>25.69884540563481</v>
       </c>
       <c r="H14">
-        <v>19.53208579020638</v>
+        <v>19.53208579020637</v>
       </c>
       <c r="I14">
-        <v>6.814791246775509</v>
+        <v>6.814791246775459</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.44164740992277</v>
+        <v>12.44164740992281</v>
       </c>
       <c r="L14">
-        <v>20.21456968017877</v>
+        <v>20.2145696801788</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>27.51244108746747</v>
       </c>
       <c r="C15">
-        <v>20.46953693768704</v>
+        <v>20.4695369376871</v>
       </c>
       <c r="D15">
-        <v>2.337327666367428</v>
+        <v>2.337327666367535</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.93715726907707</v>
+        <v>34.93715726907708</v>
       </c>
       <c r="G15">
-        <v>25.58055379023651</v>
+        <v>25.58055379023652</v>
       </c>
       <c r="H15">
-        <v>19.47141483557924</v>
+        <v>19.47141483557925</v>
       </c>
       <c r="I15">
-        <v>6.812746624053702</v>
+        <v>6.812746624053744</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36522373949568</v>
+        <v>12.36522373949565</v>
       </c>
       <c r="L15">
-        <v>20.09840688829821</v>
+        <v>20.09840688829819</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.589025380976</v>
+        <v>26.58902538097596</v>
       </c>
       <c r="C16">
-        <v>19.78886264102313</v>
+        <v>19.78886264102299</v>
       </c>
       <c r="D16">
-        <v>2.344862634043923</v>
+        <v>2.344862634043984</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.92644730453122</v>
+        <v>33.92644730453129</v>
       </c>
       <c r="G16">
-        <v>24.90671954836459</v>
+        <v>24.90671954836466</v>
       </c>
       <c r="H16">
-        <v>19.13242562746299</v>
+        <v>19.13242562746305</v>
       </c>
       <c r="I16">
-        <v>6.803658136085653</v>
+        <v>6.803658136085658</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>11.9987483122911</v>
       </c>
       <c r="L16">
-        <v>19.42399849217888</v>
+        <v>19.42399849217887</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.01083479806397</v>
+        <v>26.01083479806394</v>
       </c>
       <c r="C17">
-        <v>19.36326982295843</v>
+        <v>19.36326982295846</v>
       </c>
       <c r="D17">
-        <v>2.349648838568791</v>
+        <v>2.349648838568734</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.30775603861257</v>
+        <v>33.30775603861258</v>
       </c>
       <c r="G17">
-        <v>24.49689803088192</v>
+        <v>24.49689803088193</v>
       </c>
       <c r="H17">
-        <v>18.93205779045181</v>
+        <v>18.93205779045186</v>
       </c>
       <c r="I17">
-        <v>6.800336006596543</v>
+        <v>6.800336006596424</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.77963127394629</v>
+        <v>11.77963127394626</v>
       </c>
       <c r="L17">
-        <v>19.00234418628933</v>
+        <v>19.00234418628934</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.67390573892262</v>
+        <v>25.67390573892249</v>
       </c>
       <c r="C18">
-        <v>19.11547795827963</v>
+        <v>19.11547795827967</v>
       </c>
       <c r="D18">
-        <v>2.352457173104773</v>
+        <v>2.352457173104781</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.95238257444887</v>
+        <v>32.95238257444888</v>
       </c>
       <c r="G18">
-        <v>24.26246979259298</v>
+        <v>24.262469792593</v>
       </c>
       <c r="H18">
-        <v>18.81953744892668</v>
+        <v>18.81953744892676</v>
       </c>
       <c r="I18">
-        <v>6.799217835378115</v>
+        <v>6.799217835378032</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.65311836721428</v>
+        <v>11.65311836721426</v>
       </c>
       <c r="L18">
-        <v>18.75685356423197</v>
+        <v>18.75685356423195</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.55907075266965</v>
+        <v>25.55907075266968</v>
       </c>
       <c r="C19">
-        <v>19.0310593330916</v>
+        <v>19.03105933309193</v>
       </c>
       <c r="D19">
-        <v>2.353417133103336</v>
+        <v>2.35341713310339</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.83214162718554</v>
+        <v>32.83214162718556</v>
       </c>
       <c r="G19">
         <v>24.18331713903793</v>
       </c>
       <c r="H19">
-        <v>18.78190223678333</v>
+        <v>18.78190223678332</v>
       </c>
       <c r="I19">
-        <v>6.798972102589222</v>
+        <v>6.79897210258928</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>11.61020058282755</v>
       </c>
       <c r="L19">
-        <v>18.67322035765873</v>
+        <v>18.6732203576588</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.072834875077</v>
+        <v>26.07283487507693</v>
       </c>
       <c r="C20">
-        <v>19.40888442685459</v>
+        <v>19.40888442685452</v>
       </c>
       <c r="D20">
-        <v>2.349133500735004</v>
+        <v>2.349133500735</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.37356683038368</v>
+        <v>33.37356683038366</v>
       </c>
       <c r="G20">
-        <v>24.54039044666764</v>
+        <v>24.54039044666765</v>
       </c>
       <c r="H20">
-        <v>18.95310374689048</v>
+        <v>18.95310374689054</v>
       </c>
       <c r="I20">
-        <v>6.800606834889734</v>
+        <v>6.800606834889766</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.80300662903234</v>
+        <v>11.80300662903232</v>
       </c>
       <c r="L20">
-        <v>19.04753583424621</v>
+        <v>19.04753583424614</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.74728736451402</v>
+        <v>27.74728736451394</v>
       </c>
       <c r="C21">
-        <v>20.64284024624894</v>
+        <v>20.64284024624874</v>
       </c>
       <c r="D21">
-        <v>2.335437109883654</v>
+        <v>2.3354371098837</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.19853932146188</v>
+        <v>35.19853932146182</v>
       </c>
       <c r="G21">
-        <v>25.75564207277949</v>
+        <v>25.75564207277948</v>
       </c>
       <c r="H21">
-        <v>19.56133527839842</v>
+        <v>19.56133527839844</v>
       </c>
       <c r="I21">
-        <v>6.815819520468828</v>
+        <v>6.815819520468802</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>12.47820475939864</v>
       </c>
       <c r="L21">
-        <v>20.27012057205951</v>
+        <v>20.27012057205947</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.80421898283018</v>
+        <v>28.80421898283015</v>
       </c>
       <c r="C22">
-        <v>21.42377353486114</v>
+        <v>21.42377353486119</v>
       </c>
       <c r="D22">
-        <v>2.327088264013859</v>
+        <v>2.327088264013982</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.39605920632226</v>
+        <v>36.39605920632227</v>
       </c>
       <c r="G22">
-        <v>26.56184671628432</v>
+        <v>26.56184671628434</v>
       </c>
       <c r="H22">
-        <v>19.98451161903927</v>
+        <v>19.98451161903932</v>
       </c>
       <c r="I22">
-        <v>6.833594281436143</v>
+        <v>6.83359428143621</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.98813306528569</v>
+        <v>12.98813306528571</v>
       </c>
       <c r="L22">
         <v>21.04391285459736</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.24346228407316</v>
+        <v>28.2434622840732</v>
       </c>
       <c r="C23">
-        <v>21.00924791561949</v>
+        <v>21.00924791561941</v>
       </c>
       <c r="D23">
-        <v>2.331483088036787</v>
+        <v>2.331483088036788</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.75643833815763</v>
+        <v>35.75643833815765</v>
       </c>
       <c r="G23">
-        <v>26.13042987050239</v>
+        <v>26.1304298705024</v>
       </c>
       <c r="H23">
         <v>19.75623602411532</v>
       </c>
       <c r="I23">
-        <v>6.823351681300889</v>
+        <v>6.823351681300887</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.71729152546733</v>
+        <v>12.71729152546731</v>
       </c>
       <c r="L23">
         <v>20.63317373428191</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.04481873368552</v>
+        <v>26.04481873368557</v>
       </c>
       <c r="C24">
-        <v>19.38827177316454</v>
+        <v>19.38827177316461</v>
       </c>
       <c r="D24">
-        <v>2.349366309537315</v>
+        <v>2.349366309537267</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.34381277664085</v>
+        <v>33.34381277664081</v>
       </c>
       <c r="G24">
-        <v>24.52072384249875</v>
+        <v>24.52072384249868</v>
       </c>
       <c r="H24">
-        <v>18.94358055669962</v>
+        <v>18.94358055669956</v>
       </c>
       <c r="I24">
-        <v>6.800481935606342</v>
+        <v>6.800481935606424</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.79244031202506</v>
+        <v>11.79244031202507</v>
       </c>
       <c r="L24">
-        <v>19.02711428360897</v>
+        <v>19.02711428360898</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50547882844302</v>
+        <v>23.50547882844303</v>
       </c>
       <c r="C25">
-        <v>17.52447345850134</v>
+        <v>17.52447345850135</v>
       </c>
       <c r="D25">
-        <v>2.370739933924365</v>
+        <v>2.370739933924468</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.76034700287925</v>
+        <v>30.76034700287928</v>
       </c>
       <c r="G25">
-        <v>22.8339504415561</v>
+        <v>22.83395044155615</v>
       </c>
       <c r="H25">
-        <v>18.17047050854192</v>
+        <v>18.17047050854196</v>
       </c>
       <c r="I25">
-        <v>6.805733218704717</v>
+        <v>6.80573321870467</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.86090959165675</v>
+        <v>10.86090959165671</v>
       </c>
       <c r="L25">
-        <v>17.18077899947716</v>
+        <v>17.18077899947719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48418625895181</v>
+        <v>21.48418625895179</v>
       </c>
       <c r="C2">
-        <v>16.04731146632764</v>
+        <v>16.04731146632792</v>
       </c>
       <c r="D2">
-        <v>2.387850102092531</v>
+        <v>2.387850102092398</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.87631243123118</v>
+        <v>28.87631243123112</v>
       </c>
       <c r="G2">
-        <v>21.63469332940691</v>
+        <v>21.63469332940682</v>
       </c>
       <c r="H2">
-        <v>17.6828708543166</v>
+        <v>17.68287085431656</v>
       </c>
       <c r="I2">
-        <v>6.831587283182296</v>
+        <v>6.831587283182324</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.16033001589757</v>
+        <v>10.16033001589756</v>
       </c>
       <c r="L2">
-        <v>15.71770959560516</v>
+        <v>15.71770959560518</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.01651053919975</v>
+        <v>20.01651053919977</v>
       </c>
       <c r="C3">
-        <v>14.97842364456805</v>
+        <v>14.97842364456797</v>
       </c>
       <c r="D3">
-        <v>2.40015387185159</v>
+        <v>2.400153871851716</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.61411077414386</v>
+        <v>27.6141107741439</v>
       </c>
       <c r="G3">
-        <v>20.84982591461183</v>
+        <v>20.84982591461189</v>
       </c>
       <c r="H3">
-        <v>17.39954273679015</v>
+        <v>17.39954273679019</v>
       </c>
       <c r="I3">
-        <v>6.861128346618655</v>
+        <v>6.861128346618662</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.677727495913794</v>
+        <v>9.677727495913757</v>
       </c>
       <c r="L3">
-        <v>14.6591175098424</v>
+        <v>14.65911750984241</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06611428573299</v>
+        <v>19.06611428573304</v>
       </c>
       <c r="C4">
-        <v>14.2880118450245</v>
+        <v>14.28801184502438</v>
       </c>
       <c r="D4">
-        <v>2.408022183502717</v>
+        <v>2.408022183502785</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.8480429416336</v>
+        <v>26.84804294163358</v>
       </c>
       <c r="G4">
         <v>20.38232639380854</v>
       </c>
       <c r="H4">
-        <v>17.24747060231674</v>
+        <v>17.24747060231667</v>
       </c>
       <c r="I4">
-        <v>6.884679576573967</v>
+        <v>6.88467957657402</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.378265787553522</v>
+        <v>9.378265787553575</v>
       </c>
       <c r="L4">
-        <v>13.97536974443899</v>
+        <v>13.975369744439</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66630395803049</v>
+        <v>18.6663039580305</v>
       </c>
       <c r="C5">
-        <v>13.99800209887437</v>
+        <v>13.99800209887433</v>
       </c>
       <c r="D5">
-        <v>2.411303352379111</v>
+        <v>2.411303352378992</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.53842665422166</v>
+        <v>26.53842665422167</v>
       </c>
       <c r="G5">
-        <v>20.19555836057311</v>
+        <v>20.19555836057307</v>
       </c>
       <c r="H5">
-        <v>17.19079292091781</v>
+        <v>17.19079292091777</v>
       </c>
       <c r="I5">
-        <v>6.895565922328897</v>
+        <v>6.89556592232882</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.255578890610058</v>
+        <v>9.255578890610042</v>
       </c>
       <c r="L5">
-        <v>13.68815590296348</v>
+        <v>13.68815590296352</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59915602056558</v>
+        <v>18.59915602056567</v>
       </c>
       <c r="C6">
-        <v>13.94932087236845</v>
+        <v>13.94932087236852</v>
       </c>
       <c r="D6">
-        <v>2.411852602095446</v>
+        <v>2.411852602095442</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.48717996648935</v>
+        <v>26.48717996648929</v>
       </c>
       <c r="G6">
-        <v>20.16477521671115</v>
+        <v>20.16477521671107</v>
       </c>
       <c r="H6">
-        <v>17.18169485763336</v>
+        <v>17.18169485763327</v>
       </c>
       <c r="I6">
-        <v>6.897449417985954</v>
+        <v>6.897449417985949</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.235171809644108</v>
+        <v>9.235171809644074</v>
       </c>
       <c r="L6">
-        <v>13.63994356850225</v>
+        <v>13.6399435685023</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06077315424132</v>
+        <v>19.06077315424141</v>
       </c>
       <c r="C7">
-        <v>14.28413584351622</v>
+        <v>14.28413584351601</v>
       </c>
       <c r="D7">
-        <v>2.408066136484151</v>
+        <v>2.408066136484213</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.84385652164671</v>
+        <v>26.84385652164663</v>
       </c>
       <c r="G7">
-        <v>20.37979226406275</v>
+        <v>20.37979226406269</v>
       </c>
       <c r="H7">
-        <v>17.24668508622364</v>
+        <v>17.24668508622349</v>
       </c>
       <c r="I7">
-        <v>6.884821266609046</v>
+        <v>6.884821266609081</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.376613637832582</v>
+        <v>9.376613637832619</v>
       </c>
       <c r="L7">
-        <v>13.97153113381955</v>
+        <v>13.97153113381957</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98826698752197</v>
+        <v>20.98826698752188</v>
       </c>
       <c r="C8">
-        <v>15.68578392736434</v>
+        <v>15.68578392736427</v>
       </c>
       <c r="D8">
-        <v>2.392024513961035</v>
+        <v>2.392024513961226</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.43942784018475</v>
+        <v>28.43942784018483</v>
       </c>
       <c r="G8">
-        <v>21.36114736258004</v>
+        <v>21.36114736258015</v>
       </c>
       <c r="H8">
-        <v>17.58051193713348</v>
+        <v>17.58051193713363</v>
       </c>
       <c r="I8">
-        <v>6.840604894619165</v>
+        <v>6.840604894619077</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.994654450022125</v>
+        <v>9.994654450022084</v>
       </c>
       <c r="L8">
-        <v>15.35965808873787</v>
+        <v>15.35965808873786</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.38394598717722</v>
+        <v>24.38394598717721</v>
       </c>
       <c r="C9">
-        <v>18.16823544837421</v>
+        <v>18.16823544837408</v>
       </c>
       <c r="D9">
         <v>2.363303216758469</v>
@@ -696,19 +696,19 @@
         <v>23.39559907093047</v>
       </c>
       <c r="H9">
-        <v>18.41772148881573</v>
+        <v>18.41772148881575</v>
       </c>
       <c r="I9">
-        <v>6.800310392661276</v>
+        <v>6.800310392661242</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.17709879117927</v>
+        <v>11.17709879117925</v>
       </c>
       <c r="L9">
-        <v>17.8184671986389</v>
+        <v>17.81846719863887</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,10 +719,10 @@
         <v>26.65441374124817</v>
       </c>
       <c r="C10">
-        <v>19.83702280875591</v>
+        <v>19.83702280875592</v>
       </c>
       <c r="D10">
-        <v>2.344324338045668</v>
+        <v>2.344324338045682</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>33.99711015020824</v>
       </c>
       <c r="G10">
-        <v>24.95365880370577</v>
+        <v>24.95365880370576</v>
       </c>
       <c r="H10">
-        <v>19.15566294280722</v>
+        <v>19.15566294280718</v>
       </c>
       <c r="I10">
-        <v>6.804147157054817</v>
+        <v>6.804147157054828</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.0236856844445</v>
+        <v>12.02368568444452</v>
       </c>
       <c r="L10">
-        <v>19.47171403810702</v>
+        <v>19.47171403810705</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64099057072288</v>
+        <v>27.64099057072292</v>
       </c>
       <c r="C11">
-        <v>20.56438950679504</v>
+        <v>20.56438950679529</v>
       </c>
       <c r="D11">
-        <v>2.336291385214214</v>
+        <v>2.33629138521426</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.08001699991397</v>
+        <v>35.08001699991392</v>
       </c>
       <c r="G11">
-        <v>25.67620856396488</v>
+        <v>25.67620856396482</v>
       </c>
       <c r="H11">
-        <v>19.52044954169839</v>
+        <v>19.52044954169829</v>
       </c>
       <c r="I11">
-        <v>6.814389817518716</v>
+        <v>6.814389817518773</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.42705255955041</v>
+        <v>12.42705255955046</v>
       </c>
       <c r="L11">
-        <v>20.19238916382502</v>
+        <v>20.19238916382508</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.00814621546843</v>
+        <v>28.00814621546839</v>
       </c>
       <c r="C12">
-        <v>20.83543139120629</v>
+        <v>20.83543139120635</v>
       </c>
       <c r="D12">
-        <v>2.333351194599116</v>
+        <v>2.333351194599066</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.49089688396009</v>
+        <v>35.49089688396005</v>
       </c>
       <c r="G12">
-        <v>25.95186346769884</v>
+        <v>25.95186346769881</v>
       </c>
       <c r="H12">
-        <v>19.66297096307992</v>
+        <v>19.6629709630799</v>
       </c>
       <c r="I12">
-        <v>6.819602262449727</v>
+        <v>6.819602262449765</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.60383681602649</v>
+        <v>12.60383681602647</v>
       </c>
       <c r="L12">
-        <v>20.46094751449559</v>
+        <v>20.46094751449555</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.92935544780542</v>
+        <v>27.92935544780546</v>
       </c>
       <c r="C13">
-        <v>20.77725021429262</v>
+        <v>20.77725021429258</v>
       </c>
       <c r="D13">
-        <v>2.333979612891592</v>
+        <v>2.333979612891476</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.40236877735082</v>
+        <v>35.40236877735076</v>
       </c>
       <c r="G13">
-        <v>25.89240390469548</v>
+        <v>25.89240390469544</v>
       </c>
       <c r="H13">
-        <v>19.63207806735862</v>
+        <v>19.63207806735855</v>
       </c>
       <c r="I13">
-        <v>6.818418477189342</v>
+        <v>6.81841847718926</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.56587521793623</v>
+        <v>12.56587521793621</v>
       </c>
       <c r="L13">
-        <v>20.40329905154768</v>
+        <v>20.4032990515477</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67132444520894</v>
+        <v>27.6713244452089</v>
       </c>
       <c r="C14">
-        <v>20.58677532616997</v>
+        <v>20.58677532616998</v>
       </c>
       <c r="D14">
-        <v>2.336047355558362</v>
+        <v>2.336047355558417</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,22 +883,22 @@
         <v>35.1138035135767</v>
       </c>
       <c r="G14">
-        <v>25.69884540563481</v>
+        <v>25.69884540563482</v>
       </c>
       <c r="H14">
-        <v>19.53208579020637</v>
+        <v>19.53208579020638</v>
       </c>
       <c r="I14">
-        <v>6.814791246775459</v>
+        <v>6.814791246775509</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.44164740992281</v>
+        <v>12.44164740992277</v>
       </c>
       <c r="L14">
-        <v>20.2145696801788</v>
+        <v>20.21456968017877</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>27.51244108746747</v>
       </c>
       <c r="C15">
-        <v>20.4695369376871</v>
+        <v>20.46953693768704</v>
       </c>
       <c r="D15">
-        <v>2.337327666367535</v>
+        <v>2.337327666367428</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.93715726907708</v>
+        <v>34.93715726907707</v>
       </c>
       <c r="G15">
-        <v>25.58055379023652</v>
+        <v>25.58055379023651</v>
       </c>
       <c r="H15">
-        <v>19.47141483557925</v>
+        <v>19.47141483557924</v>
       </c>
       <c r="I15">
-        <v>6.812746624053744</v>
+        <v>6.812746624053702</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.36522373949565</v>
+        <v>12.36522373949568</v>
       </c>
       <c r="L15">
-        <v>20.09840688829819</v>
+        <v>20.09840688829821</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.58902538097596</v>
+        <v>26.589025380976</v>
       </c>
       <c r="C16">
-        <v>19.78886264102299</v>
+        <v>19.78886264102313</v>
       </c>
       <c r="D16">
-        <v>2.344862634043984</v>
+        <v>2.344862634043923</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.92644730453129</v>
+        <v>33.92644730453122</v>
       </c>
       <c r="G16">
-        <v>24.90671954836466</v>
+        <v>24.90671954836459</v>
       </c>
       <c r="H16">
-        <v>19.13242562746305</v>
+        <v>19.13242562746299</v>
       </c>
       <c r="I16">
-        <v>6.803658136085658</v>
+        <v>6.803658136085653</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>11.9987483122911</v>
       </c>
       <c r="L16">
-        <v>19.42399849217887</v>
+        <v>19.42399849217888</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.01083479806394</v>
+        <v>26.01083479806397</v>
       </c>
       <c r="C17">
-        <v>19.36326982295846</v>
+        <v>19.36326982295843</v>
       </c>
       <c r="D17">
-        <v>2.349648838568734</v>
+        <v>2.349648838568791</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.30775603861258</v>
+        <v>33.30775603861257</v>
       </c>
       <c r="G17">
-        <v>24.49689803088193</v>
+        <v>24.49689803088192</v>
       </c>
       <c r="H17">
-        <v>18.93205779045186</v>
+        <v>18.93205779045181</v>
       </c>
       <c r="I17">
-        <v>6.800336006596424</v>
+        <v>6.800336006596543</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.77963127394626</v>
+        <v>11.77963127394629</v>
       </c>
       <c r="L17">
-        <v>19.00234418628934</v>
+        <v>19.00234418628933</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.67390573892249</v>
+        <v>25.67390573892262</v>
       </c>
       <c r="C18">
-        <v>19.11547795827967</v>
+        <v>19.11547795827963</v>
       </c>
       <c r="D18">
-        <v>2.352457173104781</v>
+        <v>2.352457173104773</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.95238257444888</v>
+        <v>32.95238257444887</v>
       </c>
       <c r="G18">
-        <v>24.262469792593</v>
+        <v>24.26246979259298</v>
       </c>
       <c r="H18">
-        <v>18.81953744892676</v>
+        <v>18.81953744892668</v>
       </c>
       <c r="I18">
-        <v>6.799217835378032</v>
+        <v>6.799217835378115</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.65311836721426</v>
+        <v>11.65311836721428</v>
       </c>
       <c r="L18">
-        <v>18.75685356423195</v>
+        <v>18.75685356423197</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.55907075266968</v>
+        <v>25.55907075266965</v>
       </c>
       <c r="C19">
-        <v>19.03105933309193</v>
+        <v>19.0310593330916</v>
       </c>
       <c r="D19">
-        <v>2.35341713310339</v>
+        <v>2.353417133103336</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.83214162718556</v>
+        <v>32.83214162718554</v>
       </c>
       <c r="G19">
         <v>24.18331713903793</v>
       </c>
       <c r="H19">
-        <v>18.78190223678332</v>
+        <v>18.78190223678333</v>
       </c>
       <c r="I19">
-        <v>6.79897210258928</v>
+        <v>6.798972102589222</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>11.61020058282755</v>
       </c>
       <c r="L19">
-        <v>18.6732203576588</v>
+        <v>18.67322035765873</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.07283487507693</v>
+        <v>26.072834875077</v>
       </c>
       <c r="C20">
-        <v>19.40888442685452</v>
+        <v>19.40888442685459</v>
       </c>
       <c r="D20">
-        <v>2.349133500735</v>
+        <v>2.349133500735004</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.37356683038366</v>
+        <v>33.37356683038368</v>
       </c>
       <c r="G20">
-        <v>24.54039044666765</v>
+        <v>24.54039044666764</v>
       </c>
       <c r="H20">
-        <v>18.95310374689054</v>
+        <v>18.95310374689048</v>
       </c>
       <c r="I20">
-        <v>6.800606834889766</v>
+        <v>6.800606834889734</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.80300662903232</v>
+        <v>11.80300662903234</v>
       </c>
       <c r="L20">
-        <v>19.04753583424614</v>
+        <v>19.04753583424621</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.74728736451394</v>
+        <v>27.74728736451402</v>
       </c>
       <c r="C21">
-        <v>20.64284024624874</v>
+        <v>20.64284024624894</v>
       </c>
       <c r="D21">
-        <v>2.3354371098837</v>
+        <v>2.335437109883654</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.19853932146182</v>
+        <v>35.19853932146188</v>
       </c>
       <c r="G21">
-        <v>25.75564207277948</v>
+        <v>25.75564207277949</v>
       </c>
       <c r="H21">
-        <v>19.56133527839844</v>
+        <v>19.56133527839842</v>
       </c>
       <c r="I21">
-        <v>6.815819520468802</v>
+        <v>6.815819520468828</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>12.47820475939864</v>
       </c>
       <c r="L21">
-        <v>20.27012057205947</v>
+        <v>20.27012057205951</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.80421898283015</v>
+        <v>28.80421898283018</v>
       </c>
       <c r="C22">
-        <v>21.42377353486119</v>
+        <v>21.42377353486114</v>
       </c>
       <c r="D22">
-        <v>2.327088264013982</v>
+        <v>2.327088264013859</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.39605920632227</v>
+        <v>36.39605920632226</v>
       </c>
       <c r="G22">
-        <v>26.56184671628434</v>
+        <v>26.56184671628432</v>
       </c>
       <c r="H22">
-        <v>19.98451161903932</v>
+        <v>19.98451161903927</v>
       </c>
       <c r="I22">
-        <v>6.83359428143621</v>
+        <v>6.833594281436143</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.98813306528571</v>
+        <v>12.98813306528569</v>
       </c>
       <c r="L22">
         <v>21.04391285459736</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.2434622840732</v>
+        <v>28.24346228407316</v>
       </c>
       <c r="C23">
-        <v>21.00924791561941</v>
+        <v>21.00924791561949</v>
       </c>
       <c r="D23">
-        <v>2.331483088036788</v>
+        <v>2.331483088036787</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.75643833815765</v>
+        <v>35.75643833815763</v>
       </c>
       <c r="G23">
-        <v>26.1304298705024</v>
+        <v>26.13042987050239</v>
       </c>
       <c r="H23">
         <v>19.75623602411532</v>
       </c>
       <c r="I23">
-        <v>6.823351681300887</v>
+        <v>6.823351681300889</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.71729152546731</v>
+        <v>12.71729152546733</v>
       </c>
       <c r="L23">
         <v>20.63317373428191</v>
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.04481873368557</v>
+        <v>26.04481873368552</v>
       </c>
       <c r="C24">
-        <v>19.38827177316461</v>
+        <v>19.38827177316454</v>
       </c>
       <c r="D24">
-        <v>2.349366309537267</v>
+        <v>2.349366309537315</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.34381277664081</v>
+        <v>33.34381277664085</v>
       </c>
       <c r="G24">
-        <v>24.52072384249868</v>
+        <v>24.52072384249875</v>
       </c>
       <c r="H24">
-        <v>18.94358055669956</v>
+        <v>18.94358055669962</v>
       </c>
       <c r="I24">
-        <v>6.800481935606424</v>
+        <v>6.800481935606342</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.79244031202507</v>
+        <v>11.79244031202506</v>
       </c>
       <c r="L24">
-        <v>19.02711428360898</v>
+        <v>19.02711428360897</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50547882844303</v>
+        <v>23.50547882844302</v>
       </c>
       <c r="C25">
-        <v>17.52447345850135</v>
+        <v>17.52447345850134</v>
       </c>
       <c r="D25">
-        <v>2.370739933924468</v>
+        <v>2.370739933924365</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.76034700287928</v>
+        <v>30.76034700287925</v>
       </c>
       <c r="G25">
-        <v>22.83395044155615</v>
+        <v>22.8339504415561</v>
       </c>
       <c r="H25">
-        <v>18.17047050854196</v>
+        <v>18.17047050854192</v>
       </c>
       <c r="I25">
-        <v>6.80573321870467</v>
+        <v>6.805733218704717</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.86090959165671</v>
+        <v>10.86090959165675</v>
       </c>
       <c r="L25">
-        <v>17.18077899947719</v>
+        <v>17.18077899947716</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.48418625895179</v>
+        <v>21.4838238747127</v>
       </c>
       <c r="C2">
-        <v>16.04731146632792</v>
+        <v>16.04367032135968</v>
       </c>
       <c r="D2">
-        <v>2.387850102092398</v>
+        <v>2.389601998260334</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.87631243123112</v>
+        <v>28.85765221361941</v>
       </c>
       <c r="G2">
-        <v>21.63469332940682</v>
+        <v>20.29062429090546</v>
       </c>
       <c r="H2">
-        <v>17.68287085431656</v>
+        <v>21.6693471816082</v>
       </c>
       <c r="I2">
-        <v>6.831587283182324</v>
+        <v>17.67047797538664</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.831030191636891</v>
       </c>
       <c r="K2">
-        <v>10.16033001589756</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.71770959560518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10.16063634389411</v>
+      </c>
+      <c r="M2">
+        <v>15.71770834629903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.01651053919977</v>
+        <v>20.0163057328449</v>
       </c>
       <c r="C3">
-        <v>14.97842364456797</v>
+        <v>14.9752026999583</v>
       </c>
       <c r="D3">
-        <v>2.400153871851716</v>
+        <v>2.401483576701781</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.6141107741439</v>
+        <v>27.59664725744198</v>
       </c>
       <c r="G3">
-        <v>20.84982591461189</v>
+        <v>19.25111113626603</v>
       </c>
       <c r="H3">
-        <v>17.39954273679019</v>
+        <v>20.88336395747877</v>
       </c>
       <c r="I3">
-        <v>6.861128346618662</v>
+        <v>17.38810935621839</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.860686309684241</v>
       </c>
       <c r="K3">
-        <v>9.677727495913757</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.65911750984241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.678034163690635</v>
+      </c>
+      <c r="M3">
+        <v>14.65919261482505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06611428573304</v>
+        <v>19.06600496478766</v>
       </c>
       <c r="C4">
-        <v>14.28801184502438</v>
+        <v>14.28505977957263</v>
       </c>
       <c r="D4">
-        <v>2.408022183502785</v>
+        <v>2.409088989804134</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.84804294163358</v>
+        <v>26.83133728454153</v>
       </c>
       <c r="G4">
-        <v>20.38232639380854</v>
+        <v>18.61410948074702</v>
       </c>
       <c r="H4">
-        <v>17.24747060231667</v>
+        <v>20.41522632674376</v>
       </c>
       <c r="I4">
-        <v>6.88467957657402</v>
+        <v>17.23663443660641</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.884311640287722</v>
       </c>
       <c r="K4">
-        <v>9.378265787553575</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.975369744439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.378570888688879</v>
+      </c>
+      <c r="M4">
+        <v>13.97549015520554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.6663039580305</v>
+        <v>18.66623340269912</v>
       </c>
       <c r="C5">
-        <v>13.99800209887433</v>
+        <v>13.99516262267927</v>
       </c>
       <c r="D5">
-        <v>2.411303352378992</v>
+        <v>2.412262088153147</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.53842665422167</v>
+        <v>26.52203550847072</v>
       </c>
       <c r="G5">
-        <v>20.19555836057307</v>
+        <v>18.35512389348697</v>
       </c>
       <c r="H5">
-        <v>17.19079292091777</v>
+        <v>20.228210334363</v>
       </c>
       <c r="I5">
-        <v>6.89556592232882</v>
+        <v>17.1802017010641</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.89522900359901</v>
       </c>
       <c r="K5">
-        <v>9.255578890610042</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.68815590296352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.255882959790556</v>
+      </c>
+      <c r="M5">
+        <v>13.68829449485355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59915602056567</v>
+        <v>18.5990918984793</v>
       </c>
       <c r="C6">
-        <v>13.94932087236852</v>
+        <v>13.94650028249688</v>
       </c>
       <c r="D6">
-        <v>2.411852602095442</v>
+        <v>2.412793335739209</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.48717996648929</v>
+        <v>26.47084138201166</v>
       </c>
       <c r="G6">
-        <v>20.16477521671107</v>
+        <v>18.3121648656245</v>
       </c>
       <c r="H6">
-        <v>17.18169485763327</v>
+        <v>20.19738675288485</v>
       </c>
       <c r="I6">
-        <v>6.897449417985949</v>
+        <v>17.17114439274753</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.897117697954315</v>
       </c>
       <c r="K6">
-        <v>9.235171809644074</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.6399435685023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.235475685193288</v>
+      </c>
+      <c r="M6">
+        <v>13.64008516567685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06077315424141</v>
+        <v>19.06066435646425</v>
       </c>
       <c r="C7">
-        <v>14.28413584351601</v>
+        <v>14.28118528387146</v>
       </c>
       <c r="D7">
-        <v>2.408066136484213</v>
+        <v>2.409131489125481</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.84385652164663</v>
+        <v>26.82715508343059</v>
       </c>
       <c r="G7">
-        <v>20.37979226406269</v>
+        <v>18.61061388046599</v>
       </c>
       <c r="H7">
-        <v>17.24668508622349</v>
+        <v>20.41268880373837</v>
       </c>
       <c r="I7">
-        <v>6.884821266609081</v>
+        <v>17.23585221815961</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.88445374537296</v>
       </c>
       <c r="K7">
-        <v>9.376613637832619</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.97153113381957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.376918726576273</v>
+      </c>
+      <c r="M7">
+        <v>13.97165179077222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98826698752188</v>
+        <v>20.98795930489401</v>
       </c>
       <c r="C8">
-        <v>15.68578392736427</v>
+        <v>15.6822855774648</v>
       </c>
       <c r="D8">
-        <v>2.392024513961226</v>
+        <v>2.393631593625595</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.43942784018483</v>
+        <v>28.42117541588747</v>
       </c>
       <c r="G8">
-        <v>21.36114736258015</v>
+        <v>19.93208832871828</v>
       </c>
       <c r="H8">
-        <v>17.58051193713363</v>
+        <v>21.39540689691179</v>
       </c>
       <c r="I8">
-        <v>6.840604894619077</v>
+        <v>17.56844794474014</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.840086726104808</v>
       </c>
       <c r="K8">
-        <v>9.994654450022084</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.35965808873786</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.994961296466149</v>
+      </c>
+      <c r="M8">
+        <v>15.35968356379387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.38394598717721</v>
+        <v>24.38323011680512</v>
       </c>
       <c r="C9">
-        <v>18.16823544837408</v>
+        <v>18.1637369314872</v>
       </c>
       <c r="D9">
-        <v>2.363303216758469</v>
+        <v>2.365943808502052</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.62804866913338</v>
+        <v>31.60693713844269</v>
       </c>
       <c r="G9">
-        <v>23.39559907093047</v>
+        <v>22.52435925114029</v>
       </c>
       <c r="H9">
-        <v>18.41772148881575</v>
+        <v>23.43289129193898</v>
       </c>
       <c r="I9">
-        <v>6.800310392661242</v>
+        <v>18.40332660410083</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.79952660698397</v>
       </c>
       <c r="K9">
-        <v>11.17709879117925</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.81846719863887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>11.17739241210934</v>
+      </c>
+      <c r="M9">
+        <v>17.81828808612999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.65441374124817</v>
+        <v>26.65337471038362</v>
       </c>
       <c r="C10">
-        <v>19.83702280875592</v>
+        <v>19.83181768077934</v>
       </c>
       <c r="D10">
-        <v>2.344324338045682</v>
+        <v>2.347706375899579</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.99711015020824</v>
+        <v>33.97399921080768</v>
       </c>
       <c r="G10">
-        <v>24.95365880370576</v>
+        <v>24.42202898895214</v>
       </c>
       <c r="H10">
-        <v>19.15566294280718</v>
+        <v>24.99338029336051</v>
       </c>
       <c r="I10">
-        <v>6.804147157054828</v>
+        <v>19.13962894722939</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.803189913135042</v>
       </c>
       <c r="K10">
-        <v>12.02368568444452</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.47171403810705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>12.02395536824206</v>
+      </c>
+      <c r="M10">
+        <v>19.47136544634696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64099057072292</v>
+        <v>27.63979638769746</v>
       </c>
       <c r="C11">
-        <v>20.56438950679529</v>
+        <v>20.55886512905079</v>
       </c>
       <c r="D11">
-        <v>2.33629138521426</v>
+        <v>2.340006446561305</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.08001699991392</v>
+        <v>35.05601379974503</v>
       </c>
       <c r="G11">
-        <v>25.67620856396482</v>
+        <v>25.28370169203679</v>
       </c>
       <c r="H11">
-        <v>19.52044954169829</v>
+        <v>25.71707520705668</v>
       </c>
       <c r="I11">
-        <v>6.814389817518773</v>
+        <v>19.50368910912702</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.813359187908287</v>
       </c>
       <c r="K11">
-        <v>12.42705255955046</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.19238916382508</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.42730735635369</v>
+      </c>
+      <c r="M11">
+        <v>20.19195719812632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.00814621546839</v>
+        <v>28.00689180873738</v>
       </c>
       <c r="C12">
-        <v>20.83543139120635</v>
+        <v>20.8297860757143</v>
       </c>
       <c r="D12">
-        <v>2.333351194599066</v>
+        <v>2.337191682494445</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.49089688396005</v>
+        <v>35.46655774071591</v>
       </c>
       <c r="G12">
-        <v>25.95186346769881</v>
+        <v>25.60984951536978</v>
       </c>
       <c r="H12">
-        <v>19.6629709630799</v>
+        <v>25.99316924460512</v>
       </c>
       <c r="I12">
-        <v>6.819602262449765</v>
+        <v>19.64593834212298</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.818544706143608</v>
       </c>
       <c r="K12">
-        <v>12.60383681602647</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.46094751449555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.6040850040926</v>
+      </c>
+      <c r="M12">
+        <v>20.46048286714255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.92935544780546</v>
+        <v>27.92811408200047</v>
       </c>
       <c r="C13">
-        <v>20.77725021429258</v>
+        <v>20.77163095307192</v>
       </c>
       <c r="D13">
-        <v>2.333979612891476</v>
+        <v>2.337793119728483</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.40236877735076</v>
+        <v>35.37810190953117</v>
       </c>
       <c r="G13">
-        <v>25.89240390469544</v>
+        <v>25.5396122988279</v>
       </c>
       <c r="H13">
-        <v>19.63207806735855</v>
+        <v>25.93361486604418</v>
       </c>
       <c r="I13">
-        <v>6.81841847718926</v>
+        <v>19.61510393736998</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.817366680573171</v>
       </c>
       <c r="K13">
-        <v>12.56587521793621</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.4032990515477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.56612486515833</v>
+      </c>
+      <c r="M13">
+        <v>20.40284149577684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6713244452089</v>
+        <v>27.67012533889856</v>
       </c>
       <c r="C14">
-        <v>20.58677532616998</v>
+        <v>20.58124100190871</v>
       </c>
       <c r="D14">
-        <v>2.336047355558417</v>
+        <v>2.339772750007378</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.1138035135767</v>
+        <v>35.08977263998595</v>
       </c>
       <c r="G14">
-        <v>25.69884540563482</v>
+        <v>25.3105363310369</v>
       </c>
       <c r="H14">
-        <v>19.53208579020638</v>
+        <v>25.73974806793141</v>
       </c>
       <c r="I14">
-        <v>6.814791246775509</v>
+        <v>19.5153029061353</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.813758384207333</v>
       </c>
       <c r="K14">
-        <v>12.44164740992277</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.21456968017877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.44190167898398</v>
+      </c>
+      <c r="M14">
+        <v>20.21413504928337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.51244108746747</v>
+        <v>27.51126766510794</v>
       </c>
       <c r="C15">
-        <v>20.46953693768704</v>
+        <v>20.46405462256341</v>
       </c>
       <c r="D15">
-        <v>2.337327666367428</v>
+        <v>2.340998997989795</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.93715726907707</v>
+        <v>34.91327118236496</v>
       </c>
       <c r="G15">
-        <v>25.58055379023651</v>
+        <v>25.17020493404618</v>
       </c>
       <c r="H15">
-        <v>19.47141483557924</v>
+        <v>25.62126831793354</v>
       </c>
       <c r="I15">
-        <v>6.812746624053702</v>
+        <v>19.45474947437894</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.811725473528234</v>
       </c>
       <c r="K15">
-        <v>12.36522373949568</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.09840688829821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.36548073682203</v>
+      </c>
+      <c r="M15">
+        <v>20.09798614833445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.589025380976</v>
+        <v>26.58799630112701</v>
       </c>
       <c r="C16">
-        <v>19.78886264102313</v>
+        <v>19.78367839098157</v>
       </c>
       <c r="D16">
-        <v>2.344862634043923</v>
+        <v>2.348222817030952</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.92644730453122</v>
+        <v>33.90339498042682</v>
       </c>
       <c r="G16">
-        <v>24.90671954836459</v>
+        <v>24.36568978291813</v>
       </c>
       <c r="H16">
-        <v>19.13242562746299</v>
+        <v>24.94636698156491</v>
       </c>
       <c r="I16">
-        <v>6.803658136085653</v>
+        <v>19.11643950713186</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.802705805112907</v>
       </c>
       <c r="K16">
-        <v>11.9987483122911</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.42399849217888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.99901888741933</v>
+      </c>
+      <c r="M16">
+        <v>19.4236552057931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.01083479806397</v>
+        <v>26.00989198146857</v>
       </c>
       <c r="C17">
-        <v>19.36326982295843</v>
+        <v>19.35826874318351</v>
       </c>
       <c r="D17">
-        <v>2.349648838568791</v>
+        <v>2.352817010221099</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.30775603861257</v>
+        <v>33.28521927915907</v>
       </c>
       <c r="G17">
-        <v>24.49689803088192</v>
+        <v>23.87177211501328</v>
       </c>
       <c r="H17">
-        <v>18.93205779045181</v>
+        <v>24.53590089166732</v>
       </c>
       <c r="I17">
-        <v>6.800336006596543</v>
+        <v>18.91649341614681</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.799427357628334</v>
       </c>
       <c r="K17">
-        <v>11.77963127394629</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19.00234418628933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.77990918220685</v>
+      </c>
+      <c r="M17">
+        <v>19.00204666964098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.67390573892262</v>
+        <v>25.6730117922606</v>
       </c>
       <c r="C18">
-        <v>19.11547795827963</v>
+        <v>19.11058246294608</v>
       </c>
       <c r="D18">
-        <v>2.352457173104773</v>
+        <v>2.355514509332758</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.95238257444887</v>
+        <v>32.9301440214662</v>
       </c>
       <c r="G18">
-        <v>24.26246979259298</v>
+        <v>23.58752503650043</v>
       </c>
       <c r="H18">
-        <v>18.81953744892668</v>
+        <v>24.30110569769704</v>
       </c>
       <c r="I18">
-        <v>6.799217835378115</v>
+        <v>18.80421745813114</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.798334826691814</v>
       </c>
       <c r="K18">
-        <v>11.65311836721428</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.75685356423197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.65340010829432</v>
+      </c>
+      <c r="M18">
+        <v>18.75658179635861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.55907075266965</v>
+        <v>25.55819323277871</v>
       </c>
       <c r="C19">
-        <v>19.0310593330916</v>
+        <v>19.02619963664178</v>
       </c>
       <c r="D19">
-        <v>2.353417133103336</v>
+        <v>2.356436876026048</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.83214162718554</v>
+        <v>32.81000434265782</v>
       </c>
       <c r="G19">
-        <v>24.18331713903793</v>
+        <v>23.49125541082864</v>
       </c>
       <c r="H19">
-        <v>18.78190223678333</v>
+        <v>24.22182945838473</v>
       </c>
       <c r="I19">
-        <v>6.798972102589222</v>
+        <v>18.76666529412848</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.798097861693058</v>
       </c>
       <c r="K19">
-        <v>11.61020058282755</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.67322035765873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.61048355854619</v>
+      </c>
+      <c r="M19">
+        <v>18.67295721463232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.072834875077</v>
+        <v>26.07188295489619</v>
       </c>
       <c r="C20">
-        <v>19.40888442685459</v>
+        <v>19.40386382699654</v>
       </c>
       <c r="D20">
-        <v>2.349133500735004</v>
+        <v>2.3523221536639</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.37356683038368</v>
+        <v>33.35097501917168</v>
       </c>
       <c r="G20">
-        <v>24.54039044666764</v>
+        <v>23.92436658326537</v>
       </c>
       <c r="H20">
-        <v>18.95310374689048</v>
+        <v>24.57946153362651</v>
       </c>
       <c r="I20">
-        <v>6.800606834889734</v>
+        <v>18.93749428866738</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.799693482037479</v>
       </c>
       <c r="K20">
-        <v>11.80300662903234</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>19.04753583424621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.80328379724833</v>
+      </c>
+      <c r="M20">
+        <v>19.0472335064258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.74728736451402</v>
+        <v>27.74607588809676</v>
       </c>
       <c r="C21">
-        <v>20.64284024624894</v>
+        <v>20.63728097823024</v>
       </c>
       <c r="D21">
-        <v>2.335437109883654</v>
+        <v>2.339188404304293</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.19853932146188</v>
+        <v>35.17443908313857</v>
       </c>
       <c r="G21">
-        <v>25.75564207277949</v>
+        <v>25.37782453007017</v>
       </c>
       <c r="H21">
-        <v>19.56133527839842</v>
+        <v>25.79663514296946</v>
       </c>
       <c r="I21">
-        <v>6.815819520468828</v>
+        <v>19.54449614167459</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.814781072552352</v>
       </c>
       <c r="K21">
-        <v>12.47820475939864</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.27012057205951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.47845769255701</v>
+      </c>
+      <c r="M21">
+        <v>20.2696792395021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.80421898283018</v>
+        <v>28.80282912442815</v>
       </c>
       <c r="C22">
-        <v>21.42377353486114</v>
+        <v>21.4178617562276</v>
       </c>
       <c r="D22">
-        <v>2.327088264013859</v>
+        <v>2.331203243481835</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.39605920632226</v>
+        <v>36.3709840562314</v>
       </c>
       <c r="G22">
-        <v>26.56184671628432</v>
+        <v>26.32696665152768</v>
       </c>
       <c r="H22">
-        <v>19.98451161903927</v>
+        <v>26.60412781298901</v>
       </c>
       <c r="I22">
-        <v>6.833594281436143</v>
+        <v>19.9668856737819</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.832479136369596</v>
       </c>
       <c r="K22">
-        <v>12.98813306528569</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.04391285459736</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.98836520950616</v>
+      </c>
+      <c r="M22">
+        <v>21.04337408505247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.24346228407316</v>
+        <v>28.24216854299118</v>
       </c>
       <c r="C23">
-        <v>21.00924791561949</v>
+        <v>21.00352445074094</v>
       </c>
       <c r="D23">
-        <v>2.331483088036787</v>
+        <v>2.335404362762723</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.75643833815763</v>
+        <v>35.73188273431668</v>
       </c>
       <c r="G23">
-        <v>26.13042987050239</v>
+        <v>25.82041667047434</v>
       </c>
       <c r="H23">
-        <v>19.75623602411532</v>
+        <v>26.17202068321646</v>
       </c>
       <c r="I23">
-        <v>6.823351681300889</v>
+        <v>19.73902845994895</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.822276985770253</v>
       </c>
       <c r="K23">
-        <v>12.71729152546733</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.63317373428191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.71753521994921</v>
+      </c>
+      <c r="M23">
+        <v>20.63268764885262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.04481873368552</v>
+        <v>26.04387093146862</v>
       </c>
       <c r="C24">
-        <v>19.38827177316454</v>
+        <v>19.38325999744537</v>
       </c>
       <c r="D24">
-        <v>2.349366309537315</v>
+        <v>2.352545704264166</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.34381277664085</v>
+        <v>33.32124584867748</v>
       </c>
       <c r="G24">
-        <v>24.52072384249875</v>
+        <v>23.9005895238521</v>
       </c>
       <c r="H24">
-        <v>18.94358055669962</v>
+        <v>24.55976407311753</v>
       </c>
       <c r="I24">
-        <v>6.800481935606342</v>
+        <v>18.92799147495939</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.79957070774422</v>
       </c>
       <c r="K24">
-        <v>11.79244031202506</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>19.02711428360897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.79271781600048</v>
+      </c>
+      <c r="M24">
+        <v>19.02681413266367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50547882844302</v>
+        <v>23.50487651908441</v>
       </c>
       <c r="C25">
-        <v>17.52447345850134</v>
+        <v>17.52023930389631</v>
       </c>
       <c r="D25">
-        <v>2.370739933924365</v>
+        <v>2.373104001607785</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.76034700287925</v>
+        <v>30.73999000010514</v>
       </c>
       <c r="G25">
-        <v>22.8339504415561</v>
+        <v>21.82400507369302</v>
       </c>
       <c r="H25">
-        <v>18.17047050854192</v>
+        <v>22.87038559445957</v>
       </c>
       <c r="I25">
-        <v>6.805733218704717</v>
+        <v>18.15669471841761</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.805017749187966</v>
       </c>
       <c r="K25">
-        <v>10.86090959165675</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17.18077899947716</v>
+        <v>10.86120896270336</v>
+      </c>
+      <c r="M25">
+        <v>17.18065795345589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.4838238747127</v>
+        <v>22.77531819800242</v>
       </c>
       <c r="C2">
-        <v>16.04367032135968</v>
+        <v>10.81413818280669</v>
       </c>
       <c r="D2">
-        <v>2.389601998260334</v>
+        <v>3.088340113132533</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.85765221361941</v>
+        <v>35.33292414869899</v>
       </c>
       <c r="G2">
-        <v>20.29062429090546</v>
+        <v>2.119283186593745</v>
       </c>
       <c r="H2">
-        <v>21.6693471816082</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.67047797538664</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.831030191636891</v>
+        <v>5.99959383570254</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.74321911636254</v>
       </c>
       <c r="L2">
-        <v>10.16063634389411</v>
+        <v>7.63196672835009</v>
       </c>
       <c r="M2">
-        <v>15.71770834629903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>14.03694149902942</v>
+      </c>
+      <c r="O2">
+        <v>26.32800819584813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.0163057328449</v>
+        <v>21.46254201021463</v>
       </c>
       <c r="C3">
-        <v>14.9752026999583</v>
+        <v>10.10443072199508</v>
       </c>
       <c r="D3">
-        <v>2.401483576701781</v>
+        <v>3.046202638985986</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.59664725744198</v>
+        <v>34.51035148496514</v>
       </c>
       <c r="G3">
-        <v>19.25111113626603</v>
+        <v>2.128484258868815</v>
       </c>
       <c r="H3">
-        <v>20.88336395747877</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.38810935621839</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.860686309684241</v>
+        <v>6.049662837597304</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.71451339142283</v>
       </c>
       <c r="L3">
-        <v>9.678034163690635</v>
+        <v>7.467868342149719</v>
       </c>
       <c r="M3">
-        <v>14.65919261482505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>14.29041802156406</v>
+      </c>
+      <c r="O3">
+        <v>25.81022533976434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06600496478766</v>
+        <v>20.62998592053934</v>
       </c>
       <c r="C4">
-        <v>14.28505977957263</v>
+        <v>9.646357744498999</v>
       </c>
       <c r="D4">
-        <v>2.409088989804134</v>
+        <v>3.020718965036532</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.83133728454153</v>
+        <v>34.02856103581338</v>
       </c>
       <c r="G4">
-        <v>18.61410948074702</v>
+        <v>2.134281281376267</v>
       </c>
       <c r="H4">
-        <v>20.41522632674376</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.23663443660641</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.884311640287722</v>
+        <v>6.081879810063906</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.06182445807416</v>
       </c>
       <c r="L4">
-        <v>9.378570888688879</v>
+        <v>7.369460251361024</v>
       </c>
       <c r="M4">
-        <v>13.97549015520554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>14.44926950176791</v>
+      </c>
+      <c r="O4">
+        <v>25.51189843980047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66623340269912</v>
+        <v>20.28434370349391</v>
       </c>
       <c r="C5">
-        <v>13.99516262267927</v>
+        <v>9.454038525634727</v>
       </c>
       <c r="D5">
-        <v>2.412262088153147</v>
+        <v>3.010430964205088</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.52203550847072</v>
+        <v>33.83808652391935</v>
       </c>
       <c r="G5">
-        <v>18.35512389348697</v>
+        <v>2.136682459674651</v>
       </c>
       <c r="H5">
-        <v>20.228210334363</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17.1802017010641</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.89522900359901</v>
+        <v>6.095379431508886</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.79077985593429</v>
       </c>
       <c r="L5">
-        <v>9.255882959790556</v>
+        <v>7.329978262932374</v>
       </c>
       <c r="M5">
-        <v>13.68829449485355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>14.51484019745779</v>
+      </c>
+      <c r="O5">
+        <v>25.3951874758663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.5990918984793</v>
+        <v>20.22657560580681</v>
       </c>
       <c r="C6">
-        <v>13.94650028249688</v>
+        <v>9.421761779927046</v>
       </c>
       <c r="D6">
-        <v>2.412793335739209</v>
+        <v>3.008728480120952</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.47084138201166</v>
+        <v>33.80681225770273</v>
       </c>
       <c r="G6">
-        <v>18.3121648656245</v>
+        <v>2.137083568594999</v>
       </c>
       <c r="H6">
-        <v>20.19738675288485</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.17114439274753</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.897117697954315</v>
+        <v>6.097643446238902</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.74547481031435</v>
       </c>
       <c r="L6">
-        <v>9.235475685193288</v>
+        <v>7.323460627262675</v>
       </c>
       <c r="M6">
-        <v>13.64008516567685</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>14.52577956751436</v>
+      </c>
+      <c r="O6">
+        <v>25.37609906463087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.06066435646425</v>
+        <v>20.6253498073235</v>
       </c>
       <c r="C7">
-        <v>14.28118528387146</v>
+        <v>9.643786986652396</v>
       </c>
       <c r="D7">
-        <v>2.409131489125481</v>
+        <v>3.020579826318067</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.82715508343059</v>
+        <v>34.02596850461493</v>
       </c>
       <c r="G7">
-        <v>18.61061388046599</v>
+        <v>2.134313504995907</v>
       </c>
       <c r="H7">
-        <v>20.41268880373837</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.23585221815961</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.88445374537296</v>
+        <v>6.08206036835301</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.05818923359697</v>
       </c>
       <c r="L7">
-        <v>9.376918726576273</v>
+        <v>7.368925233517257</v>
       </c>
       <c r="M7">
-        <v>13.97165179077222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>14.45015038283995</v>
+      </c>
+      <c r="O7">
+        <v>25.51030485412308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98795930489401</v>
+        <v>22.32832859097311</v>
       </c>
       <c r="C8">
-        <v>15.6822855774648</v>
+        <v>10.57403370784612</v>
       </c>
       <c r="D8">
-        <v>2.393631593625595</v>
+        <v>3.073729554638201</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.42117541588747</v>
+        <v>35.04447703950748</v>
       </c>
       <c r="G8">
-        <v>19.93208832871828</v>
+        <v>2.122426186357189</v>
       </c>
       <c r="H8">
-        <v>21.39540689691179</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.56844794474014</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6.840086726104808</v>
+        <v>6.016551683745741</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.39301006026962</v>
       </c>
       <c r="L8">
-        <v>9.994961296466149</v>
+        <v>7.574915518634999</v>
       </c>
       <c r="M8">
-        <v>15.35968356379387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>14.12369032059426</v>
+      </c>
+      <c r="O8">
+        <v>26.14537183823602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.38323011680512</v>
+        <v>25.44831533307567</v>
       </c>
       <c r="C9">
-        <v>18.1637369314872</v>
+        <v>12.2235965590791</v>
       </c>
       <c r="D9">
-        <v>2.365943808502052</v>
+        <v>3.181137760555859</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.60693713844269</v>
+        <v>37.22607450851497</v>
       </c>
       <c r="G9">
-        <v>22.52435925114029</v>
+        <v>2.100200208921535</v>
       </c>
       <c r="H9">
-        <v>23.43289129193898</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.40332660410083</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.79952660698397</v>
+        <v>5.899787351810174</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.88150808184794</v>
       </c>
       <c r="L9">
-        <v>11.17739241210934</v>
+        <v>7.996276572526549</v>
       </c>
       <c r="M9">
-        <v>17.81828808612999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.50767998377049</v>
+      </c>
+      <c r="O9">
+        <v>27.54897674552827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.65337471038362</v>
+        <v>27.59911641941623</v>
       </c>
       <c r="C10">
-        <v>19.83181768077934</v>
+        <v>13.33306380927029</v>
       </c>
       <c r="D10">
-        <v>2.347706375899579</v>
+        <v>3.262218292015384</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.97399921080768</v>
+        <v>38.941452030708</v>
       </c>
       <c r="G10">
-        <v>24.42202898895214</v>
+        <v>2.084401906191275</v>
       </c>
       <c r="H10">
-        <v>24.99338029336051</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.13962894722939</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6.803189913135042</v>
+        <v>5.821146093542301</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.79326059380909</v>
       </c>
       <c r="L10">
-        <v>12.02395536824206</v>
+        <v>8.315018919479868</v>
       </c>
       <c r="M10">
-        <v>19.47136544634696</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>13.06793438936333</v>
+      </c>
+      <c r="O10">
+        <v>28.68057951791275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.63979638769746</v>
+        <v>28.54644077175685</v>
       </c>
       <c r="C11">
-        <v>20.55886512905079</v>
+        <v>13.81660989859211</v>
       </c>
       <c r="D11">
-        <v>2.340006446561305</v>
+        <v>3.299655767996853</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.05601379974503</v>
+        <v>39.74665125250696</v>
       </c>
       <c r="G11">
-        <v>25.28370169203679</v>
+        <v>2.077297815409162</v>
       </c>
       <c r="H11">
-        <v>25.71707520705668</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.50368910912702</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6.813359187908287</v>
+        <v>5.786931088179793</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.62550034196652</v>
       </c>
       <c r="L11">
-        <v>12.42730735635369</v>
+        <v>8.461780761529459</v>
       </c>
       <c r="M11">
-        <v>20.19195719812632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.87025414527873</v>
+      </c>
+      <c r="O11">
+        <v>29.21814532152435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.00689180873738</v>
+        <v>28.90072891107289</v>
       </c>
       <c r="C12">
-        <v>20.8297860757143</v>
+        <v>13.99677582260722</v>
       </c>
       <c r="D12">
-        <v>2.337191682494445</v>
+        <v>3.313921169925456</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.46655774071591</v>
+        <v>40.05520069466199</v>
       </c>
       <c r="G12">
-        <v>25.60984951536978</v>
+        <v>2.07461655883094</v>
       </c>
       <c r="H12">
-        <v>25.99316924460512</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.64593834212298</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6.818544706143608</v>
+        <v>5.774200408444009</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.93543400927606</v>
       </c>
       <c r="L12">
-        <v>12.6040850040926</v>
+        <v>8.517596030621368</v>
       </c>
       <c r="M12">
-        <v>20.46048286714255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.79570421246581</v>
+      </c>
+      <c r="O12">
+        <v>29.42508279705337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.92811408200047</v>
+        <v>28.82462328799021</v>
       </c>
       <c r="C13">
-        <v>20.77163095307192</v>
+        <v>13.95810301541406</v>
       </c>
       <c r="D13">
-        <v>2.337793119728483</v>
+        <v>3.310844747977597</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.37810190953117</v>
+        <v>39.98858584511976</v>
       </c>
       <c r="G13">
-        <v>25.5396122988279</v>
+        <v>2.075193670000198</v>
       </c>
       <c r="H13">
-        <v>25.93361486604418</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.61510393736998</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.817366680573171</v>
+        <v>5.776932115449206</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.86891348859465</v>
       </c>
       <c r="L13">
-        <v>12.56612486515833</v>
+        <v>8.505564708961366</v>
       </c>
       <c r="M13">
-        <v>20.40284149577684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.81174671579637</v>
+      </c>
+      <c r="O13">
+        <v>29.38036333533756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67012533889856</v>
+        <v>28.57567699056144</v>
       </c>
       <c r="C14">
-        <v>20.58124100190871</v>
+        <v>13.83149061442188</v>
       </c>
       <c r="D14">
-        <v>2.339772750007378</v>
+        <v>3.300827554256294</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.08977263998595</v>
+        <v>39.7719623964192</v>
       </c>
       <c r="G14">
-        <v>25.3105363310369</v>
+        <v>2.077077066453846</v>
       </c>
       <c r="H14">
-        <v>25.73974806793141</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.5153029061353</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.813758384207333</v>
+        <v>5.785879191423017</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.65110233224381</v>
       </c>
       <c r="L14">
-        <v>12.44190167898398</v>
+        <v>8.466367971076775</v>
       </c>
       <c r="M14">
-        <v>20.21413504928337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.86411490202529</v>
+      </c>
+      <c r="O14">
+        <v>29.23510196703569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.51126766510794</v>
+        <v>28.42261319964636</v>
       </c>
       <c r="C15">
-        <v>20.46405462256341</v>
+        <v>13.75355683313041</v>
       </c>
       <c r="D15">
-        <v>2.340998997989795</v>
+        <v>3.294703587143581</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.91327118236496</v>
+        <v>39.63975055118497</v>
       </c>
       <c r="G15">
-        <v>25.17020493404618</v>
+        <v>2.07823176760359</v>
       </c>
       <c r="H15">
-        <v>25.62126831793354</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.45474947437894</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6.811725473528234</v>
+        <v>5.791388994396578</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.51701242255778</v>
       </c>
       <c r="L15">
-        <v>12.36548073682203</v>
+        <v>8.442389746625533</v>
       </c>
       <c r="M15">
-        <v>20.09798614833445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12.89623099591675</v>
+      </c>
+      <c r="O15">
+        <v>29.14656765152277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.58799630112701</v>
+        <v>27.536582238259</v>
       </c>
       <c r="C16">
-        <v>19.78367839098157</v>
+        <v>13.30104547126042</v>
       </c>
       <c r="D16">
-        <v>2.348222817030952</v>
+        <v>3.259783523119336</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.90339498042682</v>
+        <v>38.88933521341139</v>
       </c>
       <c r="G16">
-        <v>24.36568978291813</v>
+        <v>2.084867590891882</v>
       </c>
       <c r="H16">
-        <v>24.94636698156491</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.11643950713186</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6.802705805112907</v>
+        <v>5.823413625865004</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.73813231287522</v>
       </c>
       <c r="L16">
-        <v>11.99901888741933</v>
+        <v>8.305461863941185</v>
       </c>
       <c r="M16">
-        <v>19.4236552057931</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>13.08089800904577</v>
+      </c>
+      <c r="O16">
+        <v>28.64591465538896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.00989198146857</v>
+        <v>26.98507310218898</v>
       </c>
       <c r="C17">
-        <v>19.35826874318351</v>
+        <v>13.01809301641197</v>
       </c>
       <c r="D17">
-        <v>2.352817010221099</v>
+        <v>3.23850867595259</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.28521927915907</v>
+        <v>38.43538136057014</v>
       </c>
       <c r="G17">
-        <v>23.87177211501328</v>
+        <v>2.088957598778375</v>
       </c>
       <c r="H17">
-        <v>24.53590089166732</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.91649341614681</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.799427357628334</v>
+        <v>5.843460051832347</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.25084037114818</v>
       </c>
       <c r="L17">
-        <v>11.77990918220685</v>
+        <v>8.221901180766498</v>
       </c>
       <c r="M17">
-        <v>19.00204666964098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>13.19476704442576</v>
+      </c>
+      <c r="O17">
+        <v>28.34467959728122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.6730117922606</v>
+        <v>26.66492895061292</v>
       </c>
       <c r="C18">
-        <v>19.11058246294608</v>
+        <v>12.85334825824404</v>
       </c>
       <c r="D18">
-        <v>2.355514509332758</v>
+        <v>3.226323375050572</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.9301440214662</v>
+        <v>38.17661386034295</v>
       </c>
       <c r="G18">
-        <v>23.58752503650043</v>
+        <v>2.091318036787679</v>
       </c>
       <c r="H18">
-        <v>24.30110569769704</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.80421745813114</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.798334826691814</v>
+        <v>5.855136874099241</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.96702936295023</v>
       </c>
       <c r="L18">
-        <v>11.65340010829432</v>
+        <v>8.174005858165154</v>
       </c>
       <c r="M18">
-        <v>18.75658179635861</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>13.26048576934531</v>
+      </c>
+      <c r="O18">
+        <v>28.17355587162492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.55819323277871</v>
+        <v>26.55603025447964</v>
       </c>
       <c r="C19">
-        <v>19.02619963664178</v>
+        <v>12.79722251317146</v>
       </c>
       <c r="D19">
-        <v>2.356436876026048</v>
+        <v>3.222206236671284</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.81000434265782</v>
+        <v>38.08939931858483</v>
       </c>
       <c r="G19">
-        <v>23.49125541082864</v>
+        <v>2.092118695642785</v>
       </c>
       <c r="H19">
-        <v>24.22182945838473</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.76666529412848</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.798097861693058</v>
+        <v>5.859115591864468</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.87032421256652</v>
       </c>
       <c r="L19">
-        <v>11.61048355854619</v>
+        <v>8.157818453912148</v>
       </c>
       <c r="M19">
-        <v>18.67295721463232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>13.28277651478724</v>
+      </c>
+      <c r="O19">
+        <v>28.11598108401693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.07188295489619</v>
+        <v>27.04408546133351</v>
       </c>
       <c r="C20">
-        <v>19.40386382699654</v>
+        <v>13.04841988839729</v>
       </c>
       <c r="D20">
-        <v>2.3523221536639</v>
+        <v>3.240768039072003</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.35097501917168</v>
+        <v>38.48346355191873</v>
       </c>
       <c r="G20">
-        <v>23.92436658326537</v>
+        <v>2.088521405770753</v>
       </c>
       <c r="H20">
-        <v>24.57946153362651</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.93749428866738</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.799693482037479</v>
+        <v>5.841310888083692</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.3030780063444</v>
       </c>
       <c r="L20">
-        <v>11.80328379724833</v>
+        <v>8.230779238396453</v>
       </c>
       <c r="M20">
-        <v>19.0472335064258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>13.18262251702926</v>
+      </c>
+      <c r="O20">
+        <v>28.37652461373667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.74607588809676</v>
+        <v>28.64891868302383</v>
       </c>
       <c r="C21">
-        <v>20.63728097823024</v>
+        <v>13.86875874813882</v>
       </c>
       <c r="D21">
-        <v>2.339188404304293</v>
+        <v>3.303767357055827</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.17443908313857</v>
+        <v>39.83549053304493</v>
       </c>
       <c r="G21">
-        <v>25.37782453007017</v>
+        <v>2.076523650781511</v>
       </c>
       <c r="H21">
-        <v>25.79663514296946</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.54449614167459</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.814781072552352</v>
+        <v>5.783245075284126</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.71521895085789</v>
       </c>
       <c r="L21">
-        <v>12.47845769255701</v>
+        <v>8.477874578011384</v>
       </c>
       <c r="M21">
-        <v>20.2696792395021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.84872501133962</v>
+      </c>
+      <c r="O21">
+        <v>29.27767633970592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.80282912442815</v>
+        <v>29.71665813138033</v>
       </c>
       <c r="C22">
-        <v>21.4178617562276</v>
+        <v>14.3878018613848</v>
       </c>
       <c r="D22">
-        <v>2.331203243481835</v>
+        <v>3.345463738921063</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.3709840562314</v>
+        <v>40.7403814427158</v>
       </c>
       <c r="G22">
-        <v>26.32696665152768</v>
+        <v>2.068732730718613</v>
       </c>
       <c r="H22">
-        <v>26.60412781298901</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.9668856737819</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>6.832479136369596</v>
+        <v>5.746612928931429</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.60781270824004</v>
       </c>
       <c r="L22">
-        <v>12.98836520950616</v>
+        <v>8.640761075151726</v>
       </c>
       <c r="M22">
-        <v>21.04337408505247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12.63228041486781</v>
+      </c>
+      <c r="O22">
+        <v>29.8863531180322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.24216854299118</v>
+        <v>29.13212188013879</v>
       </c>
       <c r="C23">
-        <v>21.00352445074094</v>
+        <v>14.11230683707593</v>
       </c>
       <c r="D23">
-        <v>2.335404362762723</v>
+        <v>3.323158131590342</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.73188273431668</v>
+        <v>40.25544753368761</v>
       </c>
       <c r="G23">
-        <v>25.82041667047434</v>
+        <v>2.072887356663631</v>
       </c>
       <c r="H23">
-        <v>26.17202068321646</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.73902845994895</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>6.822276985770253</v>
+        <v>5.766043022693598</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.13413405148753</v>
       </c>
       <c r="L23">
-        <v>12.71753521994921</v>
+        <v>8.553700815322129</v>
       </c>
       <c r="M23">
-        <v>20.63268764885262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>12.74764888202097</v>
+      </c>
+      <c r="O23">
+        <v>29.55964863424609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.04387093146862</v>
+        <v>27.01741555069602</v>
       </c>
       <c r="C24">
-        <v>19.38325999744537</v>
+        <v>13.03471556959959</v>
       </c>
       <c r="D24">
-        <v>2.352545704264166</v>
+        <v>3.239746438711052</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.32124584867748</v>
+        <v>38.46171869310803</v>
       </c>
       <c r="G24">
-        <v>23.9005895238521</v>
+        <v>2.088718580257621</v>
       </c>
       <c r="H24">
-        <v>24.55976407311753</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.92799147495939</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.79957070774422</v>
+        <v>5.842282052102491</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.27947278494242</v>
       </c>
       <c r="L24">
-        <v>11.79271781600048</v>
+        <v>8.226765016295074</v>
       </c>
       <c r="M24">
-        <v>19.02681413266367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>13.18811226456285</v>
+      </c>
+      <c r="O24">
+        <v>28.36212107122551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.50487651908441</v>
+        <v>24.62879636767093</v>
       </c>
       <c r="C25">
-        <v>17.52023930389631</v>
+        <v>11.79566702494917</v>
       </c>
       <c r="D25">
-        <v>2.373104001607785</v>
+        <v>3.151721801405569</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.73999000010514</v>
+        <v>36.6161811905947</v>
       </c>
       <c r="G25">
-        <v>21.82400507369302</v>
+        <v>2.106109516782666</v>
       </c>
       <c r="H25">
-        <v>22.87038559445957</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.15669471841761</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6.805017749187966</v>
+        <v>5.930122437616926</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.19486084746559</v>
       </c>
       <c r="L25">
-        <v>10.86120896270336</v>
+        <v>7.880583345306373</v>
       </c>
       <c r="M25">
-        <v>17.18065795345589</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.67193323278677</v>
+      </c>
+      <c r="O25">
+        <v>27.15192902898307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.77531819800242</v>
+        <v>13.33735602586281</v>
       </c>
       <c r="C2">
-        <v>10.81413818280669</v>
+        <v>9.338592978422374</v>
       </c>
       <c r="D2">
-        <v>3.088340113132533</v>
+        <v>5.423361273171734</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.33292414869899</v>
+        <v>17.87849363240781</v>
       </c>
       <c r="G2">
-        <v>2.119283186593745</v>
+        <v>22.26661225464272</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.108470386925257</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.99959383570254</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.74321911636254</v>
+        <v>11.31437559633148</v>
       </c>
       <c r="L2">
-        <v>7.63196672835009</v>
+        <v>7.16778011637988</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.01417010029607</v>
       </c>
       <c r="N2">
-        <v>14.03694149902942</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>26.32800819584813</v>
+        <v>14.76702686618558</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.46254201021463</v>
+        <v>12.46126362287883</v>
       </c>
       <c r="C3">
-        <v>10.10443072199508</v>
+        <v>9.452529253497719</v>
       </c>
       <c r="D3">
-        <v>3.046202638985986</v>
+        <v>5.236735051761798</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.51035148496514</v>
+        <v>17.71714742787167</v>
       </c>
       <c r="G3">
-        <v>2.128484258868815</v>
+        <v>22.16536815680789</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.190618472443273</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.049662837597304</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.71451339142283</v>
+        <v>10.79859444980476</v>
       </c>
       <c r="L3">
-        <v>7.467868342149719</v>
+        <v>7.070147301381069</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.652952994762003</v>
       </c>
       <c r="N3">
-        <v>14.29041802156406</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>25.81022533976434</v>
+        <v>14.84936445490997</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.62998592053934</v>
+        <v>11.89145743750094</v>
       </c>
       <c r="C4">
-        <v>9.646357744498999</v>
+        <v>9.52490396816745</v>
       </c>
       <c r="D4">
-        <v>3.020718965036532</v>
+        <v>5.118079440133338</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.02856103581338</v>
+        <v>17.63312571680584</v>
       </c>
       <c r="G4">
-        <v>2.134281281376267</v>
+        <v>22.12761597497685</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.245994645637365</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.081879810063906</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.06182445807416</v>
+        <v>10.46829895994141</v>
       </c>
       <c r="L4">
-        <v>7.369460251361024</v>
+        <v>7.013205062425833</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.427839439244492</v>
       </c>
       <c r="N4">
-        <v>14.44926950176791</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>25.51189843980047</v>
+        <v>14.91132575485127</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.28434370349391</v>
+        <v>11.65120989922522</v>
       </c>
       <c r="C5">
-        <v>9.454038525634727</v>
+        <v>9.555010415029239</v>
       </c>
       <c r="D5">
-        <v>3.010430964205088</v>
+        <v>5.068744888084293</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.83808652391935</v>
+        <v>17.60259895088372</v>
       </c>
       <c r="G5">
-        <v>2.136682459674651</v>
+        <v>22.11816159530396</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.269766861398933</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.095379431508886</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.79077985593429</v>
+        <v>10.33037913577402</v>
       </c>
       <c r="L5">
-        <v>7.329978262932374</v>
+        <v>6.990767097073276</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.335402901547884</v>
       </c>
       <c r="N5">
-        <v>14.51484019745779</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>25.3951874758663</v>
+        <v>14.93933514199066</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.22657560580681</v>
+        <v>11.61083015909494</v>
       </c>
       <c r="C6">
-        <v>9.421761779927046</v>
+        <v>9.560046756354195</v>
       </c>
       <c r="D6">
-        <v>3.008728480120952</v>
+        <v>5.060494941364115</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.80681225770273</v>
+        <v>17.59775197964621</v>
       </c>
       <c r="G6">
-        <v>2.137083568594999</v>
+        <v>22.11694350575944</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.273786059080482</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.097643446238902</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.74547481031435</v>
+        <v>10.30728027248324</v>
       </c>
       <c r="L6">
-        <v>7.323460627262675</v>
+        <v>6.987087864469914</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.320015740001908</v>
       </c>
       <c r="N6">
-        <v>14.52577956751436</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>25.37609906463087</v>
+        <v>14.94414963962018</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.6253498073235</v>
+        <v>11.88824999406581</v>
       </c>
       <c r="C7">
-        <v>9.643786986652396</v>
+        <v>9.525307504524893</v>
       </c>
       <c r="D7">
-        <v>3.020579826318067</v>
+        <v>5.117418013118624</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.02596850461493</v>
+        <v>17.63269909020734</v>
       </c>
       <c r="G7">
-        <v>2.134313504995907</v>
+        <v>22.12746474499762</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.24631040847339</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.08206036835301</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.05818923359697</v>
+        <v>10.46645223074132</v>
       </c>
       <c r="L7">
-        <v>7.368925233517257</v>
+        <v>7.012899339752889</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.42659545820408</v>
       </c>
       <c r="N7">
-        <v>14.45015038283995</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>25.51030485412308</v>
+        <v>14.91169246668177</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.32832859097311</v>
+        <v>13.04187735550344</v>
       </c>
       <c r="C8">
-        <v>10.57403370784612</v>
+        <v>9.377379672147322</v>
       </c>
       <c r="D8">
-        <v>3.073729554638201</v>
+        <v>5.359879718165546</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.04447703950748</v>
+        <v>17.81969958080818</v>
       </c>
       <c r="G8">
-        <v>2.122426186357189</v>
+        <v>22.2265152817181</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.135748441038793</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.016551683745741</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.39301006026962</v>
+        <v>11.13941180763492</v>
       </c>
       <c r="L8">
-        <v>7.574915518634999</v>
+        <v>7.133499761396009</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.890389677638465</v>
       </c>
       <c r="N8">
-        <v>14.12369032059426</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>26.14537183823602</v>
+        <v>14.79298358211853</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.44831533307567</v>
+        <v>15.05268987432619</v>
       </c>
       <c r="C9">
-        <v>12.2235965590791</v>
+        <v>9.106232695535315</v>
       </c>
       <c r="D9">
-        <v>3.181137760555859</v>
+        <v>5.80151475149082</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.22607450851497</v>
+        <v>18.30840274475844</v>
       </c>
       <c r="G9">
-        <v>2.100200208921535</v>
+        <v>22.62300880015189</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.959804044069159</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.899787351810174</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.88150808184794</v>
+        <v>12.34764237352649</v>
       </c>
       <c r="L9">
-        <v>7.996276572526549</v>
+        <v>7.39328607406084</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.76822503206322</v>
       </c>
       <c r="N9">
-        <v>13.50767998377049</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>27.54897674552827</v>
+        <v>14.65567547511798</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.59911641941623</v>
+        <v>16.37904899894765</v>
       </c>
       <c r="C10">
-        <v>13.33306380927029</v>
+        <v>8.918229223101177</v>
       </c>
       <c r="D10">
-        <v>3.262218292015384</v>
+        <v>6.10357560547405</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.941452030708</v>
+        <v>18.74466322450374</v>
       </c>
       <c r="G10">
-        <v>2.084401906191275</v>
+        <v>23.04807506690976</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.857949794868267</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.821146093542301</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.79326059380909</v>
+        <v>13.16375057234882</v>
       </c>
       <c r="L10">
-        <v>8.315018919479868</v>
+        <v>7.59753871023882</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.38772141261416</v>
       </c>
       <c r="N10">
-        <v>13.06793438936333</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>28.68057951791275</v>
+        <v>14.61999200124578</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.54644077175685</v>
+        <v>16.95019984074175</v>
       </c>
       <c r="C11">
-        <v>13.81660989859211</v>
+        <v>8.835063873776008</v>
       </c>
       <c r="D11">
-        <v>3.299655767996853</v>
+        <v>6.235829680689503</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>39.74665125250696</v>
+        <v>18.96029743622617</v>
       </c>
       <c r="G11">
-        <v>2.077297815409162</v>
+        <v>23.27235365283913</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.818158715923373</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.786931088179793</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.62550034196652</v>
+        <v>13.51896191936581</v>
       </c>
       <c r="L11">
-        <v>8.461780761529459</v>
+        <v>7.693179559973832</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.66297846700748</v>
       </c>
       <c r="N11">
-        <v>12.87025414527873</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>29.21814532152435</v>
+        <v>14.61945662639114</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.90072891107289</v>
+        <v>17.16189273189581</v>
       </c>
       <c r="C12">
-        <v>13.99677582260722</v>
+        <v>8.803905013442758</v>
       </c>
       <c r="D12">
-        <v>3.313921169925456</v>
+        <v>6.285149613452978</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>40.05520069466199</v>
+        <v>19.04444235327511</v>
       </c>
       <c r="G12">
-        <v>2.07461655883094</v>
+        <v>23.36185312590033</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.804084772830061</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.774200408444009</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.93543400927606</v>
+        <v>13.6511349802161</v>
       </c>
       <c r="L12">
-        <v>8.517596030621368</v>
+        <v>7.729772102997836</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.76619779918867</v>
       </c>
       <c r="N12">
-        <v>12.79570421246581</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>29.42508279705337</v>
+        <v>14.62163982033227</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.82462328799021</v>
+        <v>17.11650429378716</v>
       </c>
       <c r="C13">
-        <v>13.95810301541406</v>
+        <v>8.810600853989394</v>
       </c>
       <c r="D13">
-        <v>3.310844747977597</v>
+        <v>6.274561857670122</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.98858584511976</v>
+        <v>19.02620931949296</v>
       </c>
       <c r="G13">
-        <v>2.075193670000198</v>
+        <v>23.34237276898078</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.807070755287247</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.776932115449206</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.86891348859465</v>
+        <v>13.62277352078944</v>
       </c>
       <c r="L13">
-        <v>8.505564708961366</v>
+        <v>7.721874804653095</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.74401381589636</v>
       </c>
       <c r="N13">
-        <v>12.81174671579637</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>29.38036333533756</v>
+        <v>14.62106145735481</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.57567699056144</v>
+        <v>16.96770766961804</v>
       </c>
       <c r="C14">
-        <v>13.83149061442188</v>
+        <v>8.832493749321676</v>
       </c>
       <c r="D14">
-        <v>3.300827554256294</v>
+        <v>6.239902635143664</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>39.7719623964192</v>
+        <v>18.967170124859</v>
       </c>
       <c r="G14">
-        <v>2.077077066453846</v>
+        <v>23.27962458905126</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.816980605294761</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.785879191423017</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>22.65110233224381</v>
+        <v>13.52988287563429</v>
       </c>
       <c r="L14">
-        <v>8.466367971076775</v>
+        <v>7.696182619269991</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.67149108813299</v>
       </c>
       <c r="N14">
-        <v>12.86411490202529</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>29.23510196703569</v>
+        <v>14.61958768124058</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.42261319964636</v>
+        <v>16.87596906045967</v>
       </c>
       <c r="C15">
-        <v>13.75355683313041</v>
+        <v>8.845947134745986</v>
       </c>
       <c r="D15">
-        <v>3.294703587143581</v>
+        <v>6.218573096314339</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>39.63975055118497</v>
+        <v>18.93133148133396</v>
       </c>
       <c r="G15">
-        <v>2.07823176760359</v>
+        <v>23.2417880575441</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.823181766019546</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.791388994396578</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.51701242255778</v>
+        <v>13.47267945563044</v>
       </c>
       <c r="L15">
-        <v>8.442389746625533</v>
+        <v>7.680493823547637</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.62693475963331</v>
       </c>
       <c r="N15">
-        <v>12.89623099591675</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>29.14656765152277</v>
+        <v>14.61899950404816</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.536582238259</v>
+        <v>16.34107831589487</v>
       </c>
       <c r="C16">
-        <v>13.30104547126042</v>
+        <v>8.923711293925669</v>
       </c>
       <c r="D16">
-        <v>3.259783523119336</v>
+        <v>6.09482692822265</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.88933521341139</v>
+        <v>18.73091845149596</v>
       </c>
       <c r="G16">
-        <v>2.084867590891882</v>
+        <v>23.03405107807161</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.860686372262544</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.823413625865004</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.73813231287522</v>
+        <v>13.14021102752202</v>
       </c>
       <c r="L16">
-        <v>8.305461863941185</v>
+        <v>7.591341780884964</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.36959440193777</v>
       </c>
       <c r="N16">
-        <v>13.08089800904577</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>28.64591465538896</v>
+        <v>14.62035383562686</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.98507310218898</v>
+        <v>16.00471885365022</v>
       </c>
       <c r="C17">
-        <v>13.01809301641197</v>
+        <v>8.972017472733611</v>
       </c>
       <c r="D17">
-        <v>3.23850867595259</v>
+        <v>6.017576679494743</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.43538136057014</v>
+        <v>18.61238684805563</v>
       </c>
       <c r="G17">
-        <v>2.088957598778375</v>
+        <v>22.91462353252474</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.885406896275699</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.843460051832347</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.25084037114818</v>
+        <v>12.93211896098086</v>
       </c>
       <c r="L17">
-        <v>8.221901180766498</v>
+        <v>7.53733610217803</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.20999068965705</v>
       </c>
       <c r="N17">
-        <v>13.19476704442576</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>28.34467959728122</v>
+        <v>14.62529634015415</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.66492895061292</v>
+        <v>15.80821870886376</v>
       </c>
       <c r="C18">
-        <v>12.85334825824404</v>
+        <v>9.000024187744229</v>
       </c>
       <c r="D18">
-        <v>3.226323375050572</v>
+        <v>5.97266018025024</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.17661386034295</v>
+        <v>18.54582679201182</v>
       </c>
       <c r="G18">
-        <v>2.091318036787679</v>
+        <v>22.84883546440519</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.900237963558883</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.855136874099241</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.96702936295023</v>
+        <v>12.8109213528503</v>
       </c>
       <c r="L18">
-        <v>8.174005858165154</v>
+        <v>7.506530962814555</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.11757742078551</v>
       </c>
       <c r="N18">
-        <v>13.26048576934531</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>28.17355587162492</v>
+        <v>14.62960885704716</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.55603025447964</v>
+        <v>15.74116457386155</v>
       </c>
       <c r="C19">
-        <v>12.79722251317146</v>
+        <v>9.009545113428215</v>
       </c>
       <c r="D19">
-        <v>3.222206236671284</v>
+        <v>5.957369744452076</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.08939931858483</v>
+        <v>18.52356758463569</v>
       </c>
       <c r="G19">
-        <v>2.092118695642785</v>
+        <v>22.82705533073793</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.905363131694664</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.859115591864468</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.87032421256652</v>
+        <v>12.76962793052901</v>
       </c>
       <c r="L19">
-        <v>8.157818453912148</v>
+        <v>7.496145604132351</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.08618489867697</v>
       </c>
       <c r="N19">
-        <v>13.28277651478724</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>28.11598108401693</v>
+        <v>14.63131752230283</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.04408546133351</v>
+        <v>16.04083870483201</v>
       </c>
       <c r="C20">
-        <v>13.04841988839729</v>
+        <v>8.9668522297161</v>
       </c>
       <c r="D20">
-        <v>3.240768039072003</v>
+        <v>6.025850372482641</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.48346355191873</v>
+        <v>18.62483731033685</v>
       </c>
       <c r="G20">
-        <v>2.088521405770753</v>
+        <v>22.92703533590597</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.88271159003345</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.841310888083692</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.3030780063444</v>
+        <v>12.95442710119796</v>
       </c>
       <c r="L20">
-        <v>8.230779238396453</v>
+        <v>7.543058569104624</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.22704482301633</v>
       </c>
       <c r="N20">
-        <v>13.18262251702926</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>28.37652461373667</v>
+        <v>14.62461716267994</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.64891868302383</v>
+        <v>17.01153705048848</v>
       </c>
       <c r="C21">
-        <v>13.86875874813882</v>
+        <v>8.826054249042627</v>
       </c>
       <c r="D21">
-        <v>3.303767357055827</v>
+        <v>6.250103711824363</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>39.83549053304493</v>
+        <v>18.98444370395635</v>
       </c>
       <c r="G21">
-        <v>2.076523650781511</v>
+        <v>23.29793031836579</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.814042423358327</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.783245075284126</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.71521895085789</v>
+        <v>13.55723076009276</v>
       </c>
       <c r="L21">
-        <v>8.477874578011384</v>
+        <v>7.703718977145167</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.69282082253781</v>
       </c>
       <c r="N21">
-        <v>12.84872501133962</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>29.27767633970592</v>
+        <v>14.61995478162305</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.71665813138033</v>
+        <v>17.61921453759483</v>
       </c>
       <c r="C22">
-        <v>14.3878018613848</v>
+        <v>8.735979481385597</v>
       </c>
       <c r="D22">
-        <v>3.345463738921063</v>
+        <v>6.39221852559967</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.7403814427158</v>
+        <v>19.23397861651292</v>
       </c>
       <c r="G22">
-        <v>2.068732730718613</v>
+        <v>23.56701440289404</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.774984357566504</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.746612928931429</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.60781270824004</v>
+        <v>13.9375631696469</v>
       </c>
       <c r="L22">
-        <v>8.640761075151726</v>
+        <v>7.810900855311647</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.99129337161728</v>
       </c>
       <c r="N22">
-        <v>12.63228041486781</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>29.8863531180322</v>
+        <v>14.63087488088501</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.13212188013879</v>
+        <v>17.29731668112236</v>
       </c>
       <c r="C23">
-        <v>14.11230683707593</v>
+        <v>8.783877770276769</v>
       </c>
       <c r="D23">
-        <v>3.323158131590342</v>
+        <v>6.316782090013508</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.25544753368761</v>
+        <v>19.09946489443319</v>
       </c>
       <c r="G23">
-        <v>2.072887356663631</v>
+        <v>23.42092119310308</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.795279330047348</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.766043022693598</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.13413405148753</v>
+        <v>13.73582819880509</v>
       </c>
       <c r="L23">
-        <v>8.553700815322129</v>
+        <v>7.75350162568408</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.83255722988116</v>
       </c>
       <c r="N23">
-        <v>12.74764888202097</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>29.55964863424609</v>
+        <v>14.62372589564458</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.01741555069602</v>
+        <v>16.02451864959017</v>
       </c>
       <c r="C24">
-        <v>13.03471556959959</v>
+        <v>8.969186704195385</v>
       </c>
       <c r="D24">
-        <v>3.239746438711052</v>
+        <v>6.022111405077252</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.46171869310803</v>
+        <v>18.61920351985708</v>
       </c>
       <c r="G24">
-        <v>2.088718580257621</v>
+        <v>22.92141502231495</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.88392821421226</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.842282052102491</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.27947278494242</v>
+        <v>12.94434645602632</v>
       </c>
       <c r="L24">
-        <v>8.226765016295074</v>
+        <v>7.540470682274568</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.2193366838206</v>
       </c>
       <c r="N24">
-        <v>13.18811226456285</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>28.36212107122551</v>
+        <v>14.62491964670288</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.62879636767093</v>
+        <v>14.53540193250228</v>
       </c>
       <c r="C25">
-        <v>11.79566702494917</v>
+        <v>9.177592643740248</v>
       </c>
       <c r="D25">
-        <v>3.151721801405569</v>
+        <v>5.685862926723382</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.6161811905947</v>
+        <v>18.16280216291407</v>
       </c>
       <c r="G25">
-        <v>2.106109516782666</v>
+        <v>22.49294593672746</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.00277854596958</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.930122437616926</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.19486084746559</v>
+        <v>12.03314155871124</v>
       </c>
       <c r="L25">
-        <v>7.880583345306373</v>
+        <v>7.320593703143286</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.53482136297316</v>
       </c>
       <c r="N25">
-        <v>13.67193323278677</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>27.15192902898307</v>
+        <v>14.6818863032443</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.33735602586281</v>
+        <v>11.07461541334959</v>
       </c>
       <c r="C2">
-        <v>9.338592978422374</v>
+        <v>13.25362651949753</v>
       </c>
       <c r="D2">
-        <v>5.423361273171734</v>
+        <v>5.426202884781771</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.87849363240781</v>
+        <v>25.43893045904739</v>
       </c>
       <c r="G2">
-        <v>22.26661225464272</v>
+        <v>30.71617546584923</v>
       </c>
       <c r="H2">
-        <v>9.108470386925257</v>
+        <v>14.89119137541703</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.31437559633148</v>
+        <v>8.404439517062462</v>
       </c>
       <c r="L2">
-        <v>7.16778011637988</v>
+        <v>11.15275193508069</v>
       </c>
       <c r="M2">
-        <v>10.01417010029607</v>
+        <v>14.16860043662403</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.76702686618558</v>
+        <v>22.90650877922387</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.46126362287883</v>
+        <v>10.80827132442156</v>
       </c>
       <c r="C3">
-        <v>9.452529253497719</v>
+        <v>13.29243649415632</v>
       </c>
       <c r="D3">
-        <v>5.236735051761798</v>
+        <v>5.357019768673666</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.71714742787167</v>
+        <v>25.49642236383876</v>
       </c>
       <c r="G3">
-        <v>22.16536815680789</v>
+        <v>30.81707362864761</v>
       </c>
       <c r="H3">
-        <v>9.190618472443273</v>
+        <v>14.93943122608546</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.79859444980476</v>
+        <v>8.165488985032766</v>
       </c>
       <c r="L3">
-        <v>7.070147301381069</v>
+        <v>11.16234124483018</v>
       </c>
       <c r="M3">
-        <v>9.652952994762003</v>
+        <v>14.12770537130639</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.84936445490997</v>
+        <v>22.98836933419144</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89145743750094</v>
+        <v>10.64294795579683</v>
       </c>
       <c r="C4">
-        <v>9.52490396816745</v>
+        <v>13.3175746228034</v>
       </c>
       <c r="D4">
-        <v>5.118079440133338</v>
+        <v>5.313455684953329</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.63312571680584</v>
+        <v>25.53789072787766</v>
       </c>
       <c r="G4">
-        <v>22.12761597497685</v>
+        <v>30.8877946595122</v>
       </c>
       <c r="H4">
-        <v>9.245994645637365</v>
+        <v>14.97120297090932</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.46829895994141</v>
+        <v>8.013773288976477</v>
       </c>
       <c r="L4">
-        <v>7.013205062425833</v>
+        <v>11.16994992461506</v>
       </c>
       <c r="M4">
-        <v>9.427839439244492</v>
+        <v>14.10456664314422</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.91132575485127</v>
+        <v>23.04304779728473</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65120989922522</v>
+        <v>10.57522566066958</v>
       </c>
       <c r="C5">
-        <v>9.555010415029239</v>
+        <v>13.32814857841056</v>
       </c>
       <c r="D5">
-        <v>5.068744888084293</v>
+        <v>5.295439496132818</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.60259895088372</v>
+        <v>25.55633747862251</v>
       </c>
       <c r="G5">
-        <v>22.11816159530396</v>
+        <v>30.91881136557175</v>
       </c>
       <c r="H5">
-        <v>9.269766861398933</v>
+        <v>14.98469173806409</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.33037913577402</v>
+        <v>7.950747919943596</v>
       </c>
       <c r="L5">
-        <v>6.990767097073276</v>
+        <v>11.17348369495393</v>
       </c>
       <c r="M5">
-        <v>9.335402901547884</v>
+        <v>14.09563967978406</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.93933514199066</v>
+        <v>23.06643896861422</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.61083015909494</v>
+        <v>10.56396212233794</v>
       </c>
       <c r="C6">
-        <v>9.560046756354195</v>
+        <v>13.32992433108013</v>
       </c>
       <c r="D6">
-        <v>5.060494941364115</v>
+        <v>5.292432289836948</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.59775197964621</v>
+        <v>25.55949395196035</v>
       </c>
       <c r="G6">
-        <v>22.11694350575944</v>
+        <v>30.92409414217785</v>
       </c>
       <c r="H6">
-        <v>9.273786059080482</v>
+        <v>14.98696425361692</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.30728027248324</v>
+        <v>7.940211891456022</v>
       </c>
       <c r="L6">
-        <v>6.987087864469914</v>
+        <v>11.17409664884048</v>
       </c>
       <c r="M6">
-        <v>9.320015740001908</v>
+        <v>14.09418788478567</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.94414963962018</v>
+        <v>23.07039001774442</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88824999406581</v>
+        <v>10.64203592097632</v>
       </c>
       <c r="C7">
-        <v>9.525307504524893</v>
+        <v>13.31771588966263</v>
       </c>
       <c r="D7">
-        <v>5.117418013118624</v>
+        <v>5.313213766451383</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.63269909020734</v>
+        <v>25.53813324340044</v>
       </c>
       <c r="G7">
-        <v>22.12746474499762</v>
+        <v>30.88820407543625</v>
       </c>
       <c r="H7">
-        <v>9.24631040847339</v>
+        <v>14.97138269211355</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.46645223074132</v>
+        <v>8.01292808658498</v>
       </c>
       <c r="L7">
-        <v>7.012899339752889</v>
+        <v>11.16999582784418</v>
       </c>
       <c r="M7">
-        <v>9.42659545820408</v>
+        <v>14.10444420893284</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.91169246668177</v>
+        <v>23.04335876897943</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.04187735550344</v>
+        <v>10.98320810803745</v>
       </c>
       <c r="C8">
-        <v>9.377379672147322</v>
+        <v>13.26673712731286</v>
       </c>
       <c r="D8">
-        <v>5.359879718165546</v>
+        <v>5.402579403635962</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.81969958080818</v>
+        <v>25.4574718113322</v>
       </c>
       <c r="G8">
-        <v>22.2265152817181</v>
+        <v>30.74914058785155</v>
       </c>
       <c r="H8">
-        <v>9.135748441038793</v>
+        <v>14.90737795944246</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.13941180763492</v>
+        <v>8.323119686567853</v>
       </c>
       <c r="L8">
-        <v>7.133499761396009</v>
+        <v>11.15570148031948</v>
       </c>
       <c r="M8">
-        <v>9.890389677638465</v>
+        <v>14.15409483588476</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.79298358211853</v>
+        <v>22.93381714362106</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05268987432619</v>
+        <v>11.63400855941341</v>
       </c>
       <c r="C9">
-        <v>9.106232695535315</v>
+        <v>13.17711075633321</v>
       </c>
       <c r="D9">
-        <v>5.80151475149082</v>
+        <v>5.568813086519274</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.30840274475844</v>
+        <v>25.34835309025898</v>
       </c>
       <c r="G9">
-        <v>22.62300880015189</v>
+        <v>30.54634361004839</v>
       </c>
       <c r="H9">
-        <v>8.959804044069159</v>
+        <v>14.7989280487306</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.34764237352649</v>
+        <v>8.88947596209141</v>
       </c>
       <c r="L9">
-        <v>7.39328607406084</v>
+        <v>11.1413008563755</v>
       </c>
       <c r="M9">
-        <v>10.76822503206322</v>
+        <v>14.26679035117713</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.65567547511798</v>
+        <v>22.75409262062557</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.37904899894765</v>
+        <v>12.0959620437721</v>
       </c>
       <c r="C10">
-        <v>8.918229223101177</v>
+        <v>13.1175106929909</v>
       </c>
       <c r="D10">
-        <v>6.10357560547405</v>
+        <v>5.684937897264408</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.74466322450374</v>
+        <v>25.29822715341762</v>
       </c>
       <c r="G10">
-        <v>23.04807506690976</v>
+        <v>30.44038108646024</v>
       </c>
       <c r="H10">
-        <v>8.857949794868267</v>
+        <v>14.72963237229945</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.16375057234882</v>
+        <v>9.277318034607797</v>
       </c>
       <c r="L10">
-        <v>7.59753871023882</v>
+        <v>11.13899448607957</v>
       </c>
       <c r="M10">
-        <v>11.38772141261416</v>
+        <v>14.3584968644774</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.61999200124578</v>
+        <v>22.64350447781682</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.95019984074175</v>
+        <v>12.30163927058946</v>
       </c>
       <c r="C11">
-        <v>8.835063873776008</v>
+        <v>13.09174186351488</v>
       </c>
       <c r="D11">
-        <v>6.235829680689503</v>
+        <v>5.736359266224577</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.96029743622617</v>
+        <v>25.28196724903172</v>
       </c>
       <c r="G11">
-        <v>23.27235365283913</v>
+        <v>30.40159749386255</v>
       </c>
       <c r="H11">
-        <v>8.818158715923373</v>
+        <v>14.70035841167341</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.51896191936581</v>
+        <v>9.447139247274976</v>
       </c>
       <c r="L11">
-        <v>7.693179559973832</v>
+        <v>11.1397320423058</v>
       </c>
       <c r="M11">
-        <v>11.66297846700748</v>
+        <v>14.40205009933617</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.61945662639114</v>
+        <v>22.59786757346065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.16189273189581</v>
+        <v>12.37880908874359</v>
       </c>
       <c r="C12">
-        <v>8.803905013442758</v>
+        <v>13.08217618098619</v>
       </c>
       <c r="D12">
-        <v>6.285149613452978</v>
+        <v>5.755621053132567</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.04444235327511</v>
+        <v>25.27675166728151</v>
       </c>
       <c r="G12">
-        <v>23.36185312590033</v>
+        <v>30.38827099116866</v>
       </c>
       <c r="H12">
-        <v>8.804084772830061</v>
+        <v>14.68959626798144</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.6511349802161</v>
+        <v>9.510460790907429</v>
       </c>
       <c r="L12">
-        <v>7.729772102997836</v>
+        <v>11.14026722261675</v>
       </c>
       <c r="M12">
-        <v>11.76619779918867</v>
+        <v>14.41879738859934</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.62163982033227</v>
+        <v>22.58125876475995</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.11650429378716</v>
+        <v>12.36222212175141</v>
       </c>
       <c r="C13">
-        <v>8.810600853989394</v>
+        <v>13.08422777660055</v>
       </c>
       <c r="D13">
-        <v>6.274561857670122</v>
+        <v>5.751482169149915</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.02620931949296</v>
+        <v>25.27783304580916</v>
       </c>
       <c r="G13">
-        <v>23.34237276898078</v>
+        <v>30.39108052478601</v>
       </c>
       <c r="H13">
-        <v>8.807070755287247</v>
+        <v>14.69189971270191</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.62277352078944</v>
+        <v>9.496867744265812</v>
       </c>
       <c r="L13">
-        <v>7.721874804653095</v>
+        <v>11.14014059939102</v>
       </c>
       <c r="M13">
-        <v>11.74401381589636</v>
+        <v>14.41517938749829</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.62106145735481</v>
+        <v>22.5848058209182</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.96770766961804</v>
+        <v>12.3080028200122</v>
       </c>
       <c r="C14">
-        <v>8.832493749321676</v>
+        <v>13.09095103725402</v>
       </c>
       <c r="D14">
-        <v>6.239902635143664</v>
+        <v>5.737948208091213</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.967170124859</v>
+        <v>25.28151928394145</v>
       </c>
       <c r="G14">
-        <v>23.27962458905126</v>
+        <v>30.4004738287727</v>
       </c>
       <c r="H14">
-        <v>8.816980605294761</v>
+        <v>14.69946652555776</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.52988287563429</v>
+        <v>9.452368700938859</v>
       </c>
       <c r="L14">
-        <v>7.696182619269991</v>
+        <v>11.13977095003628</v>
       </c>
       <c r="M14">
-        <v>11.67149108813299</v>
+        <v>14.40342286036406</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.61958768124058</v>
+        <v>22.59648766346248</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.87596906045967</v>
+        <v>12.27469665547148</v>
       </c>
       <c r="C15">
-        <v>8.845947134745986</v>
+        <v>13.09509426338592</v>
       </c>
       <c r="D15">
-        <v>6.218573096314339</v>
+        <v>5.729630626092237</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.93133148133396</v>
+        <v>25.28389986423308</v>
       </c>
       <c r="G15">
-        <v>23.2417880575441</v>
+        <v>30.40640476346756</v>
       </c>
       <c r="H15">
-        <v>8.823181766019546</v>
+        <v>14.7041435123947</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.47267945563044</v>
+        <v>9.424982348082017</v>
       </c>
       <c r="L15">
-        <v>7.680493823547637</v>
+        <v>11.13957781966806</v>
       </c>
       <c r="M15">
-        <v>11.62693475963331</v>
+        <v>14.39625452560616</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.61899950404816</v>
+        <v>22.60373079903984</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.34107831589487</v>
+        <v>12.08242425754291</v>
       </c>
       <c r="C16">
-        <v>8.923711293925669</v>
+        <v>13.11922171465854</v>
       </c>
       <c r="D16">
-        <v>6.09482692822265</v>
+        <v>5.681548402000652</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.73091845149596</v>
+        <v>25.29942151684599</v>
       </c>
       <c r="G16">
-        <v>23.03405107807161</v>
+        <v>30.44310571272399</v>
       </c>
       <c r="H16">
-        <v>8.860686372262544</v>
+        <v>14.73159073844418</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.14021102752202</v>
+        <v>9.266083680545121</v>
       </c>
       <c r="L16">
-        <v>7.591341780884964</v>
+        <v>11.13898215197283</v>
       </c>
       <c r="M16">
-        <v>11.36959440193777</v>
+        <v>14.35568670396525</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.62035383562686</v>
+        <v>22.64658104756752</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.00471885365022</v>
+        <v>11.96327311249249</v>
       </c>
       <c r="C17">
-        <v>8.972017472733611</v>
+        <v>13.13436667482748</v>
       </c>
       <c r="D17">
-        <v>6.017576679494743</v>
+        <v>5.65168571265648</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.61238684805563</v>
+        <v>25.31062005341097</v>
       </c>
       <c r="G17">
-        <v>22.91462353252474</v>
+        <v>30.46803720069446</v>
       </c>
       <c r="H17">
-        <v>8.885406896275699</v>
+        <v>14.74900464665192</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.93211896098086</v>
+        <v>9.166884967283279</v>
       </c>
       <c r="L17">
-        <v>7.53733610217803</v>
+        <v>11.13907364792282</v>
       </c>
       <c r="M17">
-        <v>11.20999068965705</v>
+        <v>14.33126324826588</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.62529634015415</v>
+        <v>22.67406539389895</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.80821870886376</v>
+        <v>11.89432400639739</v>
       </c>
       <c r="C18">
-        <v>9.000024187744229</v>
+        <v>13.14320416179816</v>
       </c>
       <c r="D18">
-        <v>5.97266018025024</v>
+        <v>5.634377776862066</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.54582679201182</v>
+        <v>25.31767695938586</v>
       </c>
       <c r="G18">
-        <v>22.84883546440519</v>
+        <v>30.48326343263573</v>
       </c>
       <c r="H18">
-        <v>8.900237963558883</v>
+        <v>14.75923235910087</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.8109213528503</v>
+        <v>9.109208187649127</v>
       </c>
       <c r="L18">
-        <v>7.506530962814555</v>
+        <v>11.13929452010452</v>
       </c>
       <c r="M18">
-        <v>11.11757742078551</v>
+        <v>14.31738886601721</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.62960885704716</v>
+        <v>22.69031316696202</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.74116457386155</v>
+        <v>11.87090981357885</v>
       </c>
       <c r="C19">
-        <v>9.009545113428215</v>
+        <v>13.14621813474433</v>
       </c>
       <c r="D19">
-        <v>5.957369744452076</v>
+        <v>5.628495248864704</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.52356758463569</v>
+        <v>25.32017203661697</v>
       </c>
       <c r="G19">
-        <v>22.82705533073793</v>
+        <v>30.48857081688256</v>
       </c>
       <c r="H19">
-        <v>8.905363131694664</v>
+        <v>14.76273164943248</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.76962793052901</v>
+        <v>9.089574429928552</v>
       </c>
       <c r="L19">
-        <v>7.496145604132351</v>
+        <v>11.13939823001416</v>
       </c>
       <c r="M19">
-        <v>11.08618489867697</v>
+        <v>14.31272128889408</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.63131752230283</v>
+        <v>22.69588982788067</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.04083870483201</v>
+        <v>11.9760006124638</v>
       </c>
       <c r="C20">
-        <v>8.9668522297161</v>
+        <v>13.13274138074131</v>
       </c>
       <c r="D20">
-        <v>6.025850372482641</v>
+        <v>5.654878340192025</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.62483731033685</v>
+        <v>25.30936420876453</v>
       </c>
       <c r="G20">
-        <v>22.92703533590597</v>
+        <v>30.46529143045668</v>
       </c>
       <c r="H20">
-        <v>8.88271159003345</v>
+        <v>14.74712899793676</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.95442710119796</v>
+        <v>9.177509308409162</v>
       </c>
       <c r="L20">
-        <v>7.543058569104624</v>
+        <v>11.13904650238759</v>
       </c>
       <c r="M20">
-        <v>11.22704482301633</v>
+        <v>14.33384529285336</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.62461716267994</v>
+        <v>22.67109414154583</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.01153705048848</v>
+        <v>12.32394832129806</v>
       </c>
       <c r="C21">
-        <v>8.826054249042627</v>
+        <v>13.08897103677224</v>
       </c>
       <c r="D21">
-        <v>6.250103711824363</v>
+        <v>5.741929235203745</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.98444370395635</v>
+        <v>25.28041098484564</v>
       </c>
       <c r="G21">
-        <v>23.29793031836579</v>
+        <v>30.39767783697376</v>
       </c>
       <c r="H21">
-        <v>8.814042423358327</v>
+        <v>14.69723519676704</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.55723076009276</v>
+        <v>9.465466174392896</v>
       </c>
       <c r="L21">
-        <v>7.703718977145167</v>
+        <v>11.13987258932937</v>
       </c>
       <c r="M21">
-        <v>11.69282082253781</v>
+        <v>14.40686920278403</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.61995478162305</v>
+        <v>22.59303815053459</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.61921453759483</v>
+        <v>12.54715084689246</v>
       </c>
       <c r="C22">
-        <v>8.735979481385597</v>
+        <v>13.06148576554028</v>
       </c>
       <c r="D22">
-        <v>6.39221852559967</v>
+        <v>5.797592183262941</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.23397861651292</v>
+        <v>25.26697731381272</v>
       </c>
       <c r="G22">
-        <v>23.56701440289404</v>
+        <v>30.3614176581992</v>
       </c>
       <c r="H22">
-        <v>8.774984357566504</v>
+        <v>14.66651092119108</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.9375631696469</v>
+        <v>9.647901258313825</v>
       </c>
       <c r="L22">
-        <v>7.810900855311647</v>
+        <v>11.14190340197616</v>
       </c>
       <c r="M22">
-        <v>11.99129337161728</v>
+        <v>14.45607415049596</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.63087488088501</v>
+        <v>22.54594679089945</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.29731668112236</v>
+        <v>12.42843057477132</v>
       </c>
       <c r="C23">
-        <v>8.783877770276769</v>
+        <v>13.0760528408205</v>
       </c>
       <c r="D23">
-        <v>6.316782090013508</v>
+        <v>5.767999039205208</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.09946489443319</v>
+        <v>25.27364472539244</v>
       </c>
       <c r="G23">
-        <v>23.42092119310308</v>
+        <v>30.38004322602563</v>
       </c>
       <c r="H23">
-        <v>8.795279330047348</v>
+        <v>14.68273668203964</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.73582819880509</v>
+        <v>9.551070150869657</v>
       </c>
       <c r="L23">
-        <v>7.75350162568408</v>
+        <v>11.14068347648138</v>
       </c>
       <c r="M23">
-        <v>11.83255722988116</v>
+        <v>14.42968032052635</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.62372589564458</v>
+        <v>22.57072097646897</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.02451864959017</v>
+        <v>11.97024789804527</v>
       </c>
       <c r="C24">
-        <v>8.969186704195385</v>
+        <v>13.13347576980383</v>
       </c>
       <c r="D24">
-        <v>6.022111405077252</v>
+        <v>5.653435387083569</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.61920351985708</v>
+        <v>25.3099300489457</v>
       </c>
       <c r="G24">
-        <v>22.92141502231495</v>
+        <v>30.46653001264035</v>
       </c>
       <c r="H24">
-        <v>8.88392821421226</v>
+        <v>14.7479763051813</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.94434645602632</v>
+        <v>9.172708053585655</v>
       </c>
       <c r="L24">
-        <v>7.540470682274568</v>
+        <v>11.13905825066646</v>
       </c>
       <c r="M24">
-        <v>11.2193366838206</v>
+        <v>14.33267742964518</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.62491964670288</v>
+        <v>22.6724360535273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.53540193250228</v>
+        <v>11.46044714370389</v>
       </c>
       <c r="C25">
-        <v>9.177592643740248</v>
+        <v>13.20025570784327</v>
       </c>
       <c r="D25">
-        <v>5.685862926723382</v>
+        <v>5.524861437751032</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.16280216291407</v>
+        <v>25.3726047093644</v>
       </c>
       <c r="G25">
-        <v>22.49294593672746</v>
+        <v>30.5936764981458</v>
       </c>
       <c r="H25">
-        <v>9.00277854596958</v>
+        <v>14.82644195961541</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.03314155871124</v>
+        <v>8.741046554239825</v>
       </c>
       <c r="L25">
-        <v>7.320593703143286</v>
+        <v>11.14374061543861</v>
       </c>
       <c r="M25">
-        <v>10.53482136297316</v>
+        <v>14.23470549026356</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.6818863032443</v>
+        <v>22.79894971704186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.07461541334959</v>
+        <v>13.33735602586285</v>
       </c>
       <c r="C2">
-        <v>13.25362651949753</v>
+        <v>9.338592978422373</v>
       </c>
       <c r="D2">
-        <v>5.426202884781771</v>
+        <v>5.423361273171685</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.43893045904739</v>
+        <v>17.87849363240771</v>
       </c>
       <c r="G2">
-        <v>30.71617546584923</v>
+        <v>22.26661225464256</v>
       </c>
       <c r="H2">
-        <v>14.89119137541703</v>
+        <v>9.108470386925148</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.404439517062462</v>
+        <v>11.31437559633158</v>
       </c>
       <c r="L2">
-        <v>11.15275193508069</v>
+        <v>7.16778011637987</v>
       </c>
       <c r="M2">
-        <v>14.16860043662403</v>
+        <v>10.01417010029603</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.90650877922387</v>
+        <v>14.7670268661854</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.80827132442156</v>
+        <v>12.46126362287879</v>
       </c>
       <c r="C3">
-        <v>13.29243649415632</v>
+        <v>9.452529253497726</v>
       </c>
       <c r="D3">
-        <v>5.357019768673666</v>
+        <v>5.23673505176182</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.49642236383876</v>
+        <v>17.71714742787156</v>
       </c>
       <c r="G3">
-        <v>30.81707362864761</v>
+        <v>22.16536815680779</v>
       </c>
       <c r="H3">
-        <v>14.93943122608546</v>
+        <v>9.190618472443203</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.165488985032766</v>
+        <v>10.79859444980472</v>
       </c>
       <c r="L3">
-        <v>11.16234124483018</v>
+        <v>7.070147301381128</v>
       </c>
       <c r="M3">
-        <v>14.12770537130639</v>
+        <v>9.652952994762041</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.98836933419144</v>
+        <v>14.84936445490987</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.64294795579683</v>
+        <v>11.89145743750097</v>
       </c>
       <c r="C4">
-        <v>13.3175746228034</v>
+        <v>9.524903968167719</v>
       </c>
       <c r="D4">
-        <v>5.313455684953329</v>
+        <v>5.118079440133282</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.53789072787766</v>
+        <v>17.63312571680563</v>
       </c>
       <c r="G4">
-        <v>30.8877946595122</v>
+        <v>22.12761597497645</v>
       </c>
       <c r="H4">
-        <v>14.97120297090932</v>
+        <v>9.245994645637241</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.013773288976477</v>
+        <v>10.4682989599415</v>
       </c>
       <c r="L4">
-        <v>11.16994992461506</v>
+        <v>7.013205062425834</v>
       </c>
       <c r="M4">
-        <v>14.10456664314422</v>
+        <v>9.427839439244456</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.04304779728473</v>
+        <v>14.91132575485107</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.57522566066958</v>
+        <v>11.65120989922523</v>
       </c>
       <c r="C5">
-        <v>13.32814857841056</v>
+        <v>9.555010415029507</v>
       </c>
       <c r="D5">
-        <v>5.295439496132818</v>
+        <v>5.068744888084231</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.55633747862251</v>
+        <v>17.6025989508836</v>
       </c>
       <c r="G5">
-        <v>30.91881136557175</v>
+        <v>22.11816159530362</v>
       </c>
       <c r="H5">
-        <v>14.98469173806409</v>
+        <v>9.269766861398866</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.950747919943596</v>
+        <v>10.33037913577406</v>
       </c>
       <c r="L5">
-        <v>11.17348369495393</v>
+        <v>6.990767097073272</v>
       </c>
       <c r="M5">
-        <v>14.09563967978406</v>
+        <v>9.335402901547878</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.06643896861422</v>
+        <v>14.9393351419905</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.56396212233794</v>
+        <v>11.61083015909496</v>
       </c>
       <c r="C6">
-        <v>13.32992433108013</v>
+        <v>9.560046756354334</v>
       </c>
       <c r="D6">
-        <v>5.292432289836948</v>
+        <v>5.060494941364055</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.55949395196035</v>
+        <v>17.59775197964617</v>
       </c>
       <c r="G6">
-        <v>30.92409414217785</v>
+        <v>22.11694350575924</v>
       </c>
       <c r="H6">
-        <v>14.98696425361692</v>
+        <v>9.27378605908048</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.940211891456022</v>
+        <v>10.30728027248326</v>
       </c>
       <c r="L6">
-        <v>11.17409664884048</v>
+        <v>6.987087864469875</v>
       </c>
       <c r="M6">
-        <v>14.09418788478567</v>
+        <v>9.320015740001878</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.07039001774442</v>
+        <v>14.9441496396201</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64203592097632</v>
+        <v>11.8882499940658</v>
       </c>
       <c r="C7">
-        <v>13.31771588966263</v>
+        <v>9.525307504525024</v>
       </c>
       <c r="D7">
-        <v>5.313213766451383</v>
+        <v>5.117418013118516</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.53813324340044</v>
+        <v>17.63269909020741</v>
       </c>
       <c r="G7">
-        <v>30.88820407543625</v>
+        <v>22.12746474499776</v>
       </c>
       <c r="H7">
-        <v>14.97138269211355</v>
+        <v>9.246310408473393</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.01292808658498</v>
+        <v>10.46645223074133</v>
       </c>
       <c r="L7">
-        <v>11.16999582784418</v>
+        <v>7.012899339752961</v>
       </c>
       <c r="M7">
-        <v>14.10444420893284</v>
+        <v>9.426595458204112</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.04335876897943</v>
+        <v>14.91169246668179</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.98320810803745</v>
+        <v>13.0418773555035</v>
       </c>
       <c r="C8">
-        <v>13.26673712731286</v>
+        <v>9.377379672147182</v>
       </c>
       <c r="D8">
-        <v>5.402579403635962</v>
+        <v>5.359879718165603</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.4574718113322</v>
+        <v>17.81969958080807</v>
       </c>
       <c r="G8">
-        <v>30.74914058785155</v>
+        <v>22.22651528171826</v>
       </c>
       <c r="H8">
-        <v>14.90737795944246</v>
+        <v>9.13574844103861</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.323119686567853</v>
+        <v>11.13941180763495</v>
       </c>
       <c r="L8">
-        <v>11.15570148031948</v>
+        <v>7.133499761395957</v>
       </c>
       <c r="M8">
-        <v>14.15409483588476</v>
+        <v>9.890389677638414</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.93381714362106</v>
+        <v>14.79298358211846</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.63400855941341</v>
+        <v>15.05268987432624</v>
       </c>
       <c r="C9">
-        <v>13.17711075633321</v>
+        <v>9.106232695535315</v>
       </c>
       <c r="D9">
-        <v>5.568813086519274</v>
+        <v>5.801514751490795</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.34835309025898</v>
+        <v>18.30840274475841</v>
       </c>
       <c r="G9">
-        <v>30.54634361004839</v>
+        <v>22.62300880015177</v>
       </c>
       <c r="H9">
-        <v>14.7989280487306</v>
+        <v>8.959804044069212</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.88947596209141</v>
+        <v>12.34764237352653</v>
       </c>
       <c r="L9">
-        <v>11.1413008563755</v>
+        <v>7.393286074060859</v>
       </c>
       <c r="M9">
-        <v>14.26679035117713</v>
+        <v>10.76822503206323</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.75409262062557</v>
+        <v>14.65567547511796</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.0959620437721</v>
+        <v>16.37904899894765</v>
       </c>
       <c r="C10">
-        <v>13.1175106929909</v>
+        <v>8.91822922310104</v>
       </c>
       <c r="D10">
-        <v>5.684937897264408</v>
+        <v>6.103575605474097</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.29822715341762</v>
+        <v>18.7446632245037</v>
       </c>
       <c r="G10">
-        <v>30.44038108646024</v>
+        <v>23.0480750669097</v>
       </c>
       <c r="H10">
-        <v>14.72963237229945</v>
+        <v>8.857949794868262</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.277318034607797</v>
+        <v>13.16375057234879</v>
       </c>
       <c r="L10">
-        <v>11.13899448607957</v>
+        <v>7.597538710238775</v>
       </c>
       <c r="M10">
-        <v>14.3584968644774</v>
+        <v>11.38772141261415</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.64350447781682</v>
+        <v>14.61999200124573</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.30163927058946</v>
+        <v>16.95019984074184</v>
       </c>
       <c r="C11">
-        <v>13.09174186351488</v>
+        <v>8.835063873775878</v>
       </c>
       <c r="D11">
-        <v>5.736359266224577</v>
+        <v>6.235829680689504</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.28196724903172</v>
+        <v>18.96029743622602</v>
       </c>
       <c r="G11">
-        <v>30.40159749386255</v>
+        <v>23.27235365283894</v>
       </c>
       <c r="H11">
-        <v>14.70035841167341</v>
+        <v>8.818158715923257</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.447139247274976</v>
+        <v>13.5189619193659</v>
       </c>
       <c r="L11">
-        <v>11.1397320423058</v>
+        <v>7.693179559973817</v>
       </c>
       <c r="M11">
-        <v>14.40205009933617</v>
+        <v>11.66297846700744</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.59786757346065</v>
+        <v>14.619456626391</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.37880908874359</v>
+        <v>17.16189273189578</v>
       </c>
       <c r="C12">
-        <v>13.08217618098619</v>
+        <v>8.803905013443158</v>
       </c>
       <c r="D12">
-        <v>5.755621053132567</v>
+        <v>6.285149613453024</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.27675166728151</v>
+        <v>19.04444235327516</v>
       </c>
       <c r="G12">
-        <v>30.38827099116866</v>
+        <v>23.36185312590039</v>
       </c>
       <c r="H12">
-        <v>14.68959626798144</v>
+        <v>8.804084772830111</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.510460790907429</v>
+        <v>13.65113498021611</v>
       </c>
       <c r="L12">
-        <v>11.14026722261675</v>
+        <v>7.729772102997932</v>
       </c>
       <c r="M12">
-        <v>14.41879738859934</v>
+        <v>11.76619779918872</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.58125876475995</v>
+        <v>14.62163982033234</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.36222212175141</v>
+        <v>17.11650429378714</v>
       </c>
       <c r="C13">
-        <v>13.08422777660055</v>
+        <v>8.810600853989662</v>
       </c>
       <c r="D13">
-        <v>5.751482169149915</v>
+        <v>6.274561857670123</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.27783304580916</v>
+        <v>19.02620931949284</v>
       </c>
       <c r="G13">
-        <v>30.39108052478601</v>
+        <v>23.34237276898072</v>
       </c>
       <c r="H13">
-        <v>14.69189971270191</v>
+        <v>8.807070755287198</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.496867744265812</v>
+        <v>13.62277352078945</v>
       </c>
       <c r="L13">
-        <v>11.14014059939102</v>
+        <v>7.721874804653046</v>
       </c>
       <c r="M13">
-        <v>14.41517938749829</v>
+        <v>11.74401381589635</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.5848058209182</v>
+        <v>14.6210614573547</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.3080028200122</v>
+        <v>16.96770766961809</v>
       </c>
       <c r="C14">
-        <v>13.09095103725402</v>
+        <v>8.832493749321404</v>
       </c>
       <c r="D14">
-        <v>5.737948208091213</v>
+        <v>6.239902635143726</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.28151928394145</v>
+        <v>18.96717012485899</v>
       </c>
       <c r="G14">
-        <v>30.4004738287727</v>
+        <v>23.27962458905126</v>
       </c>
       <c r="H14">
-        <v>14.69946652555776</v>
+        <v>8.81698060529472</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.452368700938859</v>
+        <v>13.5298828756343</v>
       </c>
       <c r="L14">
-        <v>11.13977095003628</v>
+        <v>7.696182619269952</v>
       </c>
       <c r="M14">
-        <v>14.40342286036406</v>
+        <v>11.67149108813298</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.59648766346248</v>
+        <v>14.61958768124058</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.27469665547148</v>
+        <v>16.87596906045974</v>
       </c>
       <c r="C15">
-        <v>13.09509426338592</v>
+        <v>8.845947134745849</v>
       </c>
       <c r="D15">
-        <v>5.729630626092237</v>
+        <v>6.218573096314273</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.28389986423308</v>
+        <v>18.93133148133395</v>
       </c>
       <c r="G15">
-        <v>30.40640476346756</v>
+        <v>23.24178805754398</v>
       </c>
       <c r="H15">
-        <v>14.7041435123947</v>
+        <v>8.823181766019497</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.424982348082017</v>
+        <v>13.47267945563045</v>
       </c>
       <c r="L15">
-        <v>11.13957781966806</v>
+        <v>7.680493823547573</v>
       </c>
       <c r="M15">
-        <v>14.39625452560616</v>
+        <v>11.62693475963324</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.60373079903984</v>
+        <v>14.6189995040481</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.08242425754291</v>
+        <v>16.34107831589489</v>
       </c>
       <c r="C16">
-        <v>13.11922171465854</v>
+        <v>8.923711293925408</v>
       </c>
       <c r="D16">
-        <v>5.681548402000652</v>
+        <v>6.094826928222644</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.29942151684599</v>
+        <v>18.73091845149588</v>
       </c>
       <c r="G16">
-        <v>30.44310571272399</v>
+        <v>23.03405107807148</v>
       </c>
       <c r="H16">
-        <v>14.73159073844418</v>
+        <v>8.860686372262535</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.266083680545121</v>
+        <v>13.14021102752208</v>
       </c>
       <c r="L16">
-        <v>11.13898215197283</v>
+        <v>7.591341780884879</v>
       </c>
       <c r="M16">
-        <v>14.35568670396525</v>
+        <v>11.36959440193774</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.64658104756752</v>
+        <v>14.62035383562676</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.96327311249249</v>
+        <v>16.00471885365023</v>
       </c>
       <c r="C17">
-        <v>13.13436667482748</v>
+        <v>8.972017472733615</v>
       </c>
       <c r="D17">
-        <v>5.65168571265648</v>
+        <v>6.017576679494742</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.31062005341097</v>
+        <v>18.6123868480555</v>
       </c>
       <c r="G17">
-        <v>30.46803720069446</v>
+        <v>22.91462353252447</v>
       </c>
       <c r="H17">
-        <v>14.74900464665192</v>
+        <v>8.885406896275578</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.166884967283279</v>
+        <v>12.93211896098084</v>
       </c>
       <c r="L17">
-        <v>11.13907364792282</v>
+        <v>7.537336102178029</v>
       </c>
       <c r="M17">
-        <v>14.33126324826588</v>
+        <v>11.20999068965705</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.67406539389895</v>
+        <v>14.62529634015401</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.89432400639739</v>
+        <v>15.80821870886381</v>
       </c>
       <c r="C18">
-        <v>13.14320416179816</v>
+        <v>9.000024187744094</v>
       </c>
       <c r="D18">
-        <v>5.634377776862066</v>
+        <v>5.972660180250186</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.31767695938586</v>
+        <v>18.54582679201177</v>
       </c>
       <c r="G18">
-        <v>30.48326343263573</v>
+        <v>22.84883546440507</v>
       </c>
       <c r="H18">
-        <v>14.75923235910087</v>
+        <v>8.900237963558887</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.109208187649127</v>
+        <v>12.8109213528503</v>
       </c>
       <c r="L18">
-        <v>11.13929452010452</v>
+        <v>7.506530962814565</v>
       </c>
       <c r="M18">
-        <v>14.31738886601721</v>
+        <v>11.1175774207855</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.69031316696202</v>
+        <v>14.6296088570471</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.87090981357885</v>
+        <v>15.74116457386157</v>
       </c>
       <c r="C19">
-        <v>13.14621813474433</v>
+        <v>9.009545113428208</v>
       </c>
       <c r="D19">
-        <v>5.628495248864704</v>
+        <v>5.957369744451813</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.32017203661697</v>
+        <v>18.52356758463568</v>
       </c>
       <c r="G19">
-        <v>30.48857081688256</v>
+        <v>22.82705533073788</v>
       </c>
       <c r="H19">
-        <v>14.76273164943248</v>
+        <v>8.905363131694603</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.089574429928552</v>
+        <v>12.76962793052903</v>
       </c>
       <c r="L19">
-        <v>11.13939823001416</v>
+        <v>7.49614560413235</v>
       </c>
       <c r="M19">
-        <v>14.31272128889408</v>
+        <v>11.08618489867696</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.69588982788067</v>
+        <v>14.63131752230275</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.9760006124638</v>
+        <v>16.04083870483195</v>
       </c>
       <c r="C20">
-        <v>13.13274138074131</v>
+        <v>8.966852229716503</v>
       </c>
       <c r="D20">
-        <v>5.654878340192025</v>
+        <v>6.025850372482595</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.30936420876453</v>
+        <v>18.62483731033693</v>
       </c>
       <c r="G20">
-        <v>30.46529143045668</v>
+        <v>22.92703533590609</v>
       </c>
       <c r="H20">
-        <v>14.74712899793676</v>
+        <v>8.882711590033512</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.177509308409162</v>
+        <v>12.95442710119796</v>
       </c>
       <c r="L20">
-        <v>11.13904650238759</v>
+        <v>7.543058569104575</v>
       </c>
       <c r="M20">
-        <v>14.33384529285336</v>
+        <v>11.22704482301632</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.67109414154583</v>
+        <v>14.62461716268002</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.32394832129806</v>
+        <v>17.01153705048851</v>
       </c>
       <c r="C21">
-        <v>13.08897103677224</v>
+        <v>8.8260542490425</v>
       </c>
       <c r="D21">
-        <v>5.741929235203745</v>
+        <v>6.250103711824274</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.28041098484564</v>
+        <v>18.98444370395628</v>
       </c>
       <c r="G21">
-        <v>30.39767783697376</v>
+        <v>23.29793031836559</v>
       </c>
       <c r="H21">
-        <v>14.69723519676704</v>
+        <v>8.814042423358265</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.465466174392896</v>
+        <v>13.55723076009278</v>
       </c>
       <c r="L21">
-        <v>11.13987258932937</v>
+        <v>7.703718977145198</v>
       </c>
       <c r="M21">
-        <v>14.40686920278403</v>
+        <v>11.69282082253782</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.59303815053459</v>
+        <v>14.61995478162294</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.54715084689246</v>
+        <v>17.61921453759484</v>
       </c>
       <c r="C22">
-        <v>13.06148576554028</v>
+        <v>8.735979481385723</v>
       </c>
       <c r="D22">
-        <v>5.797592183262941</v>
+        <v>6.392218525599713</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.26697731381272</v>
+        <v>19.23397861651287</v>
       </c>
       <c r="G22">
-        <v>30.3614176581992</v>
+        <v>23.56701440289406</v>
       </c>
       <c r="H22">
-        <v>14.66651092119108</v>
+        <v>8.774984357566504</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.647901258313825</v>
+        <v>13.93756316964691</v>
       </c>
       <c r="L22">
-        <v>11.14190340197616</v>
+        <v>7.81090085531165</v>
       </c>
       <c r="M22">
-        <v>14.45607415049596</v>
+        <v>11.99129337161727</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.54594679089945</v>
+        <v>14.63087488088498</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.42843057477132</v>
+        <v>17.29731668112237</v>
       </c>
       <c r="C23">
-        <v>13.0760528408205</v>
+        <v>8.783877770276639</v>
       </c>
       <c r="D23">
-        <v>5.767999039205208</v>
+        <v>6.316782090013609</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.27364472539244</v>
+        <v>19.09946489443312</v>
       </c>
       <c r="G23">
-        <v>30.38004322602563</v>
+        <v>23.42092119310298</v>
       </c>
       <c r="H23">
-        <v>14.68273668203964</v>
+        <v>8.795279330047352</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.551070150869657</v>
+        <v>13.73582819880507</v>
       </c>
       <c r="L23">
-        <v>11.14068347648138</v>
+        <v>7.753501625684091</v>
       </c>
       <c r="M23">
-        <v>14.42968032052635</v>
+        <v>11.83255722988114</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.57072097646897</v>
+        <v>14.62372589564453</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.97024789804527</v>
+        <v>16.02451864959022</v>
       </c>
       <c r="C24">
-        <v>13.13347576980383</v>
+        <v>8.969186704195126</v>
       </c>
       <c r="D24">
-        <v>5.653435387083569</v>
+        <v>6.022111405077415</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.3099300489457</v>
+        <v>18.61920351985694</v>
       </c>
       <c r="G24">
-        <v>30.46653001264035</v>
+        <v>22.92141502231467</v>
       </c>
       <c r="H24">
-        <v>14.7479763051813</v>
+        <v>8.883928214212251</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.172708053585655</v>
+        <v>12.94434645602636</v>
       </c>
       <c r="L24">
-        <v>11.13905825066646</v>
+        <v>7.540470682274593</v>
       </c>
       <c r="M24">
-        <v>14.33267742964518</v>
+        <v>11.21933668382061</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.6724360535273</v>
+        <v>14.62491964670281</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.46044714370389</v>
+        <v>14.5354019325023</v>
       </c>
       <c r="C25">
-        <v>13.20025570784327</v>
+        <v>9.177592643740248</v>
       </c>
       <c r="D25">
-        <v>5.524861437751032</v>
+        <v>5.685862926723237</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.3726047093644</v>
+        <v>18.1628021629142</v>
       </c>
       <c r="G25">
-        <v>30.5936764981458</v>
+        <v>22.4929459367277</v>
       </c>
       <c r="H25">
-        <v>14.82644195961541</v>
+        <v>9.002778545969575</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.741046554239825</v>
+        <v>12.03314155871118</v>
       </c>
       <c r="L25">
-        <v>11.14374061543861</v>
+        <v>7.320593703143338</v>
       </c>
       <c r="M25">
-        <v>14.23470549026356</v>
+        <v>10.53482136297321</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.79894971704186</v>
+        <v>14.6818863032444</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.33735602586285</v>
+        <v>13.3654900892121</v>
       </c>
       <c r="C2">
-        <v>9.338592978422373</v>
+        <v>7.710964299716788</v>
       </c>
       <c r="D2">
-        <v>5.423361273171685</v>
+        <v>6.803490379225355</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.87849363240771</v>
+        <v>21.37295423838673</v>
       </c>
       <c r="G2">
-        <v>22.26661225464256</v>
+        <v>23.00279590868803</v>
       </c>
       <c r="H2">
-        <v>9.108470386925148</v>
+        <v>2.603169886370239</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.199188262650817</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.414067101199631</v>
       </c>
       <c r="K2">
-        <v>11.31437559633158</v>
+        <v>15.55205231192755</v>
       </c>
       <c r="L2">
-        <v>7.16778011637987</v>
+        <v>6.397864770349707</v>
       </c>
       <c r="M2">
-        <v>10.01417010029603</v>
+        <v>10.78904389039646</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.57770076343648</v>
       </c>
       <c r="O2">
-        <v>14.7670268661854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.95099455300173</v>
+      </c>
+      <c r="Q2">
+        <v>15.30110566855982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.46126362287879</v>
+        <v>12.53852930014196</v>
       </c>
       <c r="C3">
-        <v>9.452529253497726</v>
+        <v>7.576088929671053</v>
       </c>
       <c r="D3">
-        <v>5.23673505176182</v>
+        <v>6.568640727103249</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.71714742787156</v>
+        <v>21.17327575318203</v>
       </c>
       <c r="G3">
-        <v>22.16536815680779</v>
+        <v>22.80092033386977</v>
       </c>
       <c r="H3">
-        <v>9.190618472443203</v>
+        <v>2.773599246717026</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.323562588247779</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.446233702523472</v>
       </c>
       <c r="K3">
-        <v>10.79859444980472</v>
+        <v>15.60613504814613</v>
       </c>
       <c r="L3">
-        <v>7.070147301381128</v>
+        <v>6.351257537240662</v>
       </c>
       <c r="M3">
-        <v>9.652952994762041</v>
+        <v>10.18772648832375</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.356486478303477</v>
       </c>
       <c r="O3">
-        <v>14.84936445490987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.06635700601838</v>
+      </c>
+      <c r="Q3">
+        <v>15.29996609115115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89145743750097</v>
+        <v>12.0003225043909</v>
       </c>
       <c r="C4">
-        <v>9.524903968167719</v>
+        <v>7.491876995298341</v>
       </c>
       <c r="D4">
-        <v>5.118079440133282</v>
+        <v>6.421055200467624</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.63312571680563</v>
+        <v>21.05623443658422</v>
       </c>
       <c r="G4">
-        <v>22.12761597497645</v>
+        <v>22.68549851522127</v>
       </c>
       <c r="H4">
-        <v>9.245994645637241</v>
+        <v>2.882410351131319</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.403709722244879</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.468370950378839</v>
       </c>
       <c r="K4">
-        <v>10.4682989599415</v>
+        <v>15.64271511474119</v>
       </c>
       <c r="L4">
-        <v>7.013205062425834</v>
+        <v>6.321670002872357</v>
       </c>
       <c r="M4">
-        <v>9.427839439244456</v>
+        <v>9.798794073037206</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.217966383605745</v>
       </c>
       <c r="O4">
-        <v>14.91132575485107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.13899941799404</v>
+      </c>
+      <c r="Q4">
+        <v>15.30420894409917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65120989922523</v>
+        <v>11.76884057019244</v>
       </c>
       <c r="C5">
-        <v>9.555010415029507</v>
+        <v>7.45964990905896</v>
       </c>
       <c r="D5">
-        <v>5.068744888084231</v>
+        <v>6.360319683292323</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.6025989508836</v>
+        <v>21.00509484313125</v>
       </c>
       <c r="G5">
-        <v>22.11816159530362</v>
+        <v>22.63271925989046</v>
       </c>
       <c r="H5">
-        <v>9.269766861398866</v>
+        <v>2.928073774908768</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.439955286441049</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.476741704693298</v>
       </c>
       <c r="K5">
-        <v>10.33037913577406</v>
+        <v>15.65494539807584</v>
       </c>
       <c r="L5">
-        <v>6.990767097073272</v>
+        <v>6.308770930124247</v>
       </c>
       <c r="M5">
-        <v>9.335402901547878</v>
+        <v>9.635402159564714</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.161987423927406</v>
       </c>
       <c r="O5">
-        <v>14.9393351419905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.16901986035759</v>
+      </c>
+      <c r="Q5">
+        <v>15.30399956645235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.61083015909496</v>
+        <v>11.7243644313743</v>
       </c>
       <c r="C6">
-        <v>9.560046756354334</v>
+        <v>7.457286310259597</v>
       </c>
       <c r="D6">
-        <v>5.060494941364055</v>
+        <v>6.350408982154132</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.59775197964617</v>
+        <v>20.99074471693717</v>
       </c>
       <c r="G6">
-        <v>22.11694350575924</v>
+        <v>22.61444879167249</v>
       </c>
       <c r="H6">
-        <v>9.27378605908048</v>
+        <v>2.936042175034473</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.449408000793391</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.476649829778504</v>
       </c>
       <c r="K6">
-        <v>10.30728027248326</v>
+        <v>15.65273645206298</v>
       </c>
       <c r="L6">
-        <v>6.987087864469875</v>
+        <v>6.305882586362155</v>
       </c>
       <c r="M6">
-        <v>9.320015740001878</v>
+        <v>9.607968456815847</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.153984883330251</v>
       </c>
       <c r="O6">
-        <v>14.9441496396201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.17398753344195</v>
+      </c>
+      <c r="Q6">
+        <v>15.30017868448989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.8882499940658</v>
+        <v>11.98233192884151</v>
       </c>
       <c r="C7">
-        <v>9.525307504525024</v>
+        <v>7.49965484940595</v>
       </c>
       <c r="D7">
-        <v>5.117418013118516</v>
+        <v>6.420830293918717</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.63269909020741</v>
+        <v>21.03937404813111</v>
       </c>
       <c r="G7">
-        <v>22.12746474499776</v>
+        <v>22.65855931635854</v>
       </c>
       <c r="H7">
-        <v>9.246310408473393</v>
+        <v>2.88388410132051</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.413112833159736</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.464346998109407</v>
       </c>
       <c r="K7">
-        <v>10.46645223074133</v>
+        <v>15.63117685005371</v>
       </c>
       <c r="L7">
-        <v>7.012899339752961</v>
+        <v>6.319515480662361</v>
       </c>
       <c r="M7">
-        <v>9.426595458204112</v>
+        <v>9.796586537930274</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.220807417604809</v>
       </c>
       <c r="O7">
-        <v>14.91169246668179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.13932784185047</v>
+      </c>
+      <c r="Q7">
+        <v>15.29368412810126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.0418773555035</v>
+        <v>13.06844814099447</v>
       </c>
       <c r="C8">
-        <v>9.377379672147182</v>
+        <v>7.675628978586725</v>
       </c>
       <c r="D8">
-        <v>5.359879718165603</v>
+        <v>6.72401863331681</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.81969958080807</v>
+        <v>21.2819143671322</v>
       </c>
       <c r="G8">
-        <v>22.22651528171826</v>
+        <v>22.89721803952732</v>
       </c>
       <c r="H8">
-        <v>9.13574844103861</v>
+        <v>2.662144478688987</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.252617626841661</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.419225358147386</v>
       </c>
       <c r="K8">
-        <v>11.13941180763495</v>
+        <v>15.55459153374691</v>
       </c>
       <c r="L8">
-        <v>7.133499761395957</v>
+        <v>6.379449287177167</v>
       </c>
       <c r="M8">
-        <v>9.890389677638414</v>
+        <v>10.58581593783217</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.506624063603297</v>
       </c>
       <c r="O8">
-        <v>14.79298358211846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.99050956263361</v>
+      </c>
+      <c r="Q8">
+        <v>15.28586195359634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05268987432624</v>
+        <v>14.97871400899739</v>
       </c>
       <c r="C9">
-        <v>9.106232695535315</v>
+        <v>7.995001264322981</v>
       </c>
       <c r="D9">
-        <v>5.801514751490795</v>
+        <v>7.287549784029544</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.30840274475841</v>
+        <v>21.82915775863663</v>
       </c>
       <c r="G9">
-        <v>22.62300880015177</v>
+        <v>23.47929331079704</v>
       </c>
       <c r="H9">
-        <v>8.959804044069212</v>
+        <v>2.258482961513412</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.953047059906129</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.357477189122445</v>
       </c>
       <c r="K9">
-        <v>12.34764237352653</v>
+        <v>15.45267597885674</v>
       </c>
       <c r="L9">
-        <v>7.393286074060859</v>
+        <v>6.492658587770532</v>
       </c>
       <c r="M9">
-        <v>10.76822503206323</v>
+        <v>11.97482412394762</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.037100313977959</v>
       </c>
       <c r="O9">
-        <v>14.65567547511796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.71266290815149</v>
+      </c>
+      <c r="Q9">
+        <v>15.3295468895957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.37904899894765</v>
+        <v>16.18658422339389</v>
       </c>
       <c r="C10">
-        <v>8.91822922310104</v>
+        <v>8.24613031295303</v>
       </c>
       <c r="D10">
-        <v>6.103575605474097</v>
+        <v>7.6252290999566</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>18.7446632245037</v>
+        <v>22.14832680697016</v>
       </c>
       <c r="G10">
-        <v>23.0480750669097</v>
+        <v>23.81971933257327</v>
       </c>
       <c r="H10">
-        <v>8.857949794868262</v>
+        <v>2.010279769250161</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.760622331974772</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.303963913316728</v>
       </c>
       <c r="K10">
-        <v>13.16375057234879</v>
+        <v>15.34516960181506</v>
       </c>
       <c r="L10">
-        <v>7.597538710238775</v>
+        <v>6.537302639747661</v>
       </c>
       <c r="M10">
-        <v>11.38772141261415</v>
+        <v>12.88796925541583</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.319050154340474</v>
       </c>
       <c r="O10">
-        <v>14.61999200124573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.52027266722152</v>
+      </c>
+      <c r="Q10">
+        <v>15.33505928981228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.95019984074184</v>
+        <v>16.34474469465787</v>
       </c>
       <c r="C11">
-        <v>8.835063873775878</v>
+        <v>8.553520309631498</v>
       </c>
       <c r="D11">
-        <v>6.235829680689504</v>
+        <v>7.304990504744518</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.96029743622602</v>
+        <v>21.40454945651636</v>
       </c>
       <c r="G11">
-        <v>23.27235365283894</v>
+        <v>22.93402360995382</v>
       </c>
       <c r="H11">
-        <v>8.818158715923257</v>
+        <v>2.940832321111708</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.729322205373532</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.113795785379994</v>
       </c>
       <c r="K11">
-        <v>13.5189619193659</v>
+        <v>14.89860935402124</v>
       </c>
       <c r="L11">
-        <v>7.693179559973817</v>
+        <v>6.318443596596852</v>
       </c>
       <c r="M11">
-        <v>11.66297846700744</v>
+        <v>13.20935841418038</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.671837962061039</v>
       </c>
       <c r="O11">
-        <v>14.619456626391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.47124998108576</v>
+      </c>
+      <c r="Q11">
+        <v>14.91258544808721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.16189273189578</v>
+        <v>16.24620386141439</v>
       </c>
       <c r="C12">
-        <v>8.803905013443158</v>
+        <v>8.766371519190468</v>
       </c>
       <c r="D12">
-        <v>6.285149613453024</v>
+        <v>6.960242879256002</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.04444235327516</v>
+        <v>20.7225851835751</v>
       </c>
       <c r="G12">
-        <v>23.36185312590039</v>
+        <v>22.13761865009186</v>
       </c>
       <c r="H12">
-        <v>8.804084772830111</v>
+        <v>4.274853326076811</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.723328389296438</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.968439931477084</v>
       </c>
       <c r="K12">
-        <v>13.65113498021611</v>
+        <v>14.5644878579731</v>
       </c>
       <c r="L12">
-        <v>7.729772102997932</v>
+        <v>6.195763655088368</v>
       </c>
       <c r="M12">
-        <v>11.76619779918872</v>
+        <v>13.29473477864692</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.080214366464031</v>
       </c>
       <c r="O12">
-        <v>14.62163982033234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.47903562592255</v>
+      </c>
+      <c r="Q12">
+        <v>14.56489729861946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.11650429378714</v>
+        <v>15.92369536916608</v>
       </c>
       <c r="C13">
-        <v>8.810600853989662</v>
+        <v>8.930991941749172</v>
       </c>
       <c r="D13">
-        <v>6.274561857670123</v>
+        <v>6.570333783035139</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.02620931949284</v>
+        <v>20.0191244594343</v>
       </c>
       <c r="G13">
-        <v>23.34237276898072</v>
+        <v>21.31642315950713</v>
       </c>
       <c r="H13">
-        <v>8.807070755287198</v>
+        <v>5.673232295693643</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.751483465940185</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.842498937911369</v>
       </c>
       <c r="K13">
-        <v>13.62277352078945</v>
+        <v>14.28008825733803</v>
       </c>
       <c r="L13">
-        <v>7.721874804653046</v>
+        <v>6.138575029825747</v>
       </c>
       <c r="M13">
-        <v>11.74401381589635</v>
+        <v>13.20645367091701</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.499884160686266</v>
       </c>
       <c r="O13">
-        <v>14.6210614573547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.52850002461048</v>
+      </c>
+      <c r="Q13">
+        <v>14.23720409692847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.96770766961809</v>
+        <v>15.5882165435782</v>
       </c>
       <c r="C14">
-        <v>8.832493749321404</v>
+        <v>9.029602006714942</v>
       </c>
       <c r="D14">
-        <v>6.239902635143726</v>
+        <v>6.274971843605972</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.96717012485899</v>
+        <v>19.5142360988022</v>
       </c>
       <c r="G14">
-        <v>23.27962458905126</v>
+        <v>20.72448724193166</v>
       </c>
       <c r="H14">
-        <v>8.81698060529472</v>
+        <v>6.67041946839379</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.789592616467096</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.762740766544223</v>
       </c>
       <c r="K14">
-        <v>13.5298828756343</v>
+        <v>14.10364587316715</v>
       </c>
       <c r="L14">
-        <v>7.696182619269952</v>
+        <v>6.137959609086285</v>
       </c>
       <c r="M14">
-        <v>11.67149108813298</v>
+        <v>13.06500928433368</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.107980138206658</v>
       </c>
       <c r="O14">
-        <v>14.61958768124058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.58225187107067</v>
+      </c>
+      <c r="Q14">
+        <v>14.01571279651377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.87596906045974</v>
+        <v>15.45293482355377</v>
       </c>
       <c r="C15">
-        <v>8.845947134745849</v>
+        <v>9.045773675676131</v>
       </c>
       <c r="D15">
-        <v>6.218573096314273</v>
+        <v>6.193562895434463</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.93133148133395</v>
+        <v>19.38329879282811</v>
       </c>
       <c r="G15">
-        <v>23.24178805754398</v>
+        <v>20.56873170022972</v>
       </c>
       <c r="H15">
-        <v>8.823181766019497</v>
+        <v>6.903134401813363</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.81095172273988</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.746571503021269</v>
       </c>
       <c r="K15">
-        <v>13.47267945563045</v>
+        <v>14.06793824106145</v>
       </c>
       <c r="L15">
-        <v>7.680493823547573</v>
+        <v>6.14214814658051</v>
       </c>
       <c r="M15">
-        <v>11.62693475963324</v>
+        <v>12.9928181119609</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.013793626585335</v>
       </c>
       <c r="O15">
-        <v>14.6189995040481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.60325091262834</v>
+      </c>
+      <c r="Q15">
+        <v>13.96369556000738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.34107831589489</v>
+        <v>14.99103253901869</v>
       </c>
       <c r="C16">
-        <v>8.923711293925408</v>
+        <v>8.912533661275193</v>
       </c>
       <c r="D16">
-        <v>6.094826928222644</v>
+        <v>6.114147477289015</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.73091845149588</v>
+        <v>19.3714077273028</v>
       </c>
       <c r="G16">
-        <v>23.03405107807148</v>
+        <v>20.55963467728974</v>
       </c>
       <c r="H16">
-        <v>8.860686372262535</v>
+        <v>6.706528476388813</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.892968975381303</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.792452267630399</v>
       </c>
       <c r="K16">
-        <v>13.14021102752208</v>
+        <v>14.16730229796429</v>
       </c>
       <c r="L16">
-        <v>7.591341780884879</v>
+        <v>6.130023502246893</v>
       </c>
       <c r="M16">
-        <v>11.36959440193774</v>
+        <v>12.63111033029815</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.997665715219575</v>
       </c>
       <c r="O16">
-        <v>14.62035383562676</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.6673715521762</v>
+      </c>
+      <c r="Q16">
+        <v>14.0202821207274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.00471885365023</v>
+        <v>14.81665298636837</v>
       </c>
       <c r="C17">
-        <v>8.972017472733615</v>
+        <v>8.755244465404747</v>
       </c>
       <c r="D17">
-        <v>6.017576679494742</v>
+        <v>6.213950671283135</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.6123868480555</v>
+        <v>19.63217381281548</v>
       </c>
       <c r="G17">
-        <v>22.91462353252447</v>
+        <v>20.87011816397045</v>
       </c>
       <c r="H17">
-        <v>8.885406896275578</v>
+        <v>5.995701536791025</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.936444183335532</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.869970941527876</v>
       </c>
       <c r="K17">
-        <v>12.93211896098084</v>
+        <v>14.3354897613064</v>
       </c>
       <c r="L17">
-        <v>7.537336102178029</v>
+        <v>6.11495276621728</v>
       </c>
       <c r="M17">
-        <v>11.20999068965705</v>
+        <v>12.4265441148993</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.191191143970424</v>
       </c>
       <c r="O17">
-        <v>14.62529634015401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.68923371686215</v>
+      </c>
+      <c r="Q17">
+        <v>14.18134527751997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.80821870886381</v>
+        <v>14.88657722554242</v>
       </c>
       <c r="C18">
-        <v>9.000024187744094</v>
+        <v>8.55772337689835</v>
       </c>
       <c r="D18">
-        <v>5.972660180250186</v>
+        <v>6.480635401809096</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.54582679201177</v>
+        <v>20.16777262125245</v>
       </c>
       <c r="G18">
-        <v>22.84883546440507</v>
+        <v>21.50643162773514</v>
       </c>
       <c r="H18">
-        <v>8.900237963558887</v>
+        <v>4.796192260878416</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.939899611811154</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.986006106407586</v>
       </c>
       <c r="K18">
-        <v>12.8109213528503</v>
+        <v>14.59346961730983</v>
       </c>
       <c r="L18">
-        <v>7.506530962814565</v>
+        <v>6.132918629044413</v>
       </c>
       <c r="M18">
-        <v>11.1175774207855</v>
+        <v>12.33933006562659</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.609542849413086</v>
       </c>
       <c r="O18">
-        <v>14.6296088570471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.68002622193811</v>
+      </c>
+      <c r="Q18">
+        <v>14.45719145749177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.74116457386157</v>
+        <v>15.12288170699711</v>
       </c>
       <c r="C19">
-        <v>9.009545113428208</v>
+        <v>8.376266636429607</v>
       </c>
       <c r="D19">
-        <v>5.957369744451813</v>
+        <v>6.862503363415712</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.52356758463568</v>
+        <v>20.86074927793125</v>
       </c>
       <c r="G19">
-        <v>22.82705533073788</v>
+        <v>22.31434362598944</v>
       </c>
       <c r="H19">
-        <v>8.905363131694603</v>
+        <v>3.413734655366583</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.928358924320845</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.118188974592254</v>
       </c>
       <c r="K19">
-        <v>12.76962793052903</v>
+        <v>14.89388849566788</v>
       </c>
       <c r="L19">
-        <v>7.49614560413235</v>
+        <v>6.228615993017994</v>
       </c>
       <c r="M19">
-        <v>11.08618489867696</v>
+        <v>12.35466154756526</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.210634811862635</v>
       </c>
       <c r="O19">
-        <v>14.63131752230275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.65412168517136</v>
+      </c>
+      <c r="Q19">
+        <v>14.78905246273131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.04083870483195</v>
+        <v>15.84123238353923</v>
       </c>
       <c r="C20">
-        <v>8.966852229716503</v>
+        <v>8.207419827443717</v>
       </c>
       <c r="D20">
-        <v>6.025850372482595</v>
+        <v>7.537052989084287</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.62483731033693</v>
+        <v>22.0111698041619</v>
       </c>
       <c r="G20">
-        <v>22.92703533590609</v>
+        <v>23.64543301237563</v>
       </c>
       <c r="H20">
-        <v>8.882711590033512</v>
+        <v>2.075865294396383</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.840660174166132</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.303781328223618</v>
       </c>
       <c r="K20">
-        <v>12.95442710119796</v>
+        <v>15.33459846036999</v>
       </c>
       <c r="L20">
-        <v>7.543058569104575</v>
+        <v>6.518847695323954</v>
       </c>
       <c r="M20">
-        <v>11.22704482301632</v>
+        <v>12.6544423013106</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.251673770686645</v>
       </c>
       <c r="O20">
-        <v>14.62461716268002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.57167010760129</v>
+      </c>
+      <c r="Q20">
+        <v>15.29795400938796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.01153705048851</v>
+        <v>16.7924310707217</v>
       </c>
       <c r="C21">
-        <v>8.8260542490425</v>
+        <v>8.362801591819863</v>
       </c>
       <c r="D21">
-        <v>6.250103711824274</v>
+        <v>7.872849525882797</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.98444370395628</v>
+        <v>22.43023657418464</v>
       </c>
       <c r="G21">
-        <v>23.29793031836559</v>
+        <v>24.11826324993179</v>
       </c>
       <c r="H21">
-        <v>8.814042423358265</v>
+        <v>1.847790316769803</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.686437377697113</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.298490420763214</v>
       </c>
       <c r="K21">
-        <v>13.55723076009278</v>
+        <v>15.33497666287312</v>
       </c>
       <c r="L21">
-        <v>7.703718977145198</v>
+        <v>6.603871236058584</v>
       </c>
       <c r="M21">
-        <v>11.69282082253782</v>
+        <v>13.33681100267587</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.602069251980801</v>
       </c>
       <c r="O21">
-        <v>14.61995478162294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.42208875557142</v>
+      </c>
+      <c r="Q21">
+        <v>15.39190131526308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.61921453759484</v>
+        <v>17.37971656114948</v>
       </c>
       <c r="C22">
-        <v>8.735979481385723</v>
+        <v>8.462630555980061</v>
       </c>
       <c r="D22">
-        <v>6.392218525599713</v>
+        <v>8.05873536354677</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.23397861651287</v>
+        <v>22.67588308214794</v>
       </c>
       <c r="G22">
-        <v>23.56701440289406</v>
+        <v>24.40601386786621</v>
       </c>
       <c r="H22">
-        <v>8.774984357566504</v>
+        <v>1.714747698231315</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.578251517841119</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.293219304534992</v>
       </c>
       <c r="K22">
-        <v>13.93756316964691</v>
+        <v>15.33084351265056</v>
       </c>
       <c r="L22">
-        <v>7.81090085531165</v>
+        <v>6.644027798684552</v>
       </c>
       <c r="M22">
-        <v>11.99129337161727</v>
+        <v>13.76014325375728</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.776009928940798</v>
       </c>
       <c r="O22">
-        <v>14.63087488088498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.3265841207456</v>
+      </c>
+      <c r="Q22">
+        <v>15.44721599641471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.29731668112237</v>
+        <v>17.08160824465599</v>
       </c>
       <c r="C23">
-        <v>8.783877770276639</v>
+        <v>8.399835166662283</v>
       </c>
       <c r="D23">
-        <v>6.316782090013609</v>
+        <v>7.959392430492443</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.09946489443312</v>
+        <v>22.56190544146263</v>
       </c>
       <c r="G23">
-        <v>23.42092119310298</v>
+        <v>24.28020884989555</v>
       </c>
       <c r="H23">
-        <v>8.795279330047352</v>
+        <v>1.784677810658333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.623542406496575</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.30053859005602</v>
       </c>
       <c r="K23">
-        <v>13.73582819880507</v>
+        <v>15.34619232206239</v>
       </c>
       <c r="L23">
-        <v>7.753501625684091</v>
+        <v>6.624749382689535</v>
       </c>
       <c r="M23">
-        <v>11.83255722988114</v>
+        <v>13.53588755792977</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.679913357062336</v>
       </c>
       <c r="O23">
-        <v>14.62372589564453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.37677825013073</v>
+      </c>
+      <c r="Q23">
+        <v>15.42912029351926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.02451864959022</v>
+        <v>15.87829512585175</v>
       </c>
       <c r="C24">
-        <v>8.969186704195126</v>
+        <v>8.174554239421852</v>
       </c>
       <c r="D24">
-        <v>6.022111405077415</v>
+        <v>7.574308809657524</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.61920351985694</v>
+        <v>22.11170748864192</v>
       </c>
       <c r="G24">
-        <v>22.92141502231467</v>
+        <v>23.7751709742215</v>
       </c>
       <c r="H24">
-        <v>8.883928214212251</v>
+        <v>2.057271884895135</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.82101237532556</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.325979982026809</v>
       </c>
       <c r="K24">
-        <v>12.94434645602636</v>
+        <v>15.39074216825296</v>
       </c>
       <c r="L24">
-        <v>7.540470682274593</v>
+        <v>6.546823539606855</v>
       </c>
       <c r="M24">
-        <v>11.21933668382061</v>
+        <v>12.64986502548764</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.313637565476345</v>
       </c>
       <c r="O24">
-        <v>14.62491964670281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.57097216494316</v>
+      </c>
+      <c r="Q24">
+        <v>15.35280757384077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.5354019325023</v>
+        <v>14.46561238307962</v>
       </c>
       <c r="C25">
-        <v>9.177592643740248</v>
+        <v>7.924681486994674</v>
       </c>
       <c r="D25">
-        <v>5.685862926723237</v>
+        <v>7.139700821116669</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.1628021629142</v>
+        <v>21.6485502576284</v>
       </c>
       <c r="G25">
-        <v>22.4929459367277</v>
+        <v>23.26888671651506</v>
       </c>
       <c r="H25">
-        <v>9.002778545969575</v>
+        <v>2.365609235547239</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.047304972931386</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.364680979584421</v>
       </c>
       <c r="K25">
-        <v>12.03314155871118</v>
+        <v>15.45632205362338</v>
       </c>
       <c r="L25">
-        <v>7.320593703143338</v>
+        <v>6.459510731948213</v>
       </c>
       <c r="M25">
-        <v>10.53482136297321</v>
+        <v>11.61628305080016</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.902477072469932</v>
       </c>
       <c r="O25">
-        <v>14.6818863032444</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.78683537822544</v>
+      </c>
+      <c r="Q25">
+        <v>15.29458874126169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.3654900892121</v>
+        <v>13.08827749602698</v>
       </c>
       <c r="C2">
-        <v>7.710964299716788</v>
+        <v>7.428748759260576</v>
       </c>
       <c r="D2">
-        <v>6.803490379225355</v>
+        <v>6.824536663880222</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.37295423838673</v>
+        <v>20.92226512458599</v>
       </c>
       <c r="G2">
-        <v>23.00279590868803</v>
+        <v>21.80292774670093</v>
       </c>
       <c r="H2">
-        <v>2.603169886370239</v>
+        <v>2.514881928667346</v>
       </c>
       <c r="I2">
-        <v>3.199188262650817</v>
+        <v>3.080105858975347</v>
       </c>
       <c r="J2">
-        <v>9.414067101199631</v>
+        <v>9.567387285320873</v>
       </c>
       <c r="K2">
-        <v>15.55205231192755</v>
+        <v>15.06473237119849</v>
       </c>
       <c r="L2">
-        <v>6.397864770349707</v>
+        <v>12.38033813723354</v>
       </c>
       <c r="M2">
-        <v>10.78904389039646</v>
+        <v>9.88496623395665</v>
       </c>
       <c r="N2">
-        <v>7.57770076343648</v>
+        <v>6.325126396647317</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.81009126501124</v>
       </c>
       <c r="P2">
-        <v>12.95099455300173</v>
+        <v>7.730566646910879</v>
       </c>
       <c r="Q2">
-        <v>15.30110566855982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.84500325936775</v>
+      </c>
+      <c r="S2">
+        <v>14.96241248484948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.53852930014196</v>
+        <v>12.28988428271076</v>
       </c>
       <c r="C3">
-        <v>7.576088929671053</v>
+        <v>7.238703946776617</v>
       </c>
       <c r="D3">
-        <v>6.568640727103249</v>
+        <v>6.590541516765423</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.17327575318203</v>
+        <v>20.75450959879625</v>
       </c>
       <c r="G3">
-        <v>22.80092033386977</v>
+        <v>21.68504594019534</v>
       </c>
       <c r="H3">
-        <v>2.773599246717026</v>
+        <v>2.675825403803698</v>
       </c>
       <c r="I3">
-        <v>3.323562588247779</v>
+        <v>3.192028478703381</v>
       </c>
       <c r="J3">
-        <v>9.446233702523472</v>
+        <v>9.576656876383522</v>
       </c>
       <c r="K3">
-        <v>15.60613504814613</v>
+        <v>15.13625222519491</v>
       </c>
       <c r="L3">
-        <v>6.351257537240662</v>
+        <v>12.51356016304207</v>
       </c>
       <c r="M3">
-        <v>10.18772648832375</v>
+        <v>9.892671679450476</v>
       </c>
       <c r="N3">
-        <v>7.356486478303477</v>
+        <v>6.283565081492911</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.21197513505012</v>
       </c>
       <c r="P3">
-        <v>13.06635700601838</v>
+        <v>7.506507340246901</v>
       </c>
       <c r="Q3">
-        <v>15.29996609115115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.94974575328176</v>
+      </c>
+      <c r="S3">
+        <v>14.97918567182649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.0003225043909</v>
+        <v>11.76938059544599</v>
       </c>
       <c r="C4">
-        <v>7.491876995298341</v>
+        <v>7.120464245705885</v>
       </c>
       <c r="D4">
-        <v>6.421055200467624</v>
+        <v>6.443617061068312</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.05623443658422</v>
+        <v>20.65616086077296</v>
       </c>
       <c r="G4">
-        <v>22.68549851522127</v>
+        <v>21.62248128392941</v>
       </c>
       <c r="H4">
-        <v>2.882410351131319</v>
+        <v>2.778614270993192</v>
       </c>
       <c r="I4">
-        <v>3.403709722244879</v>
+        <v>3.264450526669053</v>
       </c>
       <c r="J4">
-        <v>9.468370950378839</v>
+        <v>9.583347706775777</v>
       </c>
       <c r="K4">
-        <v>15.64271511474119</v>
+        <v>15.18262820057798</v>
       </c>
       <c r="L4">
-        <v>6.321670002872357</v>
+        <v>12.59746853346241</v>
       </c>
       <c r="M4">
-        <v>9.798794073037206</v>
+        <v>9.913753417296428</v>
       </c>
       <c r="N4">
-        <v>7.217966383605745</v>
+        <v>6.257076596411435</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.825194829279358</v>
       </c>
       <c r="P4">
-        <v>13.13899941799404</v>
+        <v>7.366541592894735</v>
       </c>
       <c r="Q4">
-        <v>15.30420894409917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.01605083983235</v>
+      </c>
+      <c r="S4">
+        <v>14.9935982690965</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.76884057019244</v>
+        <v>11.54505038037471</v>
       </c>
       <c r="C5">
-        <v>7.45964990905896</v>
+        <v>7.07501419550935</v>
       </c>
       <c r="D5">
-        <v>6.360319683292323</v>
+        <v>6.383192479544738</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.00509484313125</v>
+        <v>20.61235176820389</v>
       </c>
       <c r="G5">
-        <v>22.63271925989046</v>
+        <v>21.59142120392208</v>
       </c>
       <c r="H5">
-        <v>2.928073774908768</v>
+        <v>2.821769123315284</v>
       </c>
       <c r="I5">
-        <v>3.439955286441049</v>
+        <v>3.297986410087641</v>
       </c>
       <c r="J5">
-        <v>9.476741704693298</v>
+        <v>9.585035021942609</v>
       </c>
       <c r="K5">
-        <v>15.65494539807584</v>
+        <v>15.19864959419819</v>
       </c>
       <c r="L5">
-        <v>6.308770930124247</v>
+        <v>12.62872732075246</v>
       </c>
       <c r="M5">
-        <v>9.635402159564714</v>
+        <v>9.924674320188052</v>
       </c>
       <c r="N5">
-        <v>7.161987423927406</v>
+        <v>6.245446274707701</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.662735617334322</v>
       </c>
       <c r="P5">
-        <v>13.16901986035759</v>
+        <v>7.310061371401338</v>
       </c>
       <c r="Q5">
-        <v>15.30399956645235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.04358339597658</v>
+      </c>
+      <c r="S5">
+        <v>14.99730861395783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7243644313743</v>
+        <v>11.50166584361484</v>
       </c>
       <c r="C6">
-        <v>7.457286310259597</v>
+        <v>7.071264220254965</v>
       </c>
       <c r="D6">
-        <v>6.350408982154132</v>
+        <v>6.373342164913674</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.99074471693717</v>
+        <v>20.59914653108298</v>
       </c>
       <c r="G6">
-        <v>22.61444879167249</v>
+        <v>21.57665782831759</v>
       </c>
       <c r="H6">
-        <v>2.936042175034473</v>
+        <v>2.829313240201468</v>
       </c>
       <c r="I6">
-        <v>3.449408000793391</v>
+        <v>3.307592462715834</v>
       </c>
       <c r="J6">
-        <v>9.476649829778504</v>
+        <v>9.583754941459468</v>
       </c>
       <c r="K6">
-        <v>15.65273645206298</v>
+        <v>15.197087801299</v>
       </c>
       <c r="L6">
-        <v>6.305882586362155</v>
+        <v>12.62971935938041</v>
       </c>
       <c r="M6">
-        <v>9.607968456815847</v>
+        <v>9.92457053015591</v>
       </c>
       <c r="N6">
-        <v>7.153984883330251</v>
+        <v>6.242776460851895</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.635465106864514</v>
       </c>
       <c r="P6">
-        <v>13.17398753344195</v>
+        <v>7.301988774107583</v>
       </c>
       <c r="Q6">
-        <v>15.30017868448989</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.04820424355133</v>
+      </c>
+      <c r="S6">
+        <v>14.99410577819182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.98233192884151</v>
+        <v>11.74857482793615</v>
       </c>
       <c r="C7">
-        <v>7.49965484940595</v>
+        <v>7.127329602549255</v>
       </c>
       <c r="D7">
-        <v>6.420830293918717</v>
+        <v>6.446396386381894</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.03937404813111</v>
+        <v>20.63009036156518</v>
       </c>
       <c r="G7">
-        <v>22.65855931635854</v>
+        <v>21.66616563251121</v>
       </c>
       <c r="H7">
-        <v>2.88388410132051</v>
+        <v>2.780471052099348</v>
       </c>
       <c r="I7">
-        <v>3.413112833159736</v>
+        <v>3.275822435703851</v>
       </c>
       <c r="J7">
-        <v>9.464346998109407</v>
+        <v>9.54980259953803</v>
       </c>
       <c r="K7">
-        <v>15.63117685005371</v>
+        <v>15.16704915840663</v>
       </c>
       <c r="L7">
-        <v>6.319515480662361</v>
+        <v>12.58256068729053</v>
       </c>
       <c r="M7">
-        <v>9.796586537930274</v>
+        <v>9.905404323069767</v>
       </c>
       <c r="N7">
-        <v>7.220807417604809</v>
+        <v>6.254791231356884</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.819358334937196</v>
       </c>
       <c r="P7">
-        <v>13.13932784185047</v>
+        <v>7.36913997325673</v>
       </c>
       <c r="Q7">
-        <v>15.29368412810126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.01664146430539</v>
+      </c>
+      <c r="S7">
+        <v>14.97644987817545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.06844814099447</v>
+        <v>12.79256342284627</v>
       </c>
       <c r="C8">
-        <v>7.675628978586725</v>
+        <v>7.367782827368348</v>
       </c>
       <c r="D8">
-        <v>6.72401863331681</v>
+        <v>6.754904113611235</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.2819143671322</v>
+        <v>20.81228723083024</v>
       </c>
       <c r="G8">
-        <v>22.89721803952732</v>
+        <v>21.95999324874703</v>
       </c>
       <c r="H8">
-        <v>2.662144478688987</v>
+        <v>2.571929271604056</v>
       </c>
       <c r="I8">
-        <v>3.252617626841661</v>
+        <v>3.132568907656673</v>
       </c>
       <c r="J8">
-        <v>9.419225358147386</v>
+        <v>9.469491720812936</v>
       </c>
       <c r="K8">
-        <v>15.55459153374691</v>
+        <v>15.05995493715656</v>
       </c>
       <c r="L8">
-        <v>6.379449287177167</v>
+        <v>12.40003171977382</v>
       </c>
       <c r="M8">
-        <v>10.58581593783217</v>
+        <v>9.865936429641376</v>
       </c>
       <c r="N8">
-        <v>7.506624063603297</v>
+        <v>6.307981838174101</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.59660037261245</v>
       </c>
       <c r="P8">
-        <v>12.99050956263361</v>
+        <v>7.657674754117864</v>
       </c>
       <c r="Q8">
-        <v>15.28586195359634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.88176954618191</v>
+      </c>
+      <c r="S8">
+        <v>14.93163002809115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.97871400899739</v>
+        <v>14.632449912796</v>
       </c>
       <c r="C9">
-        <v>7.995001264322981</v>
+        <v>7.818122584180679</v>
       </c>
       <c r="D9">
-        <v>7.287549784029544</v>
+        <v>7.318772120219669</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.82915775863663</v>
+        <v>21.26829129540511</v>
       </c>
       <c r="G9">
-        <v>23.47929331079704</v>
+        <v>22.40132073753075</v>
       </c>
       <c r="H9">
-        <v>2.258482961513412</v>
+        <v>2.191094646587681</v>
       </c>
       <c r="I9">
-        <v>2.953047059906129</v>
+        <v>2.862143613312176</v>
       </c>
       <c r="J9">
-        <v>9.357477189122445</v>
+        <v>9.431206494659087</v>
       </c>
       <c r="K9">
-        <v>15.45267597885674</v>
+        <v>14.9056450354344</v>
       </c>
       <c r="L9">
-        <v>6.492658587770532</v>
+        <v>12.09124393252481</v>
       </c>
       <c r="M9">
-        <v>11.97482412394762</v>
+        <v>9.940021663317864</v>
       </c>
       <c r="N9">
-        <v>8.037100313977959</v>
+        <v>6.408560704624211</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.97681787266108</v>
       </c>
       <c r="P9">
-        <v>12.71266290815149</v>
+        <v>8.196523436786</v>
       </c>
       <c r="Q9">
-        <v>15.3295468895957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.63208859435026</v>
+      </c>
+      <c r="S9">
+        <v>14.92029578835979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.18658422339389</v>
+        <v>15.78927135514717</v>
       </c>
       <c r="C10">
-        <v>8.24613031295303</v>
+        <v>8.149735901642483</v>
       </c>
       <c r="D10">
-        <v>7.6252290999566</v>
+        <v>7.671868304906411</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.14832680697016</v>
+        <v>21.47309466878375</v>
       </c>
       <c r="G10">
-        <v>23.81971933257327</v>
+        <v>23.05771714071038</v>
       </c>
       <c r="H10">
-        <v>2.010279769250161</v>
+        <v>1.960634960390425</v>
       </c>
       <c r="I10">
-        <v>2.760622331974772</v>
+        <v>2.693312165787304</v>
       </c>
       <c r="J10">
-        <v>9.303963913316728</v>
+        <v>9.23231716923862</v>
       </c>
       <c r="K10">
-        <v>15.34516960181506</v>
+        <v>14.73733725047722</v>
       </c>
       <c r="L10">
-        <v>6.537302639747661</v>
+        <v>11.82549659428041</v>
       </c>
       <c r="M10">
-        <v>12.88796925541583</v>
+        <v>10.01630225575465</v>
       </c>
       <c r="N10">
-        <v>8.319050154340474</v>
+        <v>6.445429731321433</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.86743206021921</v>
       </c>
       <c r="P10">
-        <v>12.52027266722152</v>
+        <v>8.483313623893286</v>
       </c>
       <c r="Q10">
-        <v>15.33505928981228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.46535891875751</v>
+      </c>
+      <c r="S10">
+        <v>14.84806167842237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.34474469465787</v>
+        <v>15.94829818320604</v>
       </c>
       <c r="C11">
-        <v>8.553520309631498</v>
+        <v>8.476325847046125</v>
       </c>
       <c r="D11">
-        <v>7.304990504744518</v>
+        <v>7.381116927306753</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.40454945651636</v>
+        <v>20.64776088657182</v>
       </c>
       <c r="G11">
-        <v>22.93402360995382</v>
+        <v>23.06937868126158</v>
       </c>
       <c r="H11">
-        <v>2.940832321111708</v>
+        <v>2.912157299226239</v>
       </c>
       <c r="I11">
-        <v>2.729322205373532</v>
+        <v>2.674958946901133</v>
       </c>
       <c r="J11">
-        <v>9.113795785379994</v>
+        <v>8.781781267299417</v>
       </c>
       <c r="K11">
-        <v>14.89860935402124</v>
+        <v>14.27793319378152</v>
       </c>
       <c r="L11">
-        <v>6.318443596596852</v>
+        <v>11.44398575620584</v>
       </c>
       <c r="M11">
-        <v>13.20935841418038</v>
+        <v>9.735505005392477</v>
       </c>
       <c r="N11">
-        <v>7.671837962061039</v>
+        <v>6.240605192125601</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.15100316194506</v>
       </c>
       <c r="P11">
-        <v>12.47124998108576</v>
+        <v>7.826498689828725</v>
       </c>
       <c r="Q11">
-        <v>14.91258544808721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.44588007625111</v>
+      </c>
+      <c r="S11">
+        <v>14.36669682589608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.24620386141439</v>
+        <v>15.86454766026884</v>
       </c>
       <c r="C12">
-        <v>8.766371519190468</v>
+        <v>8.688035304340369</v>
       </c>
       <c r="D12">
-        <v>6.960242879256002</v>
+        <v>7.048088621697035</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.7225851835751</v>
+        <v>19.95562438854978</v>
       </c>
       <c r="G12">
-        <v>22.13761865009186</v>
+        <v>22.7060830184674</v>
       </c>
       <c r="H12">
-        <v>4.274853326076811</v>
+        <v>4.255796433549019</v>
       </c>
       <c r="I12">
-        <v>2.723328389296438</v>
+        <v>2.671082538003686</v>
       </c>
       <c r="J12">
-        <v>8.968439931477084</v>
+        <v>8.566750538110336</v>
       </c>
       <c r="K12">
-        <v>14.5644878579731</v>
+        <v>13.96322814916141</v>
       </c>
       <c r="L12">
-        <v>6.195763655088368</v>
+        <v>11.21352216008969</v>
       </c>
       <c r="M12">
-        <v>13.29473477864692</v>
+        <v>9.500753400810948</v>
       </c>
       <c r="N12">
-        <v>7.080214366464031</v>
+        <v>6.131759232630207</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.21907883446594</v>
       </c>
       <c r="P12">
-        <v>12.47903562592255</v>
+        <v>7.225811604444073</v>
       </c>
       <c r="Q12">
-        <v>14.56489729861946</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.47169426093759</v>
+      </c>
+      <c r="S12">
+        <v>14.012030293306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.92369536916608</v>
+        <v>15.57433849524356</v>
       </c>
       <c r="C13">
-        <v>8.930991941749172</v>
+        <v>8.850328913623825</v>
       </c>
       <c r="D13">
-        <v>6.570333783035139</v>
+        <v>6.651081947350095</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.0191244594343</v>
+        <v>19.31518250208514</v>
       </c>
       <c r="G13">
-        <v>21.31642315950713</v>
+        <v>21.80152007084969</v>
       </c>
       <c r="H13">
-        <v>5.673232295693643</v>
+        <v>5.657436983186074</v>
       </c>
       <c r="I13">
-        <v>2.751483465940185</v>
+        <v>2.695321418158418</v>
       </c>
       <c r="J13">
-        <v>8.842498937911369</v>
+        <v>8.517490149682711</v>
       </c>
       <c r="K13">
-        <v>14.28008825733803</v>
+        <v>13.73031847893859</v>
       </c>
       <c r="L13">
-        <v>6.138575029825747</v>
+        <v>11.0646972511271</v>
       </c>
       <c r="M13">
-        <v>13.20645367091701</v>
+        <v>9.285949592545412</v>
       </c>
       <c r="N13">
-        <v>6.499884160686266</v>
+        <v>6.088599917774638</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.13508937652402</v>
       </c>
       <c r="P13">
-        <v>12.52850002461048</v>
+        <v>6.6369331831067</v>
       </c>
       <c r="Q13">
-        <v>14.23720409692847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.52682987678439</v>
+      </c>
+      <c r="S13">
+        <v>13.7304711414696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.5882165435782</v>
+        <v>15.26979369599218</v>
       </c>
       <c r="C14">
-        <v>9.029602006714942</v>
+        <v>8.947815119970699</v>
       </c>
       <c r="D14">
-        <v>6.274971843605972</v>
+        <v>6.342897485618589</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.5142360988022</v>
+        <v>18.88438225544481</v>
       </c>
       <c r="G14">
-        <v>20.72448724193166</v>
+        <v>20.93339851199922</v>
       </c>
       <c r="H14">
-        <v>6.67041946839379</v>
+        <v>6.655356793293811</v>
       </c>
       <c r="I14">
-        <v>2.789592616467096</v>
+        <v>2.728569583861848</v>
       </c>
       <c r="J14">
-        <v>8.762740766544223</v>
+        <v>8.544015263005509</v>
       </c>
       <c r="K14">
-        <v>14.10364587316715</v>
+        <v>13.60130735325584</v>
       </c>
       <c r="L14">
-        <v>6.137959609086285</v>
+        <v>10.99113457173992</v>
       </c>
       <c r="M14">
-        <v>13.06500928433368</v>
+        <v>9.146148820830945</v>
       </c>
       <c r="N14">
-        <v>6.107980138206658</v>
+        <v>6.097397950049388</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.00619211209392</v>
       </c>
       <c r="P14">
-        <v>12.58225187107067</v>
+        <v>6.239321856692894</v>
       </c>
       <c r="Q14">
-        <v>14.01571279651377</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.57782914323309</v>
+      </c>
+      <c r="S14">
+        <v>13.56243196224293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.45293482355377</v>
+        <v>15.14518567238851</v>
       </c>
       <c r="C15">
-        <v>9.045773675676131</v>
+        <v>8.964747425739933</v>
       </c>
       <c r="D15">
-        <v>6.193562895434463</v>
+        <v>6.255151180414476</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.38329879282811</v>
+        <v>18.78401850126376</v>
       </c>
       <c r="G15">
-        <v>20.56873170022972</v>
+        <v>20.6206023630929</v>
       </c>
       <c r="H15">
-        <v>6.903134401813363</v>
+        <v>6.887798536033189</v>
       </c>
       <c r="I15">
-        <v>2.81095172273988</v>
+        <v>2.74826382014535</v>
       </c>
       <c r="J15">
-        <v>8.746571503021269</v>
+        <v>8.577091545136842</v>
       </c>
       <c r="K15">
-        <v>14.06793824106145</v>
+        <v>13.58202572818954</v>
       </c>
       <c r="L15">
-        <v>6.14214814658051</v>
+        <v>10.98425323752635</v>
       </c>
       <c r="M15">
-        <v>12.9928181119609</v>
+        <v>9.114760668849028</v>
       </c>
       <c r="N15">
-        <v>6.013793626585335</v>
+        <v>6.103879742530397</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.94120231820673</v>
       </c>
       <c r="P15">
-        <v>12.60325091262834</v>
+        <v>6.143997153448612</v>
       </c>
       <c r="Q15">
-        <v>13.96369556000738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.59541815720615</v>
+      </c>
+      <c r="S15">
+        <v>13.53229989191927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.99103253901869</v>
+        <v>14.70646334335849</v>
       </c>
       <c r="C16">
-        <v>8.912533661275193</v>
+        <v>8.832029537216536</v>
       </c>
       <c r="D16">
-        <v>6.114147477289015</v>
+        <v>6.149340327580437</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.3714077273028</v>
+        <v>18.8768580605516</v>
       </c>
       <c r="G16">
-        <v>20.55963467728974</v>
+        <v>19.89321360666754</v>
       </c>
       <c r="H16">
-        <v>6.706528476388813</v>
+        <v>6.686743549040306</v>
       </c>
       <c r="I16">
-        <v>2.892968975381303</v>
+        <v>2.819337205859072</v>
       </c>
       <c r="J16">
-        <v>8.792452267630399</v>
+        <v>8.833758065306201</v>
       </c>
       <c r="K16">
-        <v>14.16730229796429</v>
+        <v>13.72172418093818</v>
       </c>
       <c r="L16">
-        <v>6.130023502246893</v>
+        <v>11.10936717827808</v>
       </c>
       <c r="M16">
-        <v>12.63111033029815</v>
+        <v>9.161413596731546</v>
       </c>
       <c r="N16">
-        <v>5.997665715219575</v>
+        <v>6.092164030451059</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.61415241326602</v>
       </c>
       <c r="P16">
-        <v>12.6673715521762</v>
+        <v>6.130352001954837</v>
       </c>
       <c r="Q16">
-        <v>14.0202821207274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.63634615763887</v>
+      </c>
+      <c r="S16">
+        <v>13.66261748146614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.81665298636837</v>
+        <v>14.52912276264786</v>
       </c>
       <c r="C17">
-        <v>8.755244465404747</v>
+        <v>8.669194540273905</v>
       </c>
       <c r="D17">
-        <v>6.213950671283135</v>
+        <v>6.238943112589483</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.63217381281548</v>
+        <v>19.1686138369894</v>
       </c>
       <c r="G17">
-        <v>20.87011816397045</v>
+        <v>19.90009336975902</v>
       </c>
       <c r="H17">
-        <v>5.995701536791025</v>
+        <v>5.971183982886678</v>
       </c>
       <c r="I17">
-        <v>2.936444183335532</v>
+        <v>2.857539539385818</v>
       </c>
       <c r="J17">
-        <v>8.869970941527876</v>
+        <v>9.003044540122346</v>
       </c>
       <c r="K17">
-        <v>14.3354897613064</v>
+        <v>13.89370665402231</v>
       </c>
       <c r="L17">
-        <v>6.11495276621728</v>
+        <v>11.24986590938732</v>
       </c>
       <c r="M17">
-        <v>12.4265441148993</v>
+        <v>9.26378361396328</v>
       </c>
       <c r="N17">
-        <v>6.191191143970424</v>
+        <v>6.072536098039495</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.42503473484893</v>
       </c>
       <c r="P17">
-        <v>12.68923371686215</v>
+        <v>6.32833865132808</v>
       </c>
       <c r="Q17">
-        <v>14.18134527751997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.64519926975219</v>
+      </c>
+      <c r="S17">
+        <v>13.84493487305902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.88657722554242</v>
+        <v>14.58720301100274</v>
       </c>
       <c r="C18">
-        <v>8.55772337689835</v>
+        <v>8.463869136545217</v>
       </c>
       <c r="D18">
-        <v>6.480635401809096</v>
+        <v>6.502518684126986</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.16777262125245</v>
+        <v>19.69430085054256</v>
       </c>
       <c r="G18">
-        <v>21.50643162773514</v>
+        <v>20.38493565168552</v>
       </c>
       <c r="H18">
-        <v>4.796192260878416</v>
+        <v>4.764728565556457</v>
       </c>
       <c r="I18">
-        <v>2.939899611811154</v>
+        <v>2.857746419370458</v>
       </c>
       <c r="J18">
-        <v>8.986006106407586</v>
+        <v>9.151499188925348</v>
       </c>
       <c r="K18">
-        <v>14.59346961730983</v>
+        <v>14.13208599246395</v>
       </c>
       <c r="L18">
-        <v>6.132918629044413</v>
+        <v>11.43578904132922</v>
       </c>
       <c r="M18">
-        <v>12.33933006562659</v>
+        <v>9.434366246472738</v>
       </c>
       <c r="N18">
-        <v>6.609542849413086</v>
+        <v>6.080898696095586</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.34442011676675</v>
       </c>
       <c r="P18">
-        <v>12.68002622193811</v>
+        <v>6.753229477225246</v>
       </c>
       <c r="Q18">
-        <v>14.45719145749177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.6271093999409</v>
+      </c>
+      <c r="S18">
+        <v>14.11342899693764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.12288170699711</v>
+        <v>14.79887559756585</v>
       </c>
       <c r="C19">
-        <v>8.376266636429607</v>
+        <v>8.276942900406778</v>
       </c>
       <c r="D19">
-        <v>6.862503363415712</v>
+        <v>6.885023569160207</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.86074927793125</v>
+        <v>20.35211661936449</v>
       </c>
       <c r="G19">
-        <v>22.31434362598944</v>
+        <v>21.11044793244285</v>
       </c>
       <c r="H19">
-        <v>3.413734655366583</v>
+        <v>3.371222136493197</v>
       </c>
       <c r="I19">
-        <v>2.928358924320845</v>
+        <v>2.848591357829093</v>
       </c>
       <c r="J19">
-        <v>9.118188974592254</v>
+        <v>9.283397926955338</v>
       </c>
       <c r="K19">
-        <v>14.89388849566788</v>
+        <v>14.39810053364599</v>
       </c>
       <c r="L19">
-        <v>6.228615993017994</v>
+        <v>11.63818461175022</v>
       </c>
       <c r="M19">
-        <v>12.35466154756526</v>
+        <v>9.639104184751252</v>
       </c>
       <c r="N19">
-        <v>7.210634811862635</v>
+        <v>6.163156068959691</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.36134225086452</v>
       </c>
       <c r="P19">
-        <v>12.65412168517136</v>
+        <v>7.362154599351204</v>
       </c>
       <c r="Q19">
-        <v>14.78905246273131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.59478420885589</v>
+      </c>
+      <c r="S19">
+        <v>14.42060379022319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.84123238353923</v>
+        <v>15.45922339771001</v>
       </c>
       <c r="C20">
-        <v>8.207419827443717</v>
+        <v>8.107519487078244</v>
       </c>
       <c r="D20">
-        <v>7.537052989084287</v>
+        <v>7.570405246707522</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.0111698041619</v>
+        <v>21.39740823276368</v>
       </c>
       <c r="G20">
-        <v>23.64543301237563</v>
+        <v>22.54935904881985</v>
       </c>
       <c r="H20">
-        <v>2.075865294396383</v>
+        <v>2.020340500259468</v>
       </c>
       <c r="I20">
-        <v>2.840660174166132</v>
+        <v>2.771713940098595</v>
       </c>
       <c r="J20">
-        <v>9.303781328223618</v>
+        <v>9.368161934148558</v>
       </c>
       <c r="K20">
-        <v>15.33459846036999</v>
+        <v>14.75915824866878</v>
       </c>
       <c r="L20">
-        <v>6.518847695323954</v>
+        <v>11.87818235279876</v>
       </c>
       <c r="M20">
-        <v>12.6544423013106</v>
+        <v>9.974540677309376</v>
       </c>
       <c r="N20">
-        <v>8.251673770686645</v>
+        <v>6.429663098285637</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.65016187965406</v>
       </c>
       <c r="P20">
-        <v>12.57167010760129</v>
+        <v>8.415473639396016</v>
       </c>
       <c r="Q20">
-        <v>15.29795400938796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.50946011745903</v>
+      </c>
+      <c r="S20">
+        <v>14.85548503459731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.7924310707217</v>
+        <v>16.34798145291582</v>
       </c>
       <c r="C21">
-        <v>8.362801591819863</v>
+        <v>8.267675754224937</v>
       </c>
       <c r="D21">
-        <v>7.872849525882797</v>
+        <v>7.966888169809925</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.43023657418464</v>
+        <v>21.55520525969578</v>
       </c>
       <c r="G21">
-        <v>24.11826324993179</v>
+        <v>24.59499489124444</v>
       </c>
       <c r="H21">
-        <v>1.847790316769803</v>
+        <v>1.811547944918946</v>
       </c>
       <c r="I21">
-        <v>2.686437377697113</v>
+        <v>2.640820747403969</v>
       </c>
       <c r="J21">
-        <v>9.298490420763214</v>
+        <v>8.788659015640226</v>
       </c>
       <c r="K21">
-        <v>15.33497666287312</v>
+        <v>14.62510184901046</v>
       </c>
       <c r="L21">
-        <v>6.603871236058584</v>
+        <v>11.67684784655266</v>
       </c>
       <c r="M21">
-        <v>13.33681100267587</v>
+        <v>10.04387010346612</v>
       </c>
       <c r="N21">
-        <v>8.602069251980801</v>
+        <v>6.503618091298076</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.26257558126548</v>
       </c>
       <c r="P21">
-        <v>12.42208875557142</v>
+        <v>8.767591930207004</v>
       </c>
       <c r="Q21">
-        <v>15.39190131526308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.38696658667204</v>
+      </c>
+      <c r="S21">
+        <v>14.75820245888959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37971656114948</v>
+        <v>16.89533916501692</v>
       </c>
       <c r="C22">
-        <v>8.462630555980061</v>
+        <v>8.366464759436425</v>
       </c>
       <c r="D22">
-        <v>8.05873536354677</v>
+        <v>8.195365477572611</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.67588308214794</v>
+        <v>21.61955581584228</v>
       </c>
       <c r="G22">
-        <v>24.40601386786621</v>
+        <v>26.05165953585535</v>
       </c>
       <c r="H22">
-        <v>1.714747698231315</v>
+        <v>1.690742635504969</v>
       </c>
       <c r="I22">
-        <v>2.578251517841119</v>
+        <v>2.545069982134936</v>
       </c>
       <c r="J22">
-        <v>9.293219304534992</v>
+        <v>8.44779518530596</v>
       </c>
       <c r="K22">
-        <v>15.33084351265056</v>
+        <v>14.5269308009353</v>
       </c>
       <c r="L22">
-        <v>6.644027798684552</v>
+        <v>11.54094085681973</v>
       </c>
       <c r="M22">
-        <v>13.76014325375728</v>
+        <v>10.08893979594323</v>
       </c>
       <c r="N22">
-        <v>8.776009928940798</v>
+        <v>6.537808823675246</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.63853363753704</v>
       </c>
       <c r="P22">
-        <v>12.3265841207456</v>
+        <v>8.942041261707118</v>
       </c>
       <c r="Q22">
-        <v>15.44721599641471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.31150579266627</v>
+      </c>
+      <c r="S22">
+        <v>14.67821732576336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.08160824465599</v>
+        <v>16.62375831166413</v>
       </c>
       <c r="C23">
-        <v>8.399835166662283</v>
+        <v>8.308601651676772</v>
       </c>
       <c r="D23">
-        <v>7.959392430492443</v>
+        <v>8.066516929302736</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.56190544146263</v>
+        <v>21.62522382583824</v>
       </c>
       <c r="G23">
-        <v>24.28020884989555</v>
+        <v>25.10926353503898</v>
       </c>
       <c r="H23">
-        <v>1.784677810658333</v>
+        <v>1.753494387451893</v>
       </c>
       <c r="I23">
-        <v>2.623542406496575</v>
+        <v>2.580820902084367</v>
       </c>
       <c r="J23">
-        <v>9.30053859005602</v>
+        <v>8.676800583502391</v>
       </c>
       <c r="K23">
-        <v>15.34619232206239</v>
+        <v>14.60273227128107</v>
       </c>
       <c r="L23">
-        <v>6.624749382689535</v>
+        <v>11.62873592633679</v>
       </c>
       <c r="M23">
-        <v>13.53588755792977</v>
+        <v>10.08441978446518</v>
       </c>
       <c r="N23">
-        <v>8.679913357062336</v>
+        <v>6.521835670838819</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.44664034703278</v>
       </c>
       <c r="P23">
-        <v>12.37677825013073</v>
+        <v>8.846129517636166</v>
       </c>
       <c r="Q23">
-        <v>15.42912029351926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.34902193485794</v>
+      </c>
+      <c r="S23">
+        <v>14.74960723992933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.87829512585175</v>
+        <v>15.49464433424732</v>
       </c>
       <c r="C24">
-        <v>8.174554239421852</v>
+        <v>8.068425537791102</v>
       </c>
       <c r="D24">
-        <v>7.574308809657524</v>
+        <v>7.607321494183597</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.11170748864192</v>
+        <v>21.49576063901533</v>
       </c>
       <c r="G24">
-        <v>23.7751709742215</v>
+        <v>22.66199494720331</v>
       </c>
       <c r="H24">
-        <v>2.057271884895135</v>
+        <v>2.00161149866661</v>
       </c>
       <c r="I24">
-        <v>2.82101237532556</v>
+        <v>2.748564154737419</v>
       </c>
       <c r="J24">
-        <v>9.325979982026809</v>
+        <v>9.393540840072156</v>
       </c>
       <c r="K24">
-        <v>15.39074216825296</v>
+        <v>14.81136705395249</v>
       </c>
       <c r="L24">
-        <v>6.546823539606855</v>
+        <v>11.91829293010949</v>
       </c>
       <c r="M24">
-        <v>12.64986502548764</v>
+        <v>10.01397413758798</v>
       </c>
       <c r="N24">
-        <v>8.313637565476345</v>
+        <v>6.456064489383142</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.64615486812003</v>
       </c>
       <c r="P24">
-        <v>12.57097216494316</v>
+        <v>8.478157336106607</v>
       </c>
       <c r="Q24">
-        <v>15.35280757384077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.50696357839171</v>
+      </c>
+      <c r="S24">
+        <v>14.90854905567842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.46561238307962</v>
+        <v>14.14097412519497</v>
       </c>
       <c r="C25">
-        <v>7.924681486994674</v>
+        <v>7.721116984060163</v>
       </c>
       <c r="D25">
-        <v>7.139700821116669</v>
+        <v>7.16688642564889</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.6485502576284</v>
+        <v>21.12554908622484</v>
       </c>
       <c r="G25">
-        <v>23.26888671651506</v>
+        <v>22.12706075879016</v>
       </c>
       <c r="H25">
-        <v>2.365609235547239</v>
+        <v>2.291652548757997</v>
       </c>
       <c r="I25">
-        <v>3.047304972931386</v>
+        <v>2.9510776614468</v>
       </c>
       <c r="J25">
-        <v>9.364680979584421</v>
+        <v>9.473670482899939</v>
       </c>
       <c r="K25">
-        <v>15.45632205362338</v>
+        <v>14.9307673008088</v>
       </c>
       <c r="L25">
-        <v>6.459510731948213</v>
+        <v>12.16156940060634</v>
       </c>
       <c r="M25">
-        <v>11.61628305080016</v>
+        <v>9.895456600468114</v>
       </c>
       <c r="N25">
-        <v>7.902477072469932</v>
+        <v>6.379096713889974</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.62503764238055</v>
       </c>
       <c r="P25">
-        <v>12.78683537822544</v>
+        <v>8.05983449618979</v>
       </c>
       <c r="Q25">
-        <v>15.29458874126169</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.69853875869868</v>
+      </c>
+      <c r="S25">
+        <v>14.91040209487194</v>
       </c>
     </row>
   </sheetData>
